--- a/design_data/fish_data.xlsx
+++ b/design_data/fish_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9060"/>
+    <workbookView windowWidth="25968" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="fish_data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -38,16 +38,37 @@
     <t>rarity</t>
   </si>
   <si>
+    <t>larvae_img_path</t>
+  </si>
+  <si>
+    <t>adult_img_path</t>
+  </si>
+  <si>
+    <t>value_per_kg</t>
+  </si>
+  <si>
+    <t>time_to_grow_up</t>
+  </si>
+  <si>
+    <t>time_of_reproduction_cycle</t>
+  </si>
+  <si>
     <t>Red Fish</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
+    <t>res://assets/graphics/SpearFishingAssetsPack/Sprites/Fish1-16x16/Red.png</t>
+  </si>
+  <si>
     <t>Ryukin</t>
   </si>
   <si>
     <t>gold</t>
+  </si>
+  <si>
+    <t>res://assets/graphics/SpearFishingAssetsPack/Sprites/Fish2-32x16/Orange.png</t>
   </si>
 </sst>
 </file>
@@ -1200,15 +1221,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="16384" width="17.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,27 +1242,66 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/design_data/fish_data.xlsx
+++ b/design_data/fish_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>adult_img_path</t>
+  </si>
+  <si>
+    <t>init_adult_weight</t>
   </si>
   <si>
     <t>value_per_kg</t>
@@ -1221,18 +1224,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="16384" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,101 +1260,60 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/design_data/fish_data.xlsx
+++ b/design_data/fish_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="fish_data" sheetId="1" r:id="rId1"/>
+    <sheet name="supplement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+  <si>
+    <t>说明：此表记录鱼的初始化时（从钓场的概率池里抽出鱼种时/在渔场某鱼种繁衍时）的固定属性。</t>
+  </si>
+  <si>
+    <t>鱼的种类名</t>
+  </si>
+  <si>
+    <t>稀有度：1最低，数字越大越稀有。</t>
+  </si>
+  <si>
+    <t>幼体图片路径</t>
+  </si>
+  <si>
+    <t>成体图片路径</t>
+  </si>
+  <si>
+    <t>此鱼种初始成年体重。（sheet2有图）
+鱼在出生时除了拥有此表的模板，还拥有一个隐藏的“成体体重”属性，此属性不会变动，在幼体时隐藏，成体时显示。
+当鱼是被钓场钓上时，其“成体体重”等于此列值。
+当鱼是被繁衍来时，其成体体重=（母体（即触发此次繁衍的鱼）成体体重+鱼塘内其他成熟同种鱼的成体体重平均值）/2，再乘一个随机的波动倍率。
+游戏的目标就是一代代地扩大“成体体重”</t>
+  </si>
+  <si>
+    <t>繁衍时下一代体重波动倍率最小值</t>
+  </si>
+  <si>
+    <t>繁衍时下一代体重波动倍率最大值。</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>成长所需时间
+另，考虑随成长过程增大鱼的贴图在鱼缸内的scale好不好做</t>
+  </si>
+  <si>
+    <t>繁殖所需时间周期</t>
+  </si>
+  <si>
+    <t>出没钓场(见sheet2：supplement)</t>
+  </si>
+  <si>
+    <t>移动模式与时间间隔（如果此项有必要）</t>
+  </si>
   <si>
     <t>id</t>
   </si>
@@ -59,19 +104,25 @@
     <t>Red Fish</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>res://assets/graphics/SpearFishingAssetsPack/Sprites/Fish1-16x16/Red.png</t>
   </si>
   <si>
     <t>Ryukin</t>
   </si>
   <si>
-    <t>gold</t>
-  </si>
-  <si>
     <t>res://assets/graphics/SpearFishingAssetsPack/Sprites/Fish2-32x16/Orange.png</t>
+  </si>
+  <si>
+    <t>钓场id</t>
+  </si>
+  <si>
+    <t>钓场名称</t>
+  </si>
+  <si>
+    <t>钓场图片路径</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
@@ -237,12 +288,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -563,7 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,16 +644,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -605,91 +662,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -964,6 +1030,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6469380" y="480695"/>
+          <a:ext cx="3771900" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,100 +1337,212 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="16384" width="17.4444444444444" customWidth="1"/>
+    <col min="1" max="5" width="17.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="7" max="16384" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="195" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>1.2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
+      <c r="M3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+    <row r="4" spans="1:13">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G4">
+        <v>0.9</v>
+      </c>
+      <c r="H4">
+        <v>1.2</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="I3">
+      <c r="K4">
         <v>30</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/design_data/fish_data.xlsx
+++ b/design_data/fish_data.xlsx
@@ -7,8 +7,9 @@
     <workbookView windowWidth="25968" windowHeight="13380"/>
   </bookViews>
   <sheets>
-    <sheet name="fish_data" sheetId="1" r:id="rId1"/>
-    <sheet name="supplement" sheetId="2" r:id="rId2"/>
+    <sheet name="策划表" sheetId="3" r:id="rId1"/>
+    <sheet name="fish_data" sheetId="1" r:id="rId2"/>
+    <sheet name="supplement" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+  <si>
+    <t>游戏循环</t>
+  </si>
+  <si>
+    <t>主界面-鱼缸</t>
+  </si>
   <si>
     <t>说明：此表记录鱼的初始化时（从钓场的概率池里抽出鱼种时/在渔场某鱼种繁衍时）的固定属性。</t>
   </si>
@@ -1034,6 +1041,1728 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="4206240"/>
+          <a:ext cx="7429500" cy="4503420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5158740" y="4533900"/>
+          <a:ext cx="1402080" cy="975995"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钓鱼按钮</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钓场选择</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5140960" y="5560060"/>
+          <a:ext cx="1402080" cy="3131185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>商店</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>337820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11127740" y="4841240"/>
+          <a:ext cx="1402080" cy="2118360"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>鱼缸信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>鱼列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11140440" y="6979920"/>
+          <a:ext cx="1402080" cy="1691640"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>鱼信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="左箭头 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6271260" y="4960620"/>
+          <a:ext cx="228600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363220</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="左箭头 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6230620" y="6764020"/>
+          <a:ext cx="228600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="左箭头 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="8275320"/>
+          <a:ext cx="396240" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右箭头 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="8282940"/>
+          <a:ext cx="480060" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6682740" y="8100060"/>
+          <a:ext cx="4259580" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    	                      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>鱼缸切换</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="ECB019B1-382A-4266-B25C-5B523AA43C14-2" descr="C:/Users/13237/AppData/Local/Temp/et.OprTbret"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1341120" y="82550"/>
+          <a:ext cx="10058400" cy="3222625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>283210</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左箭头 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8569960" y="8432800"/>
+          <a:ext cx="228600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>172720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>401320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="左箭头 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11145520" y="5674360"/>
+          <a:ext cx="228600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>459740</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左箭头 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="11203940" y="7401560"/>
+          <a:ext cx="228600" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11567160" y="4312920"/>
+          <a:ext cx="853440" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设置等</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5225415" y="5224780"/>
+          <a:ext cx="1188720" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钓场切换</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -1337,10 +3066,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1352,72 +3109,72 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="195" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1425,13 +3182,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1463,13 +3220,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1502,7 +3259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
@@ -1515,24 +3272,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -1545,4 +3302,20 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<s:customData xmlns="http://www.wps.cn/officeDocument/2013/wpsCustomData" xmlns:s="http://www.wps.cn/officeDocument/2013/wpsCustomData">
+  <extobjs>
+    <extobj name="ECB019B1-382A-4266-B25C-5B523AA43C14-2">
+      <extobjdata type="ECB019B1-382A-4266-B25C-5B523AA43C14" data="ewoJIkZpbGVJZCIgOiAiMzAwOTc2NzI0MjMyIiwKCSJHcm91cElkIiA6ICI0MzMzMzIyOTkiLAoJIkltYWdlIiA6ICJpVkJPUncwS0dnb0FBQUFOU1VoRVVnQUFCMVVBQUFLb0NBWUFBQUF2WGFZM0FBQUFBWE5TUjBJQXJzNGM2UUFBSUFCSlJFRlVlSnpzM1hkOFZGWCsvL0gzdVRQcENRUUNwQkJhNkNnSklCWlFmb29VRlVXQlJWUUVWc1d2cU9pNkNvSzRpdzFXVkVUQUZhV0pnSUpnQVd5c2RWRkJaUVVFUlVDa0dCYWtTQ2doUFpuTStmMFJNMHRJSVJTWmhMeWVqd2NQTStlZWUrOW5VbWJHKzdtZno1RUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBRUFKakw4REFBQlVMdFphNis4WWpzY1l3L3NiQUFBQUFBQUFBT0MwY2Z3ZEFBQUFBQUFBQUFBQUFBQlVaQ1JWQVFBQUFBQUFBQUFBQUtBTUpGVUJBQUFBQUFBQUFBQUFvQXdrVlFFQXA0M0g0em1sL1hOeWNwU2VubjZhb2dFQUFBQUFBQUFBNFBRZ3FRb0FPRzNHakJtam5qMTc2dkRod3llMS83Smx5OVM1YzJjbEp5Zjd4ZzRlUEtpVWxKUnkvY3ZJeURoZFR3VUFBQUFBQUFBQUFCKzN2d01BQUp3ZHZ2amlDNzMvL3Z0S1NrclNsMTkrV2VLY2F0V3E2YkxMTGl2ekdIWHExRkhEaGcxOVkzMzc5bFZxYW1xNVlyanBwcHMwZlBqd0V3c2NBQUFBQUFBQUFJRGpNUDRPQUFCUXVWaHI3YkZqVzdaczBXMjMzYWE4dkR5NVhLNFM5OHZPemxiVHBrMjFZTUdDRXJkN1BCNTE2ZEpGYmR1MjFZQUJBM3pqZVhsNSt2bm5uL1g4ODgvcjJXZWZWV1JrWkpIOXBrMmJwdFRVVkkwWU1VSjE2dFJSM2JwMVpZemgvUTBBQUFBQUFBQUFjTnBRcVFvQU9DVTdkdXpRdmZmZXEzcjE2bW5xMUttcVZxMWFrZTNXV2ozMjJHUDY1Sk5QTkdMRWlGS1BzM0xsU3FXbnAydjU4dVZhdm55NWIzemF0R2xLU0VpUUpMVnExVXJSMGRGRjlxdFJvNGJ5OC9QVnRtM2IwL2lzQUFBQUFBQUFBQUQ0SDVLcWxVaFNVbEpkWTB4VGY4Y0JBSVcyYk5taW9VT0hLanc4WEJNbVRKRGI3VlptWm1hUk9aTW1UZExTcFVzMWJ0dzR0V2pSd3JjOUtDaW9TRlhydkhuejFLNWRPNzMwMGt1U3BQZmVlMDlQUGZXVUVoSVN0R0hEaGhPS3EwMmJOcVgzR0FhQU15QXZMMi9YaGcwYnR2bzdEZ0FBQUFBQUFKd2VKRlVyaWNURXhIakhjYVlaWTlyNU94WUFrS1JseTVacDlPalJ5c3JLMG9FREIzVE5OZGVVT1gva3lKRkZIaytiTmszdDI3ZVhKRzNldkZuZmZ2dXRKazJhSkxlNzRLMXB5WklsNnRTcGsycldyT25icDArZlBzV09tNWVYcDZTa3BDSmpqdU84ZmxKUENnQk9rNkNnb0IxdDJyUzVjOTI2ZGV2OEhRc0FBQUFBQUFCT0hVblZ5aU5lVWl0cmJiU2tERWtlUDhjRG9BcXoxbXJwMHFWcTBhS0ZqREU2Y3VTSUhucm9vU0p6dnZqaUM3MysrdXVhT25WcWtmRWRPM1pvekpneFJjYm16WnVuaGcwYktpWW1SbmZlZWFjR0R4NnNqUnMzNnJubm5pc3k3Nzc3N2xQMTZ0V0xqTDMrZXZIOHFiVTIrRlNlSHdDY0xHT01ZNjBObHhSa2pHa3NpYVFxQUFBQUFBREFXWUNrYXVXVFlhMGRJK2xiZndjQ29NcGFab3pSMDA4L3JmejhmSTBjT2JMRU5VMjNiZHNtWTB5eDhhQ2dvR0lIN05TcGs5cTBhYVAwOUhTdFdyVks5OTkvdnhZdlhxelkyTmdpOHk2OTlOSmlhNnArL3ZublNrbEpLVEptcmUxOUtrOFFBRTZXMSt0dDVISzVuclRXRm4reEF3QUFBQUFBUUtWRlVyWHk4VGlPODhOMzMzMzN1YjhEQVZDMU9ZNGp4M0VrU2VucDZWcTllbldSN1R0MjdKQzF0c1R4WTNYcjFrMWVyMWZmZi8rOWJ5dytQdjZrWTF1M2JoMnZrUUQ4SWpFeE1jVmFteTJKcENvQUFBQUFBTUJaaEtRcUFPQ1ViZHUyVFVPR0RDbHhXMm5qeHlwTTBKYmxpeSsrS05iK2Q4K2VQUW9JQ0NqWE9RQUFBQUFBQUFBQU9Ca2tWUUVBcHl3cEtVblRwMDh2TXJabzBTSTk5OXh6V3JGaVJaSHhUWnMyNlpaYmJqbXA4MHllUExuWVdGNWVucEtTa2s3cWVBQUFBQUFBQUFBQWxBZEpWUURBYWVGMkYzMUxLYXc4UFhiYzVYS2Q5RGtXTFZwVWJFM1ZVYU5HRlZ0VEZRQUFBQUFBQUFDQTA0bWtLZ0RnbEIwK2ZGZ2ZmZlJSa2JHTkd6ZktXbHRzL05kZmZ5MzNjWGZ2M3EyNHVMalRFaU1BQUFBQUFBQUFBQ2VMcENvQTRKVDk5Ny8vMVJOUFBGRnMzTzEyRnh1MzFwYnJtSys4OG9vKy9QQkRMVnk0c01pK2h3OGZWa3BLaWc0ZE9xUURCdzVvNTg2ZFNrbEowYU9QUHFwRGh3NXAwcVJKcC9aa0FBQUFBQUFBQUFBNEJrbFZBTUFwYWQrK3ZWcTJiS24vKzcvL0s5Zjh2WHYzNnJYWFhpdld4bGVTc3JLeUpFbmp4bzNUNXMyYjFhZFBIOTErKyszYXMyZVBKS2xuejU3eWVyMlNwTkRRVU5Xc1dWT3BxYWx5dTkwS0RBeFVVbEtTciswd0FBQUFBQUFBQUFDbkMwbFZBTUFwNmQrLy93bk5qNG1KMGZEaHcwdmM5dUdISDBxU01qTXo5ZHBycjZsMjdkcWFQMysrYXRXcXBhaW9LTjkvYTlhc3FlRGdZRW4vVzFQMWIzLzcyNms5RVFBQUFBQUFBQUFBU2tGU0ZRQndVdnIyN2V1cklEMFZ3NFlOVTU4K2ZTUkpGMTk4c2ZMejh6VjY5R2hmMHZUT08rODg1WE1BQUFBQUFBQUFBSEFxU0tvQ0FFN0tMYmZjb295TWpGTStUdXZXclgxZlgzSEZGYnJpaWl0TytaZ0FBQUFBQUFBQUFKeE9KRlVCQUNmbG1tdXU4WGNJa2dyV1h3VUFBQUFBQUFBQTRJL2srRHNBQUFBQUFBQUFBQUFBQUtqSVNLb0NBQUFBQUFBQUFBQUFRQmxvL3dzQU9DSEdHT1B2R0FBQUFBQUFBQUFBT0pPb1ZBVUFBQUFBQUFBQUFBQ0FNcEJVQlFBQUFBQUFBQUFBQUlBeWtGUUZBQUFBQUFBQUFBQUFnREtRVkFVQUFBQUFBQUFBQUFDQU1wQlVCUUFBQUFBQUFBQUFBSUF5a0ZRRkFBQUFBQUFBQUFBQWdES1FWQVVBQUFBQUFBQUFBQUNBTXBCVUJRQUFBQUFBQUFBQUFJQXl1UDBkQUlwTFRFd01jN2xjdFk0ZXM5YkdTSEliWXh4cmJaMjJiZHMyT0hwN1RrN09nWTBiTjZhZjBVQUJBQUFBQUFBQUFBQ0FLb0NrYWdYa09FNlNNZWFybzhlTU1VZC9QZWZZZllLQ2dpNlQ5TVVmSHgwQUFBQUFBQUFBQUFCUXRkRCt0d0phdDI3ZHQxNnZkM3Q1NTF0cmQ2NWR1L2JyUHpJbUFBQUFBQUFBQUFBQW9Lb2lxVm94ZVNUTmxDUnJyYXkxeFNZY00vNkdwTHd6RmgwQUFBQUFBQUFBQUFCUWhaQlVyYUNNTWU5SU9uSjAyOThTNXNoYW0yR3QvZWpNUlFZQUFBQUFBQUFBQUFCVUxTUlZLeWhyN1c1SjN4eHZuakhtUjBsYi92aUlBQUFBQUFBQUFBQUFnS3FKcEdvRnRXN2R1alJyN1ZmMjl4Ni9SN2NBTHZ6YUZsaVhucDYreHo5UkFnQUFBQUFBQUFBQUFHYy9rcW9WVjc2MWRyMHhKcTIwQ2NhWUxFbXJ0bTdkbW5NRzR3SUFBQUFBQUFBQUFBQ3FGSktxRlpqWDYxMXRyZjJ0akNsSHJMVmZuckdBQUFBQUFBQUFBQUFBZ0NxSXBHb0Y5c01QUCt5UzlJTXhSbEpCMjkvQzFyL0dHSG05M2gvWHJWdkhlcW9BQUFBQUFBQUFBQURBSDRpa2FzVTNwN1FOeHBocFp6SVFBQUFBQUFBQUFBQUFvQ29pcVZyQnBhV2xmV1N0M1hmMG1ERkcxdG9EYVdscDcva3JMZ0FBQUFBQUFBQUFBS0NxSUtsYXdXM2R1alZIMHB1RkxZQ1BzdlQzYlFBQUFBQUFBQUFBQUFEK1FDUlZLNEg4L1B4WEpHVVZQcmJXNWhoajN2UmpTQUFBQUFBQUFBQUFBRUNWUVZLMUVuQzVYRHV0dFQ4YlkvUjd4ZW8yajhmenM3L2pBZ0FBQUFBQUFBQUFBS29Da3FxVndLRkRoOUlrZlcxL0ora25hKzF2L280TEFBQUFBQUFBQUFBQXFBcElxbFlDeWNuSjJaS1dHMlBTSmVWSyttcjkrdldIL0J3V0FBQUFBQUFBQUFBQVVDV1FWSzBrOHZMeTFrbjYxUmlUWnExZDd1OTRBQUFBQUFBQUFBQUFnS3FDcEdvbDhlT1BQMjZ5MW02dzFtNWZ0MjdkS24vSEF3QUFBQUFBQUFBQUFGUVZ4dDhCbkRIeDhTRU53bXJHNU1zYllmT2QwQUMzRSt6dmtFNVVXSUR0SXBtd2pEeTk2KzlZVGxSK2ZyNVh4cHRsdk1yd1dKTzJlOXVQZXlSNS9CMFhBQUNvV0dyVmFoNFJYTjBkN1hac3VIVTVvVWJ1UUgvSGRDSmN4aHNURnVqY0lhTmdqOGNzeVBUWUgvd2RVL2taNjhuUHp6WnVaZVJsNWFidlRYWjJTeHR6L1IwVkFBQUFBQUJBUlhCV0oxWGpHamV1RitnTzZ5MWpPa2ltcFRFS3MxS0FySFhMeU9YditFNkNrYXdrWS8wZHlJa3oxbGliYnlXUGtmS3N0TjlZdTg1anpaY1ozb3gvSGR5NjlZaS9Jd1FBQVA3Um9PbTVMWTNMNldWbExqWkdEU1VUYktRQWErV1dzWldxczRxMVZvNk1JMGxXMWl0VHlUNXVXK1ZMSnM4WWVheHNtcXo5d1hxMUlpODllOG51M1QrbitEczhBQUFBQUFBQWY2bGtWM21PeXlRa0pGVExkNGRkYkl4cnFISFVWWkt2dWlFd0lFQXVsMHVPeXlYSE9kdWVlZ1ZucFh5dlYxNXZ2anllZkhrOG5xTzNwWGhsRjNxVTg3eEpUOSs1YTlldUxQOEZDZ0FBemdBbnVuRmlyZUFBMjlYSStZc3g1c0tqTndZR0Jzcmxjc25sT0RKOFpqdWp2RjZ2OHZPOXlzL1BWMTVlM3Y4MldKdmp0WG96MzJ0ZnlEbnMyYkIvLzhaMC8wVUpBQUFBQUFCdzVwMDFWNmthTm13VDZRMjJOemhTUDJQTTVZWGpDWTBhcWxuVEptcmNxS0hpNjhZcElqeGNvYUVoQ2c2dWROMS9Leld2MTZ2TXJDeGxabVlwTlRWVjIzOUpWdktPLzJyVDVwLzEyLzdmaXg2c1RiTXlpL05sNSsvODZmdVAvQnN4QUFENEk5UnRraGp2Y3N3QXg5SDF4cGgya3VSeXVkUzhXUk0xYTlKRWpSbzJVR3hNSFlXSEZYeG1Dd3lzVk4xL0t6VnJyYkt6czVXUm1hbTB0SFR0MkxsTHYveVNySjkrM3FLZHUzNHRuSk1qbVkrOE52ODFiOGFoOTdrWkRnQUFBQUFBVkJWblJWSzFib3NXVVFFS2VzVVlkYlpXWVNFaElhWjdsODdxMitkYU5haFhUOVdxUlNnaVBGeU9VNm02eDUyMXJMWEt5OHRUZW5xR0RoMCtyUFViTm1udXZBVmE5OE42V1d1OVJrcXhWck9UOHpNZTBkYXRPZjZPRndBQW5CN3hDUzJidWdNRHB4dXBvNHdKckY2dG12N1VxNmQ2WE5sTk1kSFJxaFlSb2ZEd01IK0hpZDk1OHZPVm5wYXUxQ05IdEQxNWgrYk9XNkN2dmxtcHZEeVBsZEZoV2IyWm5IN2dyeUt4Q2dBQUFBQUFxb0RLbmxSMU5XclorbUpyblFYR21OakF3RUExYnRSSWp6ejhvQzVvMzA2bXNxMWhWWVY1UFBsNjdmVTNOT09WT2RyMzIzNTV2VjVaYTkvTDg5aTdmOTM2d3k1L3h3Y0FBRTdGZVFHTld1UmRhV1ZlTThaVUN3a0pVZHVrUlAxdHhQMXEwYndabjlrcWlmeDhyejc2NURNOU8rbWYydlhyYm5ueTgyV3RYU3V2dDMveXorczNTN0wramhFQUFBQUFBT0NQNHZKM0FLZWlVZk9rNnlVenpSaFROelltUnZmY2Vic2UrOXRJSlRScXdNVzVTc1p4SENVbG5xdExPMTJzUEk5SG0zNzZXVjZ2dDZuYjVTU0YxNDVaZVNSbDcwRi94d2dBQUU1Q3ExYUJEV3ZxTG1PY0Z4eGpxalZ2MmtRamgvMVZJKzYvVjlGMTZ2Q1pyUkp4SEtPbVRScnJtcXV1a0RGR1AyL2RwcHljbkJnWjA3RmFWT3lQcVFmMjd2UjNqQUFBQUFBQUFIK1VTcHRVYmRnODZWWmp6RVFaRXh0ZHA0NWVuRFJlWFR0ZnBwQVExa3F0ckl3eHFsbXpoaTVzMzA1Tkd5Zm84K1Vyak1mamFlUklWMGJXaUZweCtPRCt2ZjZPRVFBQW5KaUdOZU9HeTNGR0c2UHFyVm8wMThSbi9xR0xMbWd2dDl2dDc5Qndra0pEUTlTdVRhSmFObSt1eno3L3d1VGxlV0tNTVYwamF0WlpjK1RBdnYvNk96NEFBQUFBQUlBL1FtVk1xanIxbXJXNXpuSE1MTWN4MVZ1MmFLNzVzNmVyU2VNRXVWeVY4ZW5nV0lHQmdXclJ2S25xMTZ1bi8zeTcydVRrNUVUSk9HMkRvcUkveXppdzc3Qy80d01BQU9YaXF0OGk2UTdITVpOY2poTjhYdHNrelpuNWt1ckd4YkxPL1ZrZ0lDQkFDWTBhcXNPRjUrdkxGZCtZak15TVNHTjBWYlhJcUE5VEQrN2Y3Ky80QUFBQUFBQUFUcmRLbDRXTWI5YnFmTGZMOWJ4a1k1TmFuMk1tUERWRzlldkYwenJ1TEpTUTBGRHhkV1AxeFlxdmxKZVhIeHRnVE16aGxMM3ZTUEw2T3pZQUFGQW1VNjlGVWplWDlMekw1UXE3L05KT212RFVXTldzVWNQZmNlRTBpNjVUUnkyYk45UHE3OVlxOVVoYXFIRzVFeUpDcWk4N2N1UkFtcjlqQXdBQUFBQUFPSjBxWFZLMVp1MjQxeVNkRng0ZTVydzRlWUthTjJ0S1F2VXM1WEljTldtY29QcjE0dlhKWjhzY3lkdThlbFFkbTNyZ3R5LzlIUnNBQUNoZFhMTm10UUpNNE11U21qYW9YODlNZUdxTTRtSmorTXgyRmpMR3FHNWNyQm8xYXFEMy8vV3hrYlVORmVBT1NVM1o5eTkveHdZQUFBQUFBSEE2VmFha3F0T2dlZExqam1QK0hCb2FZbVpNbWF4MmJaSzRPSGVXY3h4SHpaczFWWFoyanRaK3Y5NGxxWE8xcUtoUFV3L3MzK252MkFBQVFJbGNOV3ZIajNPTTZSMFJIbTVtVDUraXBrMFMrTXgyRm5NY1I0MGFORkROR2pXMC9PdVZMbXZ0QmRWcjFGcWRldkMzTGY2T0RRQUFBQUFBNEhTcE5FblZCczFhWDJrYzU2V0FBTGR6eDIxL1ZwL3JybUU5cmlxa1FmMTZXcjloZzNidjNpc2pWNVBnV2pHZnA2ZnNaWDFWQUFBcW1JWXRFZ2NaT1dPRGdnS2NSLzgyVXBmOXY0djlIUkxPa01ZSkRiVmw2elp0K3lWWk1xWkR0Y2lZVDFNUDdtTjlWUUFBQUFBQWNGYW9GRm5KbUNaTmFodkh1Y3NZdVZvMGE2by85ZTRwdDl2dDc3QndCc1hGeG1oUS81dCtmMlF2Q3N5M1BWVkpmbjhCQUtncTRocWZXOC9JRERkR3Jvdk9iNi91WFR2N095U2NRYUdob2JyNXBuNktpcW9weWRTWFd3T2tWb0gramdzQUFBQUFBT0IwcUJSSnFTQW41SHdqOC84a3FmOE5mZFdnWGoxL2g0UXp6SEVjWFgxbE4zVzg4QUlaWXdJZHQyNnJrWkFRNGUrNEFBQ0Fqd2x3T1ZkSWFoSWVGcVliKy8xSmtkV3IrenNtbkVIR0dIWHFlSkc2WFg2WmpKSExrZnJFSjlnRy9vNExBQUFBQUFEZ2RLZ1VTVlhIY2U2V1VmV1d6WnZwMm11dThuYzQ4S094ai8xTjFhcEZTRlpKRVFIaGYvWjNQQUFBb0VCOC9EazFqTXNNa2pIQmJkc2s2ckpPdFAydHF1NFpjcnRxMXFnaFNVM2RnZTRCL280SEFBQUFBQURnZEtqd1NkV0dUVnBmS3FOdWt2VFkzMGNxTkNURTN5SEJqeG8ycUsrZVYxMHBZNHh4akhrMHBrbVQydjZPQ1FBQVNBRmhwcXVSdVVpU2h2MWxxSUtEZy8wZEV2d2tMaTVXdHcyNldjWVlJem4zMVdyUU10YmZNUUVBQUFBQUFKeXFpcDFVYmRVcTBBWTRVeVFUZU5FRjUrdjg4OXI1T3lKVUFEMnZ2bEpSTld2SUdGTXp5QlYycnlUajc1Z0FBS2pTbWpRSnNzWTFSbEpBanl1NktiSDFPZjZPQ0g3V3Q4OTFpbzJKbGpHbWVtaHc0Q1BpOHhvQUFBQUFBS2prS25SU3RhRW5vTGNqYzA1WVdLajYvZWs2ZjRlRENxSlZpK2JxZEhGSEdXTWtvOTZ4alZyVzkzZE1BQUJVWlEzZFliY1lZNXBGVnErdTIyOFo2Tzl3VUFIVWlLeXVhM3BjSVpmTEpjZFI3d1pOejIzaDc1Z0FBQUFBQUFCT1JVVk9xcnJrMkdzbHFVV3pwdXA0NFFYK2pnY1ZSRmhZcUhwZmU3VUNBd1BsU0EwQ2dnSVMvUjBUQUFCVm1GdXkvU1hwd2d2YXEybVRCSC9IZ3dyQTdYYnJ5bTVkVkN1cXBveFZwSFc1L3ArL1l3SUFBQUFBQURnVkZUYXBHdHVvWmJ5TWFTbEpIUys2VUhYcXNIUW1DaGhqZEhHSEN4VVhHeU1aRTJHc09WK1N5OTl4QVFCUUZkVnYwcXE1TVU3RG9LQkFYWHpSQlFvTEMvTjNTS2dBakRGS2FuMnVHaWMwa293Sk10YTBqNHVMQy9WM1hBQUFBQUFBQUNlcndpWlZBOXp1cHJJbVFaSzZkTDdVMytHZ2duRWNSemRlMzBlU1pLUXI0dUxpZ3Z3Y0VnQUFWWk1UME01YTFRNFBDOWVGNTUvbjcyaFFnVGlPbzU0OXJwQWtHV003QkFWVjV5NUpBQUFBQUFCUWFWWFlwS3B4T3gwa1c2MXVYSnhhdFdqbTczQlFBZlh1ZWJWY0xrZkdVWnVnaUZyMS9CMFBBQUJWVGNPR0RZT05zUmRKTnJoaGcvcEthTlRRM3lHaGd1bldwWFBCNXpWam1ua0RBeHI3T3g0QUFBQUFBSUNUVlhHVHFsWTlqREhtK2o3WHllMTIrenNjVkVDMWFrV3BmZHUya2t5Z1Y3cmQzL0VBQUZEVlpMbXFWVFBHdWNRWVk2NitzcHRjTHJyeG82aWFOV3FvVThjT2toUWdveHY5SFE4QUFBQUFBTURKcXBCSjFiaG1yVnNZNmJ5QWdBQmQzK2RhZjRlREN1eks3bDBrU2NhWUFkSFJpU3ppQmdEQUdlUjI2MXhqMUNvd01GQTlydXptNzNCUVFmWDkvZk84STlPclZ2UG1FWDRPQndBQUFBQUE0S1JVeUtTcTIzSDZ5WmlBeEhOYktTWTYydC9ob0FKTGFuMnVxbGVySm1OTVRHQjF0Zk4zUEFBQVZDVnVZNjZSNUw2Z2ZUdlZybFhMMytHZ2dtcVRtS2hhVVZHU01iWERUWEJIZjhjREFBQUFBQUJ3TWlwa1V0V1J1VVNTMmlZbHloamo3M0JRZ1VWRjFWUnNURUhpM1hHcHRaL0RBUUNnYWpFNlg1STZYblFCbjlsUXFyQ3dVRFZxMkVDU1pJMzNmRCtIQXdBQUFBQUFjRklxWWxMVlphUUxKS2x4UWlOL3g0SUtMaUlpdktEeVFaS1JJYWtLQU1DWjQzYXNTWlNrVmkyYSt6c1dWR0JCZ1lHcUd4Y2pTVExXUlZJVkFBQUFBQUJVU201L0IzQ3NoaTFhMUpOUjlhQ2dJRnIvNHJqQ3c4SVVGVld6NElGVk0wa3VTZm4rak1tZnJMWFczekVBd0IvSlVBNVpZZFJ0MFNKQlJ0WENRa01WRTEzSDMrR2dBZ3NNREZSTXpPOUpWYU5XS3ZoL0VJOWZnd0lBQUFBQUFEaEJGYTVTTlY5QnpTVXBzbm8xUlVaVzgzYzRxT0RjYnJmcXhzWEtjUnpKcUVhOWVzM0p4QU1BY0FhNGJHQ2lKTld1WFV1aG9hSCtEZ2NWbU9NNGlvMnVvOERBUUZrcExDNmhWWnkvWXdJQUFBQUFBRGhSRlM2cDZ2S3FsU1JGVnErdXlPclYvUjBPS29HR0Rldkw1WEpKVnRVVkdzQkZPZ0FBemdDWGNkcEtVcDNhdFJRU0V1THZjRkRCeGNYRktEUTBSSklOZHJzRDZ2czdIZ0FBQUFBQWdCTlY0WktxTW1vdVNkV3JWNnZ5U2RXVWxCUXRYcnhZKy9idEszRjdlbnI2R1k2b1ltcFl2NTVjTHBlTVREVzNjV0w5SFE4QUFGV0JWelpKa3VyVXJxM1FrR0IvaCtNWDJkblpwVzQ3Y09DQWR1N2M2WHRjMVR2MHg4YkVLRFFrUkpJSmNtVGovUjBQQUFBQUFBREFpYXBvU1ZVang4UklCWldxRVJIaC9vN0hyNUtUa3pWMjdGaHQyN2F0MkxZREJ3Nm9kKy9lZXZubGwvMFFXY1ZTTHo1ZUxwY2pheFNhNzFVTmY4ZFRrWlIxc1RjakkwUEp5Y25LeTh1VDlNZGY3UDM0NDQrMWZQbnlFcmQ5K3VtbkdqVnFsSktUazQ5N25NT0hEMnZBZ0FGYXRXcFZzVzE3OXV6UkhYZmNvVTJiTnAxeXZGWEZrU05ITkhmdVhPM2Z2Ny9ZdHB5Y0hEMzY2S1BsZnAyWk5XdVdSbzBhVmVLMnlaTW42L25ubnorbFdFOUVTa3FLdnY3NmF4MCtmUGlFOXZONFBOcTRjYU1PSERqd0IwVlcxTjY5ZTAvNUJwbjgvSHg5Ly8zM3B5bWlVN05wMHlZdFhyeFkrZmtsTDIzTnpVQm5GV09NcVN0SnRXcEZLVGk0NmlWVmp4dzVvczZkTzJ2ZXZIa2xicDg1YzZadXVlVVdTZEpiYjcybDIyNjdyZFFiNWFxQ21EcDFGQndjTENNRldKY1Q1ZTk0QUFBQUFBQUFUcFRiM3dFVTBiQmhrS1JBU1lxTXJGNndUdVpaNE5DaFEvcnNzODlLM0hiUlJSY3BQdjdFYjlhUGlvclM0TUdETlg3OGVFblM0TUdEdFd6Wk1nMGZQcnhjKzNmbzBFRXZ2UERDQ1orM0lxb1JXVjJPY1dSazNZNWpxdDVWM1RMY2Z2dnRpb21KMGJQUFBsdHMyOHFWS3pWaXhBaTkrZWFieXNuSjBjTVBQNnhISG5sRWJkdTIvVU5pbVRKbGlxS2pvOVdwVTZjaTQrbnA2Um8zYnB3T0h6NnN5TWhJalJ3NXNzemplRHdlYmRxMFNhbXBxY1cydmZmZWUxcXpabzBpSWlKT2EreVM1UFY2bForZnIvejhmSGs4SG5rOEh1WG01aW8zTjFkNWVYbkt6czR1OGk4OVBWMFpHUmxLU0VqUUJSZGNVT3g0Njlldmw4ZmpLZmY1ZzRPRDFiSmx5OVA1bENSSksxYXMwT1RKazNYT09lZW9kdTNhUmJiTm16ZFA3Ny8vdmtKQ1FuVFZWVmNwTHE3czd0cDc5dXpSMXExYmk0MW5aV1hwcmJmZVV1Zk9uVTlyN0lVeU1qSzBiOTgrSlNRaytNYSsvZlpialI0OVdpKysrS0l1dlBEQ2NoL3J3SUVER2pod29PNjc3ejROR2pTb3pMbldXbjM0NFlmcTNyMTdRUXZ5MzNrOEhzMmFOVXVkT25VNjdzK3NmLy8rNnQrL3YyNi8vZlp5eDNpczZkT25hK2JNbVpvOWU3WmF0MjU5MHNjNUhiNzg4a3RObno1ZFBYcjBLUEk5a2Y3M21qTisvUGdUK3BuZzlJbVBqdytwVWFOR2svWHIxMitTVlA0WG9KS1BGV3lzZGJ2Y0xsV3ZGaUZqekdtS3N2TDQ0b3N2bEp1YnE2U2twQkszdTF3dWViMWVTVkxIamgzMSt1dXZhOENBQVhydXVlZjgvcmZxRHhFUjRRb0lDSkMxY2h6clpSRmVBQUFBQUFCUTZWU29wR29OeHdreVVvQWtoWWFlUGRkYTl1elpvM0hqeHBXNDdja25uenlwcEtvazNYampqUW9LQ3RMTW1UUFZ2WHQzTlczYVZNT0dEVHZ1ZnErLy92cEpuYStpQ2dnSVVFQ0FXOWJLN1pXQy9CMVBSYkZueng1dDJyUkozYnAxSzNGNzRVMEwrZm41YXRTb2tSbzNicXdoUTRib29ZY2VVcDgrZlU1ckxMLzg4b3QyN2RxbG0yKyt1ZGkyNTU5L1hybTV1Um95WklpbVRadW1MbDI2cUgzNzlpZDhqcHljSEwzMTFsdUtpWW5SZDk5OXArKysrNjdZbkZxMWFxbGp4NDRuZE56YzNGeDE2dFNwM0FsUXgzRVVIQnlza0pBUWhZU0U2TkpMTHkweHFYcmZmZmNwTWpKU1VWSEhMOWJadDIrZjNHNjNGaTFhZEVLeGw4ZVhYMzZwcUtpb1lzbjBuVHQzYXRhc1dlclRwNC9XckZtako1NTRRaSsrK09KSjNleXllUEZpWldabUtpSWlRdSsrKzI2SmN6cDI3S2hhdFdxZDFITjQ1NTEzTkdIQ0JMM3d3Z3ZxMEtIRFNSM2pSTzNldlZ1UFB2cW92dnZ1TzZXbXB1ckdHMi8wYmN2S3l0STc3N3lqZDk5OVY2Ky8vcm9pSWlLVW01dGI2dTlRWGw2ZU1qTXppNDBIQmdiSzdTNTRtOTY3ZDY4dk9YT3NTeSs5VksrKytxb21UcHlvc1dQSGxqakhHS1BZMlBKM1IvLzU1NS8xd3c4L2xManRtbXV1T2FtcXhQYnQyK3ZpaXkvVy9mZmZyNGtUSityQ0N5L1VzODgrVys3M3BIdnV1VWUzM25yckNaOFgvMU90V3JYcWJyZjcrYlp0MnphWDlIcCtmdjY4M056Y0hkbloyUm5KeWNtbHR6WW9nZVBVQ0xiR3VJeHhxbVNWcWlUOSs5Ly9Wa2hJaUxadjM2N3QyN2RMa21yVXFPRzdlY2p0ZHZ2Kzd1UGk0dlR5eXkvcnIzLzlhNGszQlZVRmJyZGJnUUZ1U2RieGlwdmdBQUFBQUFCQTVWT2hrcXBCamhOb3BVQWovYjdtMHRsbDBxUkp2Z3R0VzdkdTFRMDMzSEJTeC9ucXE2ODBldlJvelpvMVM3MTc5MWF2WHIxOEZTTDkrL2MvN3Y2ZmZ2cnBTWjIzb2pMR0tEd3NYQWNQSFhZY3IwSWtHVWxWZStFeUZWenNsUXFxNW81T1pQWG8wVU51dDl1WHJQRjRQQW9PRHRZenp6eWpNV1BHYU8vZXZhYzlsZzgvL0ZCdXQxdmR1M2N2TXY3QkJ4L283YmZmMXFoUm85UzNiMTgzbkdGS0FBQWdBRWxFUVZUOStPT1BHamx5cEdiTm1xVUdEUnFjMERtV0xGbmlhOW42K09PUGx6aW5YYnQySjV4VURRd00xUFBQUDYvOC9Id0ZCQVRJN1hiL25zZ1BVR0Jnb0o1NTVobTVYQzZOR3pkT1FVRkJDZ3dNTFBleGs1S1NsSmlZZU54NUsxZXUxSll0VzA0bzd2TEl6TXpVOHVYTDFhZFBueUxKMHV6c2JBMGZQbHcxYTliVUF3ODhvQzFidHVpMjIyN1QrUEhqajF0SmZLeWNuQnk5K3VxcmtxUUZDeGFVT20vYXRHa25sVlMxMXVydHQ5OVdiR3pzR2FsK0xIdytyN3p5aWp3ZWo0WU9IYXJycjcrK3lKeUlpQWc5L3ZqakdqSmtpTWFNR2FObm5ubEc0OGVQTHpVcFBuUG1UTTJjT2JQWStORkp4SUVEQityZ3dZTmx4dmI5OTkrclo4K2VKVzV6SEtmRWx0bWxXYmx5cFNaUG5seml0c3N1dSt5a2ttaHV0MXYvK01jLzlNUVRUMmpHakJscTE2NmRPbmZ1Zk53S2FLL1hxNGtUSjU3dytWQTZZMHlzcEFmY2J2ZmRicmQ3VTNCdzhMcTJiZHQrSlduMTJyVnJ5OVZMMm9SNWdvMGNkOEdOSkZYdmZxYlUxRlN0WExsU3VibTVSZDV6V3JaczZmdXNGeGdZcU56Y1hFa0ZyMVZlcjFjalJvelFiNy85cG9VTEY2cHg0OFluZFJOUlpXV01VV2hvbUl3eHhrakJLbGlHcE9TN1JRQUFBQUFBQUNxZ0NwVlVkU2swU05ZR3loaUZocDU5U2RXUzVPVGs2THp6eml0enpyMzMzaXZwZnhmRmMzTnpsWnFhNnF0K01NWW9KU1dsMURYc3BJSjJ3WVZKdExOUlJMWGYxOTgxQ2xYQlJiclN2eGxWeEVjZmZTUkpldkhGRjR1TWQrM2FWVzYzVzBGQkJSZkJDeS80Wm1abTZ1YWJiOVp2di8ybVJZc1dLU2dvU0ZkZmZmVXB4K0gxZXZYKysrK3JVNmRPaW95TTlJMnZYTGxTLy9qSFA5U2pSdy8xN2R0WGt2VEVFMC9vMWx0djFkMTMzNjBwVTZhb1ljT0d2dm5MbGkxVFdscWFiMDNHTld2V0tETXpVMUZSVVVwTVROVDA2ZE45eDJqZXZIbVJHUDcxcjM5cDl1elphdFdxMVFuRmZ1alFJYTFaczZiTU9ZWHgvT2MvL3lselhtSmlvdXJVcVhOQzUvK2pmZlRSUjhyT3p0YTExMTdyRzh2TnpkWElrU08xYTljdXZmTEtLd29KQ1ZGaVlxSWVmUEJCUGZQTU13b0xDOVBRb1VOOU4zTDgrdXV2dnUvUmpoMDdsSmFXNWt2aWQrellVVXVXTE5GdnYvMm0xcTFiNis5Ly8zdVI4MmRuWjJ2WXNHSEt6TXc4NFNSNm9jOCsrMHpKeWNtNit1cXJpNndydW1QSERrblN0bTNiU2sxMFIwZEhIemVoVnlndkwwL3Z2ZmVlWG43NVplM2R1MWZubjMrK0huendRVFZ1M0xqRStlM2J0OWNOTjl5Z2hRc1g2c01QUDlUTk45K3NybDI3RnB2MzRJTVA2dkxMTDlkVlYxMVZiRnY5K3ZXTFBPN1NwWXNHRGh6b2U3eG8wU0kxYTlaTTU1NTdicEY1NmVucGV2ZmRkOVdwVXlmVnExZXZYTSt2Tk11WEwvZDFqbGk0Y0tHZWVlYVprenJPbENsVDlPbW5uMnJ4NHNWNjlORkhmYjgvNTUxMzNuSGZBejBlRDBuVlA0QzFWc2FZWUVsdGpURnRKUFV6eHFTMGJkdDJvN1gyamR6YzNMYzJidHhZK2lLNDNvQmdhK1Fxck02dmF1YlBuNitBZ0FCOS9QSEhSVnJPWjJWbGFmNzgrZHEzYjUrKy9mWmJlVHdlOWV6WlU3Lzk5bHVSYXZXYU5XdHF3SUFCVlNxcEtrbmg0UVd2SjliWUVPazhsN1NHcENvQUFBQUFBS2cwS2xTV3paRTNTSElWdFA4OUN5dFZTK0oydXpWcTFLZ1N0KzNZc1VQejU4L1hEVGZjb0lTRWhETGJidmJyMTYvTWRuSUxGeTVVa3laTlRqbmVpaW9pdkNDcGFvMDNWRHJQa2RaVTZhVHFxbFdydEdIREJrMmRPbFhubjM5K2tXMGZmUENCa3BPVHRYbnpaa25TUXc4OXBMUzBOR1ZsWmZubWhJZUg2L3p6eno4dFNkVnZ2dmxHZS9mdVZZOGVQWHhqeTVZdDA2aFJvNVNZbUtqUm8wZjd4aU1qSS9YUGYvNVRkOXh4aHdZTkdxVEhIMy9jdHc3bnpKa3psWnljN0p1N1pNa1N2ZnZ1dTBwS1N0THk1Y3VWbHBhbUJnMGFhUDc4K1pvN2Q2NXZQY2N0Vzdab3dZSUZhdHEwcWU2NjY2NFRpbjNYcmwzNjV6Ly9XZWFjbEpRVVNUcnV2SkVqUnhaTHFxNWZ2MTU3OXV3NWJoeDc5Kzc5UTlhWVhyeDRzU1NwVWFOR2tnb1M2dzg4OElEV3JsMnJaNTk5VnMyYU5mUE52ZUdHRzVTU2txSlpzMlpwKy9idGV1eXh4MVN0V2pYOTlOTlBldnJwcHlVVkpCNjlYcS92OGNpUkkvWEtLNjhvSVNGQjY5ZXYxODZkTzR1c3F6cDY5R2lscEtSb3pKZ3h4ZFp6TFkvOC9IeE5uVHBWVXNIdjlRY2ZmRkJzem9RSkUwcmRmOENBQWJyLy92dkxQTWUrZmZ2MHdRY2Y2STAzM3REKy9mdlZxRkVqUGZ2c3MrVmFIL2FlZSs1UldGaVlyN0x6NkpzRUNybmRic1hIeDVlcnlqWXFLcXJJT294MzNubW5ZbUppaXEzTnVIdjNibjM4OGNmcTBxWExIN0p1NDlkZmYxMXFOWGlod29ydzg4OC9YMU9uVGxWV1ZwYnZQY29ZSTQvSDQ2c3NMNG5MNVRycGR0QW9IMk9NclBVMWRUQ1N3cXkxWWNhWUJzYVlxNEtDZ3Y3WnRtM2JOeVM5SmVuN2ZmdjJIZDY5ZTNlV0NqdEJlTDNCY3J0ZGptTVVIRlMxS2xYVDA5TzFZTUVDM1hERERjWFc4SGE3M1pvelo0NXExYXFsdkx3OFNkTFZWMSt0K3ZYckt5WW1SdEhSMGFwVHA0NENBZ0w4RWJyZmhZV0dGWDRaMHJEaEFWZHlzdkw4R1E4QUFBQUFBTUNKcUZCSlZTTWJaS1JBNmV4YVU3VXNMcGZMVjZWM3JOV3JWMnYrL1BtNjVKSkx5dFd5dEYrL2ZzWGFxKzdZc1VOanhvdzVMYkZXWkJFUjRiTFd5aTNWTy9mY25NNXVkNXRjZjhma1R6Tm16RkJpWW1LeGhLb2tmZkxKSi9yMTExOFZGbFp3WWJOdDI3YTY4TUlMRlIwZDdmdFgwdC9mM3IxN2ZSZUlTeE1RRUtDWW1KZ2lZN05uei9aOTdmRjROR1hLRk0yZE8xY1hYWFNSSmt5WVVLeUtNRDQrWG5QbXpORzk5OTZyNGNPSDY1SkxMdEhJa1NNMWI5NDhTZEszMzM2cnUrNjZTMlBHakZIWHJsMzEzWGZmNmYvKzcvODBaTWdRZGUvZVhmMzc5OWRUVHoybGh4OStXRnUyYk5HOTk5NnJpSWdJVFp3NDBWZE5sWktTb2o1OStpZzNOMWVMRnk4dXN0YmsvUG56TldIQ0JOMXd3dzBhTVdLRTNubm5uVEtmOHdNUFBDQkpldTY1NThxY1Y1Sk9uVHJwb29zdU91NjhUei85dE5TSzJjek16REtUVTRXaW9xS0svRnhYcjE2dERSczIrQjV2M0xoUkR6LzhzUGJ0MjZkbm4zM1cxNzd5YUVPSERsWE5talUxWWNJRTllclZTM2ZmZmJmNjl1MnJMbDI2U0pJR0R4NnNJMGVPNk0wMzM1UlVrUFFMRFEzVjlPblROWG55WkkwWk0wYng4ZkZxM0xpeHhvOGZyNlZMbDJydzRNRkZFdTZUSjAvVzNMbHo5YWMvL1VrUFAveXdienc3TzF2WFhYZWRNakl5Zkd2bnZ2YmFhL3JsbDE4MGVQRGdZbXVwcmx5NVVqTm56dFN3WWNQVXNtWExFcjhuMGRIUlpYN1BObTNhcElFREI4cGFxMWF0V21uNDhPSHEwcVdMcjhyeWVFSkRRelYwNkZEZjQwY2ZmYlJZUmZPUkkwYzBkKzVjdmZYV1cwWEd4NDBiVjJ5ZFcwbTY5dHByZlQvdjdPeHN6Wm8xUzNQbnppM3gvS05Iajlhamp6NHFxYUFsNll3Wk0zVExMYmZveHg5LzFMaHg0NHE4WC96MDAwKzYrZWFiMWJ4NWMxKzc1dEkwYnR5NDFKdUJsaTlmcmhVclZtakVpQkZ5dVZ5bGZvK1RrNVBMYklGZnZYcDFYd3Z6WTdWcDArYXlNZ05FcWF5MU5TWDVXZ1lVL2k0ZmxWdzkrdXR3WTh4dGttNnoxdjRTSFIzOW4ram82Tyt0dFYvbTV1YXV6c2gxQmN0YXQxTUYxMVQ5OE1NUDVmVjZ0V0RCZ21KL0x3c1hMdlIxaWxpNmRLbEdqeDZ0SGoxNkZLczhyNnJDd241L0g3SW1KQ01qdEVMOWZ3Z0FBQUFBQU1EeFZLaUxHVjZYY1R2R3VJeWt3TUN6N3c3K1BYdjJhT3ZXclpLa25UdDMrc1p6Y25LMGNPRkNKU1ltcWsyYk5pZDkvTmpZMkdJWDRZT3FTUFZJU0VpSWpLVFFRTmY1QVc1M2xiN2ducHljckRWcjFxaFdyVnJGRW5ZalI0N1VwRW1USkVtLy9mYWJycnJxS3JWdjMxN1hYWGZkY1k5Nzk5MTMrMXFxbGlZK1ByNUlFdkw3NzcvWGQ5OTk1M3U4ZE9sU1g4THN2dnZ1MC9idDJ4VWZINjlxMWFyNTV1emF0VXU1dWJtYVBYdTJwa3lab2krKytLSklNdkNiYjc2UkpHM1lzRUh0MjdkWGZIeTh1bmZ2cnNHREI4dmxjbW5zMkxFYU9YS2tEaDQ4cU5XclZ5c2lJa0l2dnZoaWtjUnByVnExZFBmZGQydjgrUEdhT25XcXIrcnV5SkVqbWpGamhxS2pvNHNrdzVLVGs0dXRtMW5JNnkzb1hGaFNBbHVTWnMyYTVhc1dmUGZkZDNYNDhHRko4bFVtRmxZTWx5VWtKRVRubkhPT0wza1dFeFBqUzRndFg3NjhTUEt4TkdQR2pDbVN2SncxYTVidjYvejhmSTBhTlVxNXVibWFObTJhb3FLaXRHM2J0aUt0YlhOeWNyUnQyelpkYzgwMWF0bXlwUjU3N0xFaTFjM3A2ZWxhdjM2OTR1UGo5YzAzMzZoRGh3NXEzNzY5Qmc0Y3FCbzFhdWloaHg3U3pwMDdOV1RJRUxWdTNWb3JWcXpRYmJmZHBydnZ2cnRJbkhmY2NZYysrdWdqTFZteVJBTUdEUEFsSXViTW1hT1VsQlFOR3paTU1URXgrdVdYWHpSdDJqUzFhTkZDUTRZTThWVW1GeXFzQUc3Y3VIR0p5Y255YU5teXBlNjU1eDUxNk5DaFdFdnAwbVJuWit0Zi8vcVg3M0dEQmczVXJsMDdTZExodzRjVkhSMWRaTzNyc1dQSHFtUEhqcjdLMTlUVVZEMzk5Tk8rdHR6SCt0dmYvdWJiTm1MRUNIWHUzTGxZNitDREJ3L3FpU2VlVVAvKy9YM3ZLZUhoNFRMRzZPR0hIOWFBQVFNMFpjb1VYWDc1NWI2MjhNODk5NXdjeDlIbzBhT0xmUytQRlIwZHJYUE9PYWZFYlFjT0hOQ0tGU3ZVcTFldmNyMy9qQjQ5dWxqcjU0OC8vdGlYbENxSjR6aXZIL2ZBS0pHMTF0RlJTZFZDUjk4b1VGS0MxUmpUU0ZJalNYK1N0RDhvS0NqWjYrUi9uZTB4Ym1PTUFnSXExTWZKUDF6WHJsM2w5WG9WSEJ5c2lSTW5xbkhqeHJyeXlpc2xGYlQxTFZTalJnMUpCWDhYOWV2WDErSERoN1Zueng3dDNidlg5eHAxOU90QlZYQlVBajR3djNxdW8vMytqQVlBQUFBQUFPREVWS2lyWUM2djhtVGtrWkd5czNQOEhjNXBWOWdTODFoZXIxZHo1c3hSM2JwMVM2MDRLby9NekV4Zks5SkNaYlVFUHB0a1oyWC8vcFUxMXFwcWxjd2NvMkhEaHI3RTFiUnAwL1Rycjc5cXlKQWhrcVNrcENUZnZNS0x2UWNQSHBSVThQdFRlS0czOE4rUUlVTjhsYVFQUHZpZ01qSXl5anozMGNsUGE2MG1UcHlvK1BoNEhUbHlSRkpCbFYxOGZMemF0V3VublR0M2F1REFnWHJ5eVNkMXhSVlgrUGFiUEhteWR1N2NxUVVMRm1qWXNHRzY1NTU3Zk1rWmE2MCsrZVFUU2RKNzc3Mm5yNzc2U2krOTlKTEdqUnZuMjc5MTY5WnEwYUtGUHYvOGMwa0ZGNnhMYWlONi9mWFg2NzMzM3RNSEgzeWdnUU1IcWttVEpwbytmYnFPSERtaUo1NTR3bGZKVzhqcjllcWxsMTRxbGdBcXJBUS91bzJ4VkpDMHZ1V1dXNHFNSFowOFByYXlzaXhIcjBVckZTVElDclZwMDZiVTE1YWpIYjN1NXRkZmY2My8vT2MvT3VlY2M3Umh3d2E1WEM1Tm1qUkprWkdScWxHamh2Nys5NzlyNDhhTldyUm9rVytmd3A5WFlldmJoUXNYRmttYS9mdmYvMVorZnI0T0hEaWdCeDU0UUgvOTYxOTErKzIzKzdZSEJ3ZXJaOCtlR2pObWpGYXNXS0g2OWV2cjhzc3ZMeFpuU0VpSUhuendRUTBmUGx3dnZ2aWlubnJxS2UzZnYxOXo1ODdWT2VlY294dHZ2RkhwNmVrYU5teVlyTFY2NUpGSGpwc0VQSjZmZi81WmE5ZXVsU1NscGFWSktyZ2hZT0hDaFFvSkNkRzZkZXUwYnQyNjR4NG5LQ2hJbDF4eWljYU9IZXNidSthYWEzeEpWVW1xVTZkT2tkLzNwNTkrV2syYU5QR043ZHUzcjh5ZjU5RnRnaDNIVVlNR0RZcFZGZS9ldlZ0U1FWTDQyRzNObXpkWHYzNzl0R0RCQWkxZXZGalhYMys5bGkxYnBqVnIxbWpBZ0FIRnFucC8rZVVYMzgvNTZQZVhsSlFVelprelIzZmNjVWV4OXFjbm9sbXpac1hXT2w2L2ZuMlorMWhycS9Sci9La3dCZG5UVStrbDdrZ0tOc1pVczlZYklMbThYbXVWbTFPMU9yaEdSa2FxWDc5K2txUnAwNmFwVWFOR3ZxNGoxbHA5OU5GSDJyTm5qelp1M0NpcG9NMStlbnE2c3JPemZjZW9WYXVXemozMzNDcVhWTTNKOFgyK3ozT2xCcktlS2dBQUFBQUFxRlFxVkZMVnl1UTRVcTVVa09BNTJ6ejQ0SU8raXFsZHUzWnB4SWdSa2dxU0NILys4NTgxZWZKa2ZmTEpKK3JXcmR0SkhYL0dqQm1hTVdQR2FZdTNNa2s5Y2tSV1VucGUvdkp3cTlkY0xwZkgzekg1eVRLcG9OcFBLbWhSZU9USWtTSXRwbGV0V3FVdFc3Wm96NTQ5Y2h4SDgrZlAxN3g1ODN5SlQ2a2crUmNYRjZlYmJyckpsNUE4a1NTZ1ZGQnR0bjc5ZWozMTFGTjY1cGxuZk9OSEo1aks0K2pFM2FwVnEzeHgzbi8vL1ZxOGVMSHV1KzgrdmZycXEwcE5UZFc4ZWZNMGYvNThCUVlHNnI3Nzd0T21UWnMwWThZTXpaczNUOTI3ZDljRkYxeWc4ODQ3VDFGUlVYSzVYQm8xYXBSdXVlVVdUWmt5UmZmZmY3L2VmUE5OZGV2V3JjVFd0MUpCWXZEWTFzaUZhNTBlTzE1U084ekxMaXNvb2o1eTVJanZndnlKZkI5S2FrVmMyTEs1dkt5MW1qQmhnaG8zYnF4cnJybkcxd0s0Y0YzVkU0bm5hTys4ODQ3Q3dzSlVwMDRkRFIwNlZDTkdqRkJNVEl3dXZmUlNmZnZ0dDNyaGhSZTBZY01HZGV6WVVSMDZkTkM4ZWZNMFlNQUFuWHZ1dWVyY3ViUE9PKzg4dFd6WlVtNjNXNTA3ZDlZbGwxeWlUejc1UkgvKzg1KzFZTUVDNWVYbGFmVG8wWEljUng2UFIxbFpXWHI0NFlmTFhVRmFsdFdyVnhkYmUvWHp6ei8zSmViTHEzcjE2dXJWcTVlKy92cHJTZExOTjk5Y2JNNmhRNGUwZXZWcTMyT1B4Nk5mZi8zVk4zYm8wS0VUT21kWjdYOUxjOWRkZCtuVFR6L1ZqQmt6ZE5WVlYybnk1TW1LaTRzcmNjM2hRWU1HbFhpTWZmdjJhZjc4K1hLNzNicnZ2dnRPNlB4SFMwMU5MWFl6MFBIZS82MjF2VS82aEZXYzErdXQ2VGpPYUdOTWtiWVlSMWVuSHUybzlzQy9TUHBXMGpwcjdaYzVPVG1yYy9QZGpZeGplbm05WG1VZGxTeXM2b3d4ZXVhWlp4UVVGT1Rya05Db1VTTmRlZVdWaW8yTlZWeGNuR3JYcmwzbFdpWVhTa3RMLy8wcm14VVVkQ1RmcjhFQUFBQUFBQUNjb0FxVlZQVWFKOGVSOG95a2pMTXdxVnEzYmwxZkF1RFl5cXArL2ZwcHpwdzVldW1sbDNUNTVaZWZWT1ZWbno1OTFMVnIxeUpqTzNic0tGY1ZXMlYzK0hDcWpER3kxdG14ZnYzM3l5UnhvYTRVYjd6eGhyNzc3anZGeHNZcVBEeGNvYUdoR2pSb2tHSmpZeFViRzZ2bzZPaFRxandyVkxObVRWMTQ0WVhxMXExYmthUnFvY0tMK0lWSnlmSjQ1WlZYZE9tbGwycnAwcVVLQ2dyU3hJa1Q5ZmJiYjJ2VXFGSDYvUFBQRlJnWXFQNzkrMnZnd0lHK3F0QWhRNFpvN3R5NSt2ampqN1Y0OFdLMWJObFNyNzMybXFTQzZzMCtmZnJvN2JmZjFyNTkrM3hWa3FXNTg4NDdpNjJuV2RpS3RiRDFZM2w0dlY3dDM3OWZFeWRPTEpJVS9PR0hIL1RRUXc5cDNyeDV2a3BpU2ZycXE2OUsvQjZlREdPTWF0YXNxYnZ2dmx2YnRtMHJjWTYxOW9SK0x0OS8vNzErL1BGSFhYNzU1ZHE2ZGFzdXUrd3lQZm5razlxeVpZc21UWnFrLy83M3YwcEtTdEtMTDc3b3E3VHMxNitmUHZqZ0E3M3h4aHY2NXovL0tVbWFOR21TTDZFOVlzUUlyVnExU284Ly9yaTJidDJxVzI2NVJVMmJOcFZVVUNYMjZxdXZLanc4WE8rKysyNkpNUlZXTzY1Y3VWTDc5dTByY1U3UG5qMWxqRkhmdm4zVnMyZFBTZEwrL2Z0MS9mWFg2NjY3N3ZLdCtXbXQxYzAzMzZ5d3NEQk5uejY5MURWVkM4Y0xFODRselZ1N2RxMHZlV210bGJWVzc3MzNudDUvLy8yeXZzWEt6czR1dHY3d1YxOTlWZVkrcFFrUER5L1NYbmZKa2lYRjVnd2FOS2pVaEtwVVVHVlgwanEvUTRZTThWWEdIMjM0OE9FYVBueTQ3M0dUSmsxS1hTZjR6anZ2MUoxMzNsbnF1ZGV0VzNkaTJXNzR0R3JWS2lZb0tPaHc0ZU9Ta3FsSC9kNW1XbXVYZUwzZWR5U3RTMHRMMjdkOSsvWWprcXdreFRacW1SMFVIT1N4WG0rUkNzeXE0TFBQUHRNamp6d2lxZUJ2ODUxMzN0SFNwVXNsU1QxNjlOQW5uM3ppZXcyOTdycnJWS05HRGZYcTFVdVNsSkdSb2NHREIrdmFhNjh0YzEzaHM5V1IzN3NCeU5pc1hidWlQZEl1L3dZRUFBQUFBQUJ3QWlwV1VsVlpPVkp3cnVTY2xaV3FaUWtPRHRiMTExK3ZPWFBtNktlZmZpcDF2YnF5MUt0WHIwaHJTRW1uSlRsV0dmZ3UwbG1USWFsS3Q1TTdlUENnTDBHVWw1ZW4vUHg4WFh6eHhaSUsxdDE5NDQwM2ZCZDd4NHdabytYTGx4ZXBtbno4OGNlVm5aMnRKNTk4c2toU2FPL2V2Y3JMSzd2RlkwQkFnR0ppWWlSSjdkdTNWOE9HRFV1ZFc5aWErdWlXdUdWWnZYcTF2djMyVzAyZE90VjM4VG9pSWtLSER4L1c1czJiZGM4OTk2aFhyMTVGV3VOS0JlMlFIM25rRVkwY09WSXJWcXdvVmxGNnh4MTNhTkdpUmRxOGViTnV1KzAyUlVWRmxSckQzTGx6MWFSSmt5SmpEenp3Z0tTQ05TbVB0bnYzYnQvUG9UVHo1czByOHZ3THF4U25UcDJxZ0lEL3JTdTlmMy9waTg1bFptYnF3SUVEWlo1SGtxS2lvbnpQZmV6WXNZcU9qaTQxcVpxYW1scnVuNHNrMy9xY1IzL3Z6enZ2UEkwZE8xWWRPblRRbzQ4K1dteTlhTGZicmV1dXUwN1hYWGVka3BPVHRXelpNblhzMk5HM3ZXN2R1cnIyMm12MTVwdHZLaUFnUUxmZWVtdVIvV3ZWcXFWOSsvYjUxc010VFZsVm5EMTY5SkRiN1ZaZ1lLQXZZVm40M2hNWUdGams5WFBnd0lGNit1bW45ZGxubjZsMzc1TXJsT3pVcVpNNmQrNnNYcjE2S1NVbFJYZmRkWmUyYjkrdUFRTUdxRy9mdm9xUGoxZGFXcHBlZlBIRkl0WEgxbHBsWm1ZV2Ewa05uSXFqMWt1VkxYaVFhNHhKczladWxqUXZNelB6dGMyYk42ZVZ0bisrWE5uRzJ2eUNTdFdzMHFhZGxabzJiYXEvL09VdmtncGVyeE1TRW56clhEZHExS2pJVFNtSmlZbSt0Y1h6OHZJMGN1UkkvZkxMTDhYYVhsY1Y2ZWtGbGFyR09wblNHbTZBQXdBQUFBQUFsVXFGU3FybUdwTVRKQ2RYa2pJeXE5WUZPcWxnN2NlK2ZmdVd1UDVqZWVUbjV4KzlWcFVrSFRjSmRqYkl6ODlYZWthR3JMWFdhNVNsMzZ0b3FxclEwRkRmeGQ2bFM1ZHE5KzdkdnJVdHc4TENpbDNzWGJKa2lYNzk5VmZWclZ0WE0yYk0wTHZ2dnF2aHc0Y1hxN0s3Kys2N3RXUEhqakxQSFI4ZjcydFJhNHhSN2RxMVM1MWJtRUE4ZHIzUTBreWNPRkVkT25RbzFxWjI2TkNodXZiYWF6Vnc0RUM5OU5KTFpSNWovUGp4eGRvWUwxaXdRTlphUlVaRzZwMTMzdEdnUVlOS3ZSbmgvdnZ2TDVMc2xBcldUcFVLS3NXUDV2RWN2d1AxRlZkY1VlVDViTjY4V1d2WHJsWHYzcjJMSkRYWHJGbWpuMzc2cWNSakxGKytYQTgvL1BCeHp6Vm16QmoxNk5GRGtvN2JMdmpRb1VQbGJpbjg1WmRmYXMyYU5abzllM2FScXRFYU5Xcm80NDgvMXBneFl6UjA2TkF5ajlHeVpVdk5uRG16eUZoS1NvbysrdWdqUlVaRzZ2RGh3M3J6elRlTHJWRmJ1M2J0SWhXWFIvdjN2Lyt0cDU5K1drODk5WlN2N2ZxeDNPN3l2d1gyNmROSGI3enhobDU0NFFWZGRORkZ2cmFlSjZLd0RmZVdMVnMwYk5nd25YUE9PZHEvZjcvZWZ2dHR2Zjc2NjdycHBwdDArKzIzYStUSWtVWDJLMHhDaElXRmFjT0dEU2QxMHcxd3JOOWY0N090dFQ5WmE5ZEsrbHJTcXJWcjEzNWZudjFEYlhxT05aSDVYdXRWVmxiTzhYYzRpOVN2WDEvMTY5ZVhWSERqUmtKQ1FxbFZwNWRjY29tV0xsMnFWYXRXYWZiczJWcTFhcFhHangrdjFxMWJuOG1RS3dTdjE2dU16Q3haYTYyMXlsWVZ2d2tPQUFBQUFBQlVQaFVxcVpxeTJaVVQwY0xtU2tZWkdSbitEdWVNTzVIS3NKSzg4TUlMZXVHRkYwNVROSlZIWmxhV3JMVXlSbm15M3FyVmc3QUV3Y0hCdm91N0d6ZHVWRnBhV3FrWGV6dDA2Q0RIY2ZUcHA1OHFJeU5ETDcvOHNnWU5HcVNiYnJxcDJOeUhIbnJvdUgrWHgxYUJsbVhEaGcxeUhFZDE2OVl0MS95NmRlc1dxMWFVQ3FwanZiKzNuL3pUbi82a3hvMGJGNXVUa3BLaVdiTm1LVCsvYUZITXBrMmJOSGZ1WEhYdTNGbFhYSEdGSG5yb0lVMmFORW1qUjQ4dU1ZYmJicnROY1hGeFJjYW1UcDBxU2NYYWxSNDRjS0RVNHhTS2pZMHRrbFF0ck42dFY2K2VhdGFzNlJ2ZnVYTm5xY2RvMjdhdG5uMzIyVExQSTZuY1ZWSFoyZG5hdG0yYkxyamdnbkxOajQyTjFXV1hYYWJXclZzWGE4VWJHQmlvN094c1JVWkdsdHBLZHNtU0pTVzJEaDAzYnB6UzB0TDA2cXV2NnJISEh0UDA2ZFBWcFVzWDFhdFh6emZIY1p4U2IwSXBySnF0VnEzYVNkK29jalMzMjYweFk4Ym8xbHR2MVIxMzNLR1pNMmVlMEZxMlVrRmw0S0pGaS9UY2M4K3BlL2Z1R2oxNnRMcDI3YXJycjc5ZWdZR0JtajE3dHQ1Nzd6M2RkZGRkNnQyN3Q2OE5mSEp5c2lRcEppYkdsOGdCVG9XMWRwK2tSZGJhTnp3ZXp6YXYxM3RvNDhhTjZjZmQ4U2pKYm5kV0kyczlYcTlWVmxiVnV4R3VKQjZQUjl1M2IxZXpaczE4WTVkZGRwa2lJaUwwbDcvOFJZN2phT0xFaWJyNDRvdVZuWjJ0dm4zNzZwRkhIaW4zNjIxbGw1MmQ4L3Y3c1BISzJLclZrZ1lBQUFEL243MzdEbytxU3R3NC9wNlp5U1FoRFRBRWxGQ2x1eERBN29KWUVKVmRka0ZkVnl3cllsY1VXU3ZpRHhjRlpPMjZvcUtvaUNoWVFhUW9DbGhRVUtrQkFwRUFvWVVPa1ZReU0vZjgvc0NNeEVCRUNOeVU3K2Q1OG1qdXZUUHpUc3Bobm5senpnRUFvRXFvVUtXcWxGWmtsVkswYjAvVnF2Y0czWDMzM1JlZUpYaWdmY3lPVkk4ZVBkU2xTNWNEbmp1Y1dWV1ZSZjYrV1EreVVrQ09wOXFYcW1YNTdTeTNwS1Frblg3NjZYcjU1WmRWVkZTa20yKytXVGZkZEpNa3FWKy9manJ0dE5QQ1pWaDV2K2s3ZCs1Y3RXN2R1dFJ5dlFjemFOQWdKU1FrYU1lT0hRZTlwblBuenVFOU9mZVhrWkdoMTE5L3ZjU3hRQ0NnLy96blAvSjZ2Um93WUlEcTE2K3ZkOTk5VjVNbVRWTDM3dDExOHNrbmg2OHRQdGV3WWNOUysxcSsrKzY3a2xScTZlMWdNS2cyYmRvYzlIY3ZJaUpDRHozMFVJbVp3OFV6eTIrODhjWVN4NFBCWUhpZnp0OUtTa3BTVWxMU0FjOGRqZ1VMRmlnUUNPaVVVMDQ1cE91Yk4yOGUzbHZ3WUdyVnFuWFFZbi8rL1BuYXZIbHppV09mZnZxcHZ2enlTMTF5eVNWcTNicTE3cjc3YnQxNjY2MGFObXhZdU1SMlErdldyVFY0OEdBTkhqeFlOOTEwazU1ODhzbndQcSsvWjhXS0ZYcjY2YWUxY09GQzllblRSLzM2OVN1eEIrc05OOXlndi8zdGJ4b3hZb1FlZSt3eHZmdnV1M3JxcWFmVXNHSEQ4RExOelpzM1ArZ3M2dUxaNXVWaHhvd1ppbzZPUHVEdjBoZGZmS0daTTJmcTVwdHZMbk41YjBuS3pzNVd2Mzc5MUw5L2Y1MTY2cWtsem0zZXZGa1BQL3l3Qmd3WW9OYXRXNWRMYnZ5KzdPenNQWFhxMVBuM2tpVkxsa2s2c3FVc01qTDIybFlwUWFjYTdxbDZJSFBuenRXVFR6NnBtalZyNnJYWFhwTzBieVdORHovOFVJRkFRRVZGUlJvNGNHQjRPZjdNekV4dDNyejVEKzFmWGRrVjdpMVVLQlNTTVRaa1E3YnF2ZEFIQUFBQUFBQlZYZ1VyVlNVWnMwV1M4dlB5bFY5UW9CclIwVzRuS2pjWFhYUlJlRmJhenAwN05XN2N1REt2TDE3eThWQ1dxTHoyMm12VnZuMTdwYVNrL082MXVibTVoMXhrVlFiYmQreVE0emd5MWhUSVkzZTduYWNpeXN6TTFGTlBQYVVmZi94UnMyZlBWdlF2djFmZmZmZWQxcTFicDZLaUluWHIxaTFjcUVyUzBxVkxqOXJ5aElzWEw5Ynk1Y3RMemU0c1MwSkNRcmxtR0QxNnRESXlNblQ5OWRlSHk2aTc3NzViMTF4empZWU9IYW9KRXlhRWk4eWVQWHNxT3p2N2dQZFRWRlFrU2VFM3luOHJMaTVPbjM3NmFmanp3c0pDK2YxK3pabzFxOVMxaXhZdDBwMTMzcWszMzN5enhFelZZdm41K2ZKNFBJcUtpdnBqVC9ZUEdEZHVuR0ppWXRTeFk1eTFUSzhBQUNBQVNVUkJWTWZmdlRZek0xTit2Ny9VN04wanNXdlhMajN4eEJPS2pZME5MeHQ4Mm1tbnFVdVhMdnJxcTYvMDhjY2Y2KzkvLzN1NVBkN3ZDUWFEbWpGamhzYU9IYXZSbzBlcmUvZnVjaHhIano3NnFLNisrbXIxNmROSE45eHdRNmxsb1hmdjNxM3M3R3dGZzBFVkZoYnFnUWNlVUNBUTBNc3Z2MXlxWUN4V3QyNWRQZlBNTS9yc3M4LzAvdnZ2aC9jbi92Nzc3MVdqUmcwbEp5Y2Y4SFpyMTY3VlAvN3hEejMzM0hNSC9UbmNYeUFRMElZTkc3UnUzVHFkZSs2NXBjNlBIRGxTZGV2V0xWV3E1dWJtNnJISEhsTjJkclpxMXF4WmFwbmkzd29HZzFxeFlrVjRCdmIrUHZua0V5MVlzS0RhN1B0ZFVXUmxaZVZuWldVdEtzZTczQ2lwdzU2Y0hCVVZGWlg2bzVPcWJ1L2V2ZHExYTVlbVQ1K3Vqejc2U0IwNmROQTk5OXdqYVYvSityLy8vVS9wNmVrNi8venp0V0hEQnIzeXlpdmgvY2JYckZramo4ZFRyZjZvWVBmdWJCVVZGY25LQkkxWHY3OFpPQUFBQUFBQVFBVlQ0VXBWR3dxbEdhOVh1N0t6dFh0M2RwVXFWYzg3Nzd6d205UVpHUm1sU3RXUFB2cEltWm1acWxHamhxeTErdlRUVDJXTU9hVGxIcSs5OXRvREh0K3paNC9HalJzbnY5K3ZpSWdJWldabWF2WHExYVZtMVZWbWE5Wm1LaFFNU1ViWkpxQk5idWVwU0RadjNxeXNyQ3hkZnZubFNrcEswdENoUXhVZEhhM1ZxMWRyMUtoUm1qbHpwbHEyYkttdVhidnFpeSsrMEFVWFhLRHp6anRQMjdadFUyNXU3bEhadXpFWURPclpaNTlWalJvMURqcDc4V2hMVDAvWG1ERmpsSlNVcEw1OSs0YVB0MjdkV2oxNjlORGt5WlAxNnF1dnFsKy9mcEwyTGZINzI2V0RpNDBZTVVMU3Z1V1JEK1MzczVDdXZ2cnFVak16aXpuT3Z1M2x5dnE2ZE9qUTRhZ3Q4LzNOTjkvb2h4OStVTisrZmNQRmU3RlFLQ1JyclhiczJLRlJvMGJwazA4KzBjNmRPelY4K1BCeUxWVkhqQmloN094czNYUFBQU1gyMngwd1lJQysvZmJiOE42NnY4MzNXOFV6NXdvS0NwU1RrM1BRNnlJaUlrcVUxTVdyQ096ZXZWdXZ2dnFxUHZ6d1EyM2Z2bDJKaVluaGMzLzk2MTlWdjM1OVBmVFFReG85ZXJTbVRKbWluajE3cW1mUG5xcFRwNDYyYk5taVcyKzlWWGw1ZWZyODg4L1ZwVXNYL2U5Ly8xT3RXclVPcVVTODhNSUxkZUdGRjRiemYvMzExenIvL1BOTHpXb3VudGxjdDI1ZG5YYmFhWHJublhkSzdCL3I5L3YxM1hmZmFlclVxY3JMeTFOdWJxNnlzN09WbFpVVi9ubCs3YlhYMUw1OSsvQnQxcTVkcTQwYk4rcXFxNjRxbGV2NTU1OFB6MmdmTldxVXpqLy8vRU9lMGJ5L3ZYdjM2b01QUGxDOWV2VzBjT0ZDTFZ5NHNOUTFpWW1KT3V1c3N5VDkrZ2RHeGNzaG93Sng3QUo1VFkvTlc3WXBQNytnMnBXcU0yZk9WRkZSa1pLU2tqUjQ4R0IxNjlaTnFhbXB1dUtLSzdScTFTb2xKeWZyMldlZlZlZk9uYlZ0MnpiZGV1dXQ0VC9HbURObmp0cTNiNitZbUJpM244WXhzeWxycy9MekN5VFpRZ1ZzMlp1MEF3QUFBQUFBVkVBVnIxUzFXaW50V3pZd096dGI5VStvL012V0ppY25hL2p3NFdyVnFsWDRXT1BHalRWdDJyUVNzKysyYjkrdXQ5OStPL3g1WEZ5Yyt2ZnZINTZ0ZERoaVkyTTFmdng0NWVmdjI3b3FLaXBLblRwMTB2WFhYMy9ZOTFuUnJNMWNwK0Mrd21lUENRWU8zRlpWUTVzM2I5YWlSWXZrOS90MS9mWFg2MS8vK3BmeTh2TFV2MzkvelprelI3R3hzYnJycnJ0MDVaVlh5bHFyZ1FNSDZ0NTc3OVVsbDF5aVlEQ29xS2lvUTVxdCtFY05HelpNUzVjdVZiOSsvWTU0SCtIZm1qVnJsdGF1WFZ2cStNNmRKU2ZFdEd6WlV0OS8vLzBCNytQaGh4L1d3dzgvTEduZnJNbE5tOHJ1NllQQm9DU1ZXZHd0WGJwVURSczJWSFIwZEluZjhkOWF1SENoK3ZYcnB3OCsrT0NBTTFXTEJRS0JVak1qajFSR1JvWUdEUnFreE1SRVhYMzExZUhqbXpkdlZscGFtcjc1NWh0SjBwTlBQaGwrem9kYW9PemN1Vk5qeDQ0OTRMbjE2OWVYZUM2UFAvNzRBYTlyMEtCQitIdVdscGFtYTY2NTVwQWUrKzY3N3k3ei9PV1hYMTVpeG1WeHdWZWN0Mm5UcHJydHR0dDA4Y1VYbDhqWm9VTUh2ZnZ1dXhvOWVyUW1USmlnbDE5K1dlUEdqZE5ycjcybU8rNjRRNFdGaFJvN2RxemVmZmRkRFJ3NFVPM2F0ZE1aWjV5aHhNUkVSVVJFeU9QeHlCaWpPKzY0UXg2UFI1TW5UNWJqT0hJY1I4RmdVSUZBUUUyYU5OR2lSWXRVV0Zpbzd0MjdTOXIzY3hZWEY2Zm5ubnRPNDhlUEwvVjg5cDlkT256NGNHM1lzRUZ6NXN6Um1XZWVxWHIxNnVtNDQ0NVRZbUtpNnRXcnAzcjE2cFhZbzFiYXQvU3l6K2RUdDI3ZFNoeWZPbldxUHZ6d1F3MGNPRkNYWFhhWmxpMWJwdnZ2djErdnYvNjZHalZxZENqZmlyQkpreWFGZnllSERCbHl3R3M2ZHV3WUxsWHZ1KzgrU2ZyRGo0T2pMeVRQRXAra3JkdTJLYjhnWHpWcmx1K0tBaFhkeFJkZnJOMjdkNnRuejU3aGNyUkpreVpLVEV6VXYvNzFMMTE0NFlYaFB3WklTa3JTbTIrK3FWR2pSbW5DaEFreXhoelNmdGhWeWFhc3pjb3Z5SmVzMlJ2MDZPQ2JoUU1BQUFBQUFGUlFGYTVVRGRtQ2xSNGJZN096ZnphN3Mwc3ZHVmdaeGNmSGgyY2RGZlA1ZktwYnQyNkpZemZmZkxOdXZ2bG1CWU5CV1dzUFdwcWNlKzY1V3JCZ3dTRTl0c2ZqMFRmZmZDTnJyVUtoMENFdEpWeVpoRUloclZ1L29YaUczODdNekxTdGJtZXFLSTQvL25nTkdUSkViZHUyRFJjbmtaR1JxbDI3dG02Ly9YWmRmdm5sSlphQmZ2enh4L1grKysvcjdiZmYxbzRkTzlTL2YzL1ZxRkdqWEROWmF4VWZINjl6empsSGZmcjBPZUExc2JHeFpaYXR4aGg1UEo0RDdrTTNjK2JNQS82TUgyeVc2ZS81K3V1djljUVRUeHpTdGIrM2xQSFFvVU4xMzMzM2hXZWpsdVd2Zi8xcm1lZWJObTJxOTk5Ly81QnkvUkhISFhlY0hubmtFVVZHUm1yV3JGbWFPWE9tVnF4WW9kMjdkeXNuSjBmR21QRHN5QVB4ZXIwSG5FMjRjK2RPalJrejVvQzN5Y3ZMTytSOVNZdlZyMTlmano3NjZCKzZ6Y0g4dHFncm5oWFp1blZyM1hMTExmcnpuLzhjM3Z2MHQ0ci9NT0dxcTY3U2UrKzlwNlpObTZwSmt5YUtqWTNWWTQ4OXBtYk5tbW5Rb0VFNjg4d3o5ZkhISDJ2U3BFbmF2WHQzbVYvRC9RMGRPbFN6WjgvV3lTZWZyRk5PT1VYWFhudXRsaTFicGdVTEZxaFBuejdxMnJXckZpMWFWR3FaM3NtVEo2dHIxNjVxMnJTcEpreVlvTVRFeEVNcWJ4ekgwWlFwVTlTNWMrY1NzNFRuelp1blljT0dxWHYzN3Jyc3Nzc2tTWTg4OG9pdXUrNDYzWGJiYlJvNWNtU0ovVlZuejU2dG5KeWM4TmR5d1lJRnlzL1AxM0hISGFkMjdkcnBsVmRlQ2Q5SHk1WXRTMlNZUG4yNnhvd1pvelp0Mm9TUFpXUms2TW9ycjlUWlo1OTlTRjgzSER1ZXZRVkxiSFNVM2JadHU4bkxyMzViWkJwalNzM3Fqb3VMTytocUFyR3hzYnI3N3J0Lzk0ODlxaUxIY2JRcGE3TUtDL2RLc2prYmYxcVM1WFltQUFBQUFBQ0FQK3JBN3hTN3l6UnVsYkxGR0pNMDR0R0hkZm1sUGQzT2d3b3MrK2VmZGVmZEQyak9kL05rSGVmWnpQVFVBVzVuY3BNdFhwKzBnZ3NHZzFXdTRLL01Bb0dBOHZMeXRHSERCbjM2NmFlYU5tMmE5dXpaSStuWDVYRDNWMXd5K3YxK0RSOCsvSUQ3Y2xabU0yZk8xRG5ubkhQWXk4MGV5cjdWb1ZCSWp1T0VsMVhlLzZQNDZ4c2RIYTMxNjlmTFdxc21UWnBvOXV6WnlzcktDcGM0TTJiTTBLQkJnL1RpaXkrRzkybWRNbVdLSG43NFlRMGFORWlYWEhLSlJvOGVyVTgrK1VRZmYveng3K2IrOXR0dmRlZWRkNnB2Mzc3aC9XeG56NTRkbm1uN3dnc3ZsSmlkdkhIalJ0MTAwMDNLemMzVmtDRkR3ajhIVjExMWxUSXpNeVg5dW9ld3grTlJTa3FLR2pac3FJOCsra2pKeWNtS2pvN1cyTEZqdzEvblZhdFdxVStmUG1yUW9JSEdqQmx6MEwyRHpjRmFicmpCMDZoVis2MGVvOFF4cjd5b3N6dWQ2WFllVkZDRmhZVjY4T0dobXZUSlZGbHJKMlN1WE5MYjdVd0FBQUFBQUFCL1ZFVnNOYXlNblN1WnY2OWVVM29aVDJCL09UbTUydkhMTXBKV1d1WnlIQndpQ2xYM0ZSVVZhZDI2ZGNySXlORENoUXVWbHBhbWxTdFhocytYVmFaV2RlZWZmLzRSM2Y3M0NsWHAxMW05djdlTTgvNHpRSDliWG5mcjFrM2ZmUE9OWG4zMVZaMTY2cW5hc1dPSG5uenlTVjF5eVNXNjVKSkwvbkR1L1djVEI0TkJqUnc1VW1QSGp0VVpaNXlocDU1NnF0Unl6OG5KeVhyenpUZDF4eDEzNko1NzdsR25UcDEwLy8zM2g1ZTQvdUdISDNUcnJiZnEwVWNmVmRldVhiVnc0VUxkZU9PTnV2bm1tOVd0V3pkZGVlV1ZHakZpaEI1ODhFR3RXclZLZDl4eGgrTGk0dlRNTTg4Y3RGQkZoZU1ZMlVXU3VXQkZlanFsS2c1cWIxR1JzbjdaVDl4SzgxMk9Bd0FBQUFBQWNGZ3FaTE5ocmVZWW83OHZXcEphWXRZTzhGczdkKzNTNXMxYlphMjFqdldrdXAwSFJ5NG5KMGVCUUtETVBVVngrTEt6c3pWNzltek5tREZENjlldlYyNXVibmlaMW9OTmREN1lHQndLaGZUZWUrK0Y5MXZGc1hIampUZHEyTEJoa3ZiTml2WDVmT3JYcjUreXNyS1VrNU9qRFJzMnFGKy9mcXBidDY2T1AvN1E5aVZmc21SSmVEOVpTWm8yYlpyR2poMnJTeSs5VlAzNzk5ZWFOV3VVbkp4Y1ltbnVqUnMzcXFpb1NHUEdqTkhJa1NQMTFWZGZsVmd5Zk83Y3VaS2s1Y3VYNjVSVFRsRnljcks2ZGV1bTY2Ky9YbDZ2VjBPSER0WDk5OSt2WGJ0MmFmNzgrWXFMaTlPTEw3NVlLdk1qanp4UzR2TU9IVHFNL21OZnNXTXFQeFFLdlpPYW12cTlwRXF4Y3NDUk1ySS9TdWFDdWZOKzBFMTlyK1UxR3c0b0x5OWZhOVptN251OUZuSitkRHNQQUFBQUFBREE0YWlRNzN5ZDBMUk5RNzgvNGllLzN4ODVhL3JIcW4vQ29iMHBqT3JuOVRmSGFlaC9uNUsxenZyTWxjSG1VbHFSMjVsd1pGSlNVbnA1UEo0R2l4WXRldDd0TEZWUnMyYk42c1RIeC8vVFdudU5NYWFKdGJaT2NRbnlSMHRWdUdQbXpKbWFPSEZpaVdPTzQ4Z1lVK0o3bFpDUW9GMjdkdW1sbDE0cWMrYm5uRGx6ZE4xMTEybjM3dDNhczJlUExydnNNdDErKysxYXVIQ2hPbmJzcUEwYk5xaG56NTRhUG54NGlmM0I3NzMzWG0zWXNFRVRKa3lRSk8zZHUxZVJrWkdTOXYwczllalJRNXMzYjFhdFdyVlV1M1p0dmZUU1N6cnV1T1BDdDkrK2ZidisvZTkvS3kwdFRaSjAwMDAzNlpwcnJpbTFsL1BKSjU5OG1GOHBkemlPTXpFVUNsMi9kT25TM1c1bk9SWWFOV3Q3cHNmbitkSWZHZW4vOHJOUFZLOXVrdHVSVUFGTm5qcGRkOTM3b0J4cnM5YXR6R3NxWmV4MU94TUFBQUFBQU1BZlZTRm5xbWF0U1Z2ZnVGWEtna0FnY05aSEgwL1JIYmZlNkhZa1ZGQ2Z6L3BTa3VUSXZFT2hXaVZFZUR5ZW5wSk9iZHk0OFN1Wm1abUZiZ2VxYWpJeU1yWkxlcUZaczJhdnhzZkh0N1RXRHBCMG5LUld4cGpteGRmdFg3QVcvLzhCeXRXUXRmWXJZOHo2b3g0Y1lUVnIxdXh6M1hYWGxUaDI0NDAzcWtHREJobzhlSENKNDZOSGoxYnQyclYxenozM1NKTFMwdEkwYnR3NFBmamdnK0ZsaW1mTW1LR2xTNWRxeElnUmV2enh4OE8zN2RpeDR4L0tWVnlvU3RLUFAvNFkzcGQzd0lBQm1qaHhvdnIzNzYrMzNucExQLy84czk1KysyMjk4ODQ3OHZ2OTZ0Ky92MWFzV0tGWFgzMVZiNy85dHJwMTY2YlRUanROSjU5OGNuRUpPK2JBajFpeFdHdmJHbU5PTnNiRUdtUEtYdGU1Q3Rtcmdvd29FNU5XVkZUVS9yUFBaK3JhcTlrcUU2Vk4rbVNhSk1rWVRhWlFCUUFBQUFBQWxWV0ZMRlVseVZwTmwreVo0OS83d054NlkxLzVmRjYzSTZHQ3ljNytXZk1YTHBLa29QS2RWOTNPZ3lPWGtwTHlKMlBNNlpJYXhzZkhkNU0wMmUxTVZWVkdSc1plU2FsdDJyUzV3M0djU0wvZkgrL3hlQnBKdXRJWWM1a3hwcGIwdStWcVFOS3JoWVdGVTQ1cGVQUXBMQ3hVSUJBSUh3aUZRZ29FQXNySnlRa2ZpNDZPVmlnVVVueDhmSGlHcWQvdjE3aHg0OVNsU3hjbEppWksybGVBbm43NjZicmdnZ3RLbEtyRmlyL3ZIby9ua0FPKzhjWWI2dEtsaTZaTm02Ykl5RWc5ODh3eit2REREelZ3NEVCOStlV1g4dnY5dXZMS0szWE5OZGVFbHhTKytlYWJOWGJzV00yWU1VTVRKMDVVNjlhdE5XN2NPQlVXRnQ3eHg3OUV4MTVrWk9TL0pWV3VhYlhsWUVzd21OUElwMjhsbS9MeGxPbm02dDZYeSt2bE5SdCt0V2RQanI3NWRxNGtCUlZ3SnJpZEJ3QUFBQUFBNEhCVjJGSlZzdDlKbmoxYnRtNUxTRjIyWEIzYnQzTTdFQ3FZQ1I5OHBGRElrYlYyZmpDNGM0dmJlVkF1bWxocjZ4dGovRjZ2OXl4UnFoNTFhV2xwdVpKeUplMlV0RmJTbHllY2NNSmRkZXJVNmVIMWVpK1ZkS2FrbXBKcUdHTTgxdG9TNWFxMXR2Q1grOEF4TkhUb1VFMmZQcjNFc1NWTGxtamF0R25oejRjUEg2NDllL1lvTGk2dXpQczY1WlJUMUxoeDQ0T2UvL25ubnlXcHhINnFaWmsvZjc1KytPRUh2Znp5eStFOGNYRnh5czdPVm5wNnV2cjE2NmVlUFh1R1o4b1dhOXk0c1FZUEhxejc3NzlmYytiTUNTOERYRmwrdmxKU1V2YitVaVpXci9XeU16TUxiY3VVZWNhWXZ1czNib3orYWRWcXRXN1Z3dTFVcUVDbVRQOU1vVkJJc25iRjNsQXcwKzA4QUFBQUFBQUFoNnZDbHFyR0ZLMlJpVndybWZaZnovbVdVaFVsT0k2amp5WjlJa215c3JPeXNySllTcTd5OHhwajJocGppcHVXTmsyYk5rMVlzMmJOejY2bXFvYXlzckx5czdLeTNwWDBicHMyYlJwR1JVV2Q0ampPNlpJNkdXTTZTanI0QnAwNEp1NjY2eTdkY01NTjRjLy83Ly8rVDhjZmY3eHV1KzIyOExFNmRlcG96cHc1djF1R0dtTlVwMDZkZzU3ZnZYdmYxcUExYTlZOHBHelBQUE9Nemp6elREVnAwcVRFOGR0dnYxMS8rOXZmZE0wMTEraWxsMTRxOHo2ZWVPSUpuWG5tbVlmMGVIQ2ZZNXdsWHVQWmtaZVgxMkRCb3NXVXFnaHpIRWVmZmo1VGttU05mblR5STNhNEhBa0FBQUFBQU9Dd1ZkaFNOWFBseWcyTlc2ZXNrdFIrN3ZjLzZ1cmVseXR4Mzk1cXFPYXN0ZnB1M2cvYXNDbExWc296anVkSFNTRzNjK0hJSkNjbis0MHg1KzEzcUdWOGZId1RTWXZkeWdRcExTMXR2YVQxSjU5ODhpZU80OVFKaFVKMWpURlhTUHI3TDhzRnd3V0ppWW1hT1hPbTVzMmJweWVlZUVKUlVWR0tqWTNWaWhVcnRIejU4dkFlcXF0V3JkSnBwNTEyUkkrMWZQbHllVHdlMWE5Zi81Q3VyMSsvdm42NzU2c2tSVVJFeUhFY0ZSWVc2dEpMTDlXSko1NVk2cG9kTzNibzlkZGYzemVyRFpYR3hwVkxWelJ1bGJKcDc5NmlCdk4rbUs5TC92N1g4RXhqVkYvV1dxVXVXNjVWcTlkSVVwR1ZXYmgxNjVJOHQzTUJBQUFBQUFBY3JncGJxa29LV2V0TU1zYjdqN1FWNmZwNnpuZTY1Tzg5M002RUNpQTNMMDhmVEp5c3ZYdjNTdFpteW1NbzNhcUFtalZybm1DTU9YdS9wV1ZiU0dvblN0VUtZY0dDQlFGSldiOThMSkowZjRjT0hkb0VnMEZtaWJ1Z3FLaEliN3p4aGpwMjdDaWY3OWQveWgzSDBmang0OVcyYlZ0MTd0eFpxMWV2TGpHajlYRE1uVHRYclZ1M0xyVmM3OEVNR2pSSUNRa0oyckhqNEJQU09uZnVyTTZkTzVjNm5wR1JvZGRmZi8yd3M4STFRZXM0NDR6WGU4YTNjNy9YaXZSVk9ybERpdHVaNExKZ01LaXAwMmRvKy9ZZHN0Wm0yNkMrZERzVEFBQUFBQURBa2ZDNEhhQXNnVDA3SjFrNXEvUHk4elZ4OGxTMzQ2Q0NXSm0rU25PLy8ySGZKMVpUTTFjdVh1OXVJcFFIbjg5My9RRU9YM1RNZytDUUxWcTBLRzNac21XcjNjNVJIVTJZTUVHN2R1M1NMYmZjVXVMNFgvN3lGM1hxMUVsUFBmV1Vwa3laSW8vSG81TlBQdm13SDJmeDRzVmF2bno1QVF2UWcwbElTRGpzeDBQbGxiODc5S2FWWGZmem5qMGErODRFdCtPZ0F0aWRuYTNQdnBnbHgzRWthZHI2akNVcjNjNEVBQUFBQUFCd0pDcDBxWnFWbFpVZnN1WjJTY0Z2NTM2dkpVdVh1eDBKRmNDVTZaOXArNDZkY3F6TkxRam1QaVhKY1RzVGpreHljbksweCtPNTZiZkhqVEYvYWRPbXphRk5qd09xaWIxNzkycnMyTEc2N0xMTDFMQmhRMGtxTGkwazdac3BPbkxrU0gzNDRZZnExcTJiYXRXcWRWaVBFd3dHOWV5eno2cEdqUnI2NXovL1dTN1pVWFZ0MzU2VzY0VDBmNUtDbjB6OVZDdlNmM0k3RWx3MmNmSlViZHlVSld0dFhpaXZjSkRZcWdFQUFBQUFBRlJ5RlhuNVgwblNocFZMUG12Y3N0ME00L0YwZjNEd0kzci9uVEdxRVIzdGRpeTRaRTNtT2syY1BFWFdXbXNjWi9EVzFhdTN1WjBKUnk0eE1mRThTY2NWTC8wcjdkdUx6UmdUNy9QNXJwQTAyclZ3UUFVVEdSbXA4ZVBIYTh1V0xabzhlYklLQ3d1MVlzVUt0V3ZYVHBLVWxKU2tpUk1uS2pNelU4T0dEVHZzeHhrMmJKaVdMbDJxZnYzNktUNCt2cnppUzVKbXpacWx0V3ZYbGpxK2MrZk9jbjBjSEZ0T2ZuQ3FOODQzVHpLZFJqejVyRWI5NzJsRlJVVzVIUXN1MkppVnBaZEh2eUc3ejdNYk5xUm51WjBKQUFBQUFBRGdTRlg0VW5VZnp5dXl0dk9LOUovaXBuLzJ1Uzd0K1RlM0E4RWxReDk3UXJtNWViTFM4bEMrODZiYmVWQStqREYvT2RnNXI5ZmJXNVNxUUFsMTZ0VFJ4bzBiTldUSUVCbGoxS1JKRS9YcTFTdDhmdS9ldmJyOTl0dlZyRm16dzdwL2E2M2k0K04xempubnFFK2ZQZ2U4SmpZMnRzeXkxUmdqajhjamo2ZjBvaGd6Wjg0c3NSZHNzVkNJaVd5VjJjYU55M2MzYnRudUhXTjA2cUlsU3lQbnpKMm5ydWVlNDNZc3VPRFYxOGZxNTUvM3lCaXpXbzR6enUwOEFBQUFBQUFBNWNHNEhlQlFOR255cDdvMjBqdkdHSE5SMjVQYTZIOVAvMWNOa3V2TG1Fb1JIK1hBY1J6Tm1EbGJ0L1cvUjVLQ05oUzZML09ucGMrSnBYOHJ2Ull0V2lUR3hNUk1sWFRhUVM0SldHdFBXcng0OGFwam1RdW9xT3orVTdxUHNtQXdlTUR5ODFneWxlUWYrNVNVbFB1OVh1OElhKzBYb1ZEb3F0VFUxR3E1a2tLamx1MmFHR09tR1dOYWRlbjhaejN6K0REVlpKL2Rhc05hcSsrKy8wRUQ3aDJrN1R0Mk9OYmFwOWVsQndkSmFVVnVad01BQUFBQUFEaFNGWHBQMVdKcjF5N2JhaDNuZVdzVlNsdVpyckZ2VDFBd0dIUTdGbzZoOVJzMmF0VG9NWklrS3p1MzBPT2RLQXJWS2lFMk5yYTFwRWJGbnh0alN2ekJoREVtd2xyN1Z6ZXlBZFdkMjRVcUtwOTE2YWxySGRrUjFpcjAzYndmOU9Ha1Q5eU9oR01vSnpkWHI3NCtWanYyTGVXOXdZYk1HQXBWQUFBQUFBQlFWVlNLVWxXUzF2MjA5SE5aWjJRb0ZOS0U5ei9TcksrK2Rqc1NqcUhYM2h5blpXa3JKRWtoR3h5MlplWGlUSmNqb1h3WWEyMEhZMHhpV1JkNVBKNXprcE9UMlV3WkFDcUI5U3RUMzVIczJFQWdvT2RIanRMMzh4ZTRIUW5IeU5pM0oraTdlVC9zK3lSa0I2N1BXSkxtYmlJQUFBQUFBSUR5VTJsS1ZVbkJ6UFRVdTZ5MWkvTHk4KzBkLzM1QWkxT1g2aGl1Z2dnWEJJTkJ2ZnZCUkwwOTRYMEZnNkdRZFp6bk5xeGMvcG5idVZBK0dqZHVIR21NNlNiSksrbTNNMVQzdjdSVm5UcDFtaHpiZEVERlpLb1p0Ny9lT0N5QnZNTEFnMVphc1Njbnh3NjQ5MEd0V3IyRzEyeFZXQ2dVMHFlZno5VFR6NytvUUNBWWtyVnZaNjVLSFMrSmJ6b0FBQUFBQUtneUtsT3BLa25Xc2NFN0pLVUhBZ0Y3LzBORHRDeHRCVy9TVlZGRlJVV2E4UDVFUFRSa21LeFZ5Qmo3VVdaNnhMMXU1MEw1aVlxS2lwRjBYbG0vdzcrY2F5S3AyVEdLQlFBNFF0c3owN1k1UVh1ZmtYWnMzYlpkUTRiOVY1dXlOcnNkQzBkQktCVFM1N08rMU1PUGpwQzExaHJaV1FGSDk3dWRDd0FBQUFBQW9MeFZ0bEpWNjlPWHo1UHNJMGJhbTdGNmplNS82RC9hbEpYbGRpd2NCVk0vL1Z4UFB6OVNvVkJJVm5heERUbURwUVVCdDNPaC9FUkdSdDRnS1ZvcU5UTlYreDh6eGtSSTZuRXNzd0VBam9pemZ0V1N6NnkxdzYyMW12ZkRmTjExNzRQYW5aM3RkaTZVcy9tTEZ1dVI0WTlyKzQ0ZGtyUTlKR2ZneHArVzhPSWNBQUFBQUFCVU9aV3VWSlVVeWx5Wk90NWErMi9yMkQwcjAxZnAwdDdYYXNYS2RBV0RRYmV6NFFoWmExVlFVS0FaWDh6U0EvLzNIKzNPenJiV2FyTmpRN2RrL3JSMHBkdjVVTDQ4SGsvZlAzRDVPVWN0Q0FEZ2FBaGtwcWMrYTYzem41RGo1QzljdkVSWFgzZXoxbWF1aytNNGJtZkRFYkRXYXUvZXZab3pkNTZ1dmVFMmJkNnkxVHJXN3JEVzlsNi9jdWtDc2V3dkFBQUFBQUNvZ3J4dUJ6aGMyVHUzenErWm1MUk8waG41QlFYeE03LzhXc0ZnU00yYk5WVlVWSlRiOFhBWXJMVmFrZjZUbnZuZmkzcjZ1WkVLQklOVzBwZHluTXZYLzdRczFlMThLRjhublhSU001L1BOMFE2OEN6Vll2dk5WcTFkdDI3ZGo3ZHMyYkxsMkNRRWdFTlhyMTY5VGg2UHA2dWtOZGJhajdadTNacm5kcWFLSXJ0bTNMeWFpc2d4eHB5NVkrZk95Ty9tL2FESXlFZzFQL0ZFK1h5VjlxVm90Ylp0KzNZOS8rSXJldktaRjVTZm4yOWx6QkluNUZ5My9xZWxYN3FkRFFBQUFBQUE0R2c1ZUpOUk9VUTBhTm51WXEvSDg3cVJqb3VLakZUTEZzMTEyODNYNjV5ek95bkM1M003SHc1UlRtNnV4cnoxamo2WU9GbWJzamJMY1J4WmF6OFBCb0szYlZ5OVBNUHRmQ2gvYmRxMGFlajMrenZ1Zjh4YTI4VGo4ZnhiVXBLa3A2MjEzKzkvUGhRS3JWeTZsQm5MQUNxZWxKU1UrNzFlN3docjdSZWhVT2lxMU5UVWJXNW5xa2lTazVPamZUVnFYeTZQZWNrWUV4MFRVME1udDIrdjIyN3VxMU02ZHBESFV4a1hUNmwrQ2dvSzlQR1U2WHJqclhlME5uT2Rnc0dnckd5YWxiMW0zWXJVeFpLWWdnd0FBQUFBQUtxc3lsNnFTcElhdEd4NWd0ZEVqemV5cDh1WVNJL0hvdzRwN1hUamRmOVNoL2J0RkZPamhxS2pvOHFjRFlkangxcXJZQ2lrd3NKQy9menpIazJaOXBuR2pCdXZiZHUzRjErUTQ4aE9DT1h1NnI5eDQ4WUNkOVBpV0dyZnZuMTdqOGN6WGxKangzRjZMMTY4ZUpMYm1RRGdVRkNxSHBya2xuOXE1elBlTnlTVFlveThQcDlQNTNicHJPdXV1Vkl0bXAyb0dqV2lXWEdrQWdrNWpnb0xDcFdibDZldnZ2bFdyNzR4VnF2WHJKVWtXU2xmc2xQemRnVDZidCtlbHV0eVZBQUFBQUFBZ0tPdVNremwzSkNlbnRXd1lkdWVwb2FucjdIMkg0N2puTDVnMFdJdFdMUllEWkxyNjZRMnJYUmlreVpLcm4rQzRtSmplY1BPQlk3aktMK2dRUG41QmZyNTU1KzFlbTJtMW1hdTArSWxTNVdUdSs5OU9HdHRnV1ErdDQ3R3JQc3BkYUxMa1FFQVFEbmJtTDRzOWZnbXJTK0pqUFRmWW1YK0Znd0cyM3crYzdabXp2NUt6VTlzcXRhdFdxcEo0MFk2dmw2U1ltUDJ2V2J6Ky8xdXg2NDJyTFVxTEN4VVhuNitjbkp5dFc3REJxMVprNmtseTVacisvWWR4VmNGckRYZldtdmZDdVJzbjdCOWUxYStxNkVCQUFBQUFBQ09rU3BScWtyUyt2VkxkMHQ2THJsRnlnU2ZkYzYyWGs5ZmoxR1hEUnMzUld6WXVFbVNGQjBWSlYrRVR6NmZUMTRQZTNnZFcxYkJZRWpCVUZDQm9vRDJGaFg5ZXNiYVhkYmFpU0VuK0tvS3pLcU5HNWZ2ZGpFb0FBQTRpamF2WGJGT3pacjlwNEdpUmh1ZnQ2dEh1c2x4bkk3cHF6S1V2aXBEeGtqUlVkSDdYck41ZlN3TmZJeUZRaUVGZzBFRkFnRVY3dDM3Nndscmk2elZ4eUVUZk0xYmFKZXN5MHpiSnBiN0JRQUFBQUFBMVVpVktWVi9FZHo0MDVKTmtzWkxHbjk4azlhTkl2MitLNnp4ZERaU20vekNnbWhUWUx6V1dLOWtLdFU3ZE5heE1wS014OGh4ckl5bnNpMWxiSzJzY1l4c3lNcUVqT3hPSzd2UWNUUXpKNWo3OGU0MWEzNTJPeUVBQURoR01qTDJicEJXYTkvSHFPU21yZHA2SXlJdk54NXp0cXh0a2xlUTd6ZjV4bXVOOVZUVzEyeVNaS1ZLOXByTldrbldXQk95eG9aa2xXOWxGMG5teThKQTdudGJWNjltV1dzQUFBQUFBRkJ0VmJWU3RZVE5hMWVzYVBmWk1nQUFJQUJKUkVGVWsvUmZTZjlWY25KMG81amE5WUlLeGRtZ3AwYUV6MVNxOVg5OUh0c3cxdSs5VXNiR0ZnWE1Pd1VocGJtZDZZOEloUnhIeGlrd2p2S0MxdVJrclY2MldWTFE3VndBQU1COUc5ZXNYQ3BwcVNRbEpyYU1pMHJ3MWZWNWJLejFlbW9ZK1NyVityOFJIaldJaVRRM1dVZDdDb0toRHdLT2Q2M2JtUTZkWTRNaFUyaDhOaTlRVUpTN0pkT1RKYVVWL2Y3dEFBQUFBQUFBcXI0cVhhcVdzSEZqd1RwdHJFUnZhcFhVcmwyN016d2V0VFRHVXk4eXdubHl4ZkxGWDdxZENRQUFvTHp0MkpHZW94M0tjVHZINGVyUW9jT1p4cGhPMXRpc0dJLzNpY1dMZWMwR0FBQUFBQUJRRlZTcTVkUUFBQUFBQUFBQUFBQUE0RmlqVkFVQUFBQUFBQUFBQUFDQU1sQ3FBZ0FBQUFBQUFBQUFBRUFaS0ZVQkFBQUFBQUFBQUFBQW9BeVVxZ0FBQUFBQUFBQUFBQUJRQmtwVkFBQUFBQUFBQUFBQUFDZ0RwU29BQUFBQUFBQUFBQUFBbElGU0ZRQUFBQUFBQUFBQUFBREtRS2tLQUFBQUFBQUFBQUFBQUdXZ1ZBVUFBQUFBQUFBQUFBQ0FNbENxQWdBQUFBQUFBQUFBQUVBWktGVUJBQUFBQUFBQUFBQUFvQXlVcWdBQUFBQUFBQUFBQUFCUUJrcFZBQUFBQUFBQUFBQUFBQ2dEcFNvQUFBQUFBQUFBQUFBQWxJRlNGUUFBQUFBQUFBQUFBQURLUUtrS0FBQUFBQUFBQUFBQUFHV2dWQVVBQUFBQUFBQUFBQUNBTWxDcUFnQUFBQUFBQUFBQUFFQVpLRlVCQUFBQUFBQUFBQUFBb0F3K3R3TUF3QUY0alRGL2JkKytmU08zZytEb3N0YXU5L2w4c3hZc1dQQ3oyMWtBQUFBQUFBQUFBRGdZU2xVQUZZYTFOaUFwS0NuQ0dITzlNY2J0U0RqS3JMWFpqdVBjSU9sRHQ3TUFBQUFBQUFBQUFIQXdsS29BS2d4cmJhYmpPQjlJeW5ZN0M0NHVZNHhQVWdkSk5heTF0ZDNPQXdBQUFBQUFBQUJBV1NoVkFWUVlxYW1wZVpLRy9QS0JLcXhseTVaeE1URXh5NjIxZGQzT0FnQUFBQUFBQUFEQTcvRzRIUUFBQUFBQUFBQUFBQUFBS2pKS1ZRQUFBQUFBQUFBQUFBQW9BNlVxQUFBQUFBQUFBQUFBQUpTQlVoVUFBQUFBQUFBQUFBQUF5a0NwQ2dBQUFBQUFBQUFBQUFCbG9GUUZBQUFBQUFBQUFBQUFnREpRcWdJQUFBQUFBQUFBQUFCQUdTaFZBUUFBQUFBQUFBQUFBS0FNbEtvQUFBQUFBQUFBQUFBQVVBWktWUUFBQUFBQUFBQUFBQUFvZzgvdEFNQ1JzTlphdHpQOEhtT01jVHNEQUFBQUFBQUFBQUFBRGg4elZRRUFBQUFBQUFBQUFBQ2dESlNxQUFBQUFBQUFBQUFBQUZBR1NsVUFBQUFBQUFBQUFBQUFLQU9sS3FvTXgzR1VucDZ1Mzl0bU5TY25Sd1VGQmVYMm1EazVPUXFGUXVWeWZ3QUFBQUFBQUFBQUFLaDRLRlZSWlV5ZE9sVjkrL2JWbGkxYmxKK2ZYK3FqcUtoSWt2VFVVMCtwWDc5KzVmS1lhOWFzMFRubm5LTzB0TFJ5dVQ4QUFBQUFBQUFBQUFCVVBENjNBd0RsSVRjM1Z5KysrS0tDd2FCNjllcDF3R3Q2OWVxbHE2NjZTdE9tVGROWlo1MmxOOTU0bzlRMVYxMTFsVWFOR3FXdFc3ZVdPbGUzYmwxZGRORkZDZ1FDNFdNYk4yNlVKSzFkdTFaZXI3ZkU5WTBhTlZKTVRNeVJQQzBBQUFBQUFBQUFBQUJVQUpTcXFQU0tpb28wWU1BQTFhNWRXNU1uVDFaRVJNUUJyd3NHZzdybGxsc1VDb1VVQ29YQ3Mwc1hMbHlvaElRRW5YamlpWEljSjN6K3h4OS9WRXhNak5xMGFTTkpDb1ZDdXV1dXU3Umx5NVpTOXoxa3lKQlN4MGFOR3FWVFRqbWxISjhwQUFBQUFBQUFBQUFBM0VDcGlrcHY3dHk1V3JkdW5mcjA2YU5PblRySjUvUEpXaXRqaktSOVplZ1ZWMXdoU1VwTFMxTjhmTHpPTys4ODllclZTNFdGaGVyYXRhdHV1T0VHZGUvZVhaSjAxMTEzU2RvM3MvVXZmL21MYnJqaGh2QmpYWHZ0dFNYMlQxMjNicDF1dXVrbVBmZmNjMnJWcWxXSlhBa0pDVWYxZVFNQUFBQUFBQUFBQU9EWW9GU3RaS3kxUmxMOXRtM2J0dnJkaTZ1SkxsMjZxRzNidGhvN2Rxd3V1dWdpRFJreVJQMzc5OWRwcDUybXE2NjZTZzg4OElEaTQrUFZ1WE5ucGFTa2FPM2F0Um8zYnB3dXZ2aGlUWjQ4V1g2L1grZWRkMTZKK3d3R2c4ckt5bExEaGcxTEhFOUlTRkJoWVdINDg2aW9LRWxTWkdTa2F0U29VZUs0eDdOdnkySytWMGZHV3J0NzJiSmxwZGRqQmdBQUFBQUFBQUFBT0VZb1ZTdWZDR1BNM1Q2Zjc0YmZ2N1I2ZU91dHR6UjU4bVJ0MmJKRlVWRlIrc2MvL3FGZ01LaFZxMVpwMHFSSjJyeDVzeFl0V3FUcDA2ZnI3cnZ2VnUvZXZUVjkrblFOR2pSSTgrYk4wOENCQThQbGFMRlZxMVlwR0F4cTJiSmwycjE3dHlTcGFkT21xbFdybHY3NXozK1d5bkRMTGJlVXlsUzhiTERQNXh0L2xKNTZkYkc2WGJ0MmcxSlRVOVBkRGdJQUFBQUFBQUFBQUtvblN0Vkt3aGl6UzFLK01jWWpxWW5iZVNxU1hyMTZxV3ZYcnVyWnM2ZWVmUEpKMWE1ZFd3OCsrS0FHRHg2c0UwNDRRYmZlZXF1dXZQSktkZTdjV1FrSkNZcUtpdEpGRjEya0YxOThVVFZyMWxSS1NrcXArMXl3WUlHOFhxOW16cHdwU2RxMWE1ZTZkKyt1M3IxN1M1THV2ZmZlVXJOWUpXbno1czBhUG54NGlXUEdtUFpINFdsWEc5YmF4c2FZOXlSUnFnSUFBQUFBQUFBQUFGZFFxbFlTUzVZc1daMlNrbktkeCtOcDZuYVdDbVo4Ykd5c3RtL2ZybUF3cUQvOTZVL3llcjFxMmJLbDB0UFQxYlp0VytYbjU2dHUzYnBLU2tyU2poMDdOSHo0Y0UyZE9sVm5uWFdXMHRMUzFMdDNiOTEyMjIzcTFhdVhvcU9qSlVuZmZ2dXRPblhxcEtlZmZscVNkTVVWVnlncEtTbjhvQkVSRWZMNy9hWENSRVJFbERwbXJlMTlsSjU3bFdhTWFTanBRYmR6QUFBQUFBQUFBQUFBVUtwV0hxRWxTNWI4SU9rSHQ0TlVNT01sS1RNelU3R3hzZXJldlh2NHhEZmZmS1Bubm50T1JVVkZHamh3b0hyMzdxMXg0OGFwVWFOR2V1YVpaM1QyMldjck96dGJMNy84c2thT0hLbVBQLzVZYjczMWx2YnMyYVA1OCtmcjRZY2ZEdC9YaGcwYjFMVHByMzMyNDQ4L0xtTk1xVERXMmxMSEZpMWFOS0ZjbjNFMTBiRmp4M2JXMnJzbGxXNnZBUUFBQUFBQUFBQUFqaUZLVlZRSjU1NTdyczQ5OTl6dzU3dDI3ZEw0OGVQMXhSZGZxRWVQSHJyMDBrdVZrSkNnaXkrK1dFMmJOdFhzMmJQMTNudnY2ZkxMTDljRER6eWdXMis5VlFVRkJmTDcvWm8wYVpLOFhxK2lvcUswYWRNbUZSWVdxckN3VUUyYk5nMlhwbSs4OFVaNHo5VDlaV1JrSEhEUFZRQUFBQUFBQUFBQUFGUmVsS3FvTWdLQmdPYlBuNjlwMDZicCsrKy8xOFVYWDZ4SEhubEV3V0JRUzVjdVZWNWVudkx5OHZUWVk0L3BwNTkrMGdVWFhLQ2NuQnpGeGNVcElTRkJDUWtKS2l3czFQang0OVdqUnc5OThza25ldXl4eDlTcFV5ZEZSVVdwVWFOR3lzek1sQ1NscHFZcU96dTdWSWJObXpjZjY2Y05BQUFBQUFBQUFBQ0FvNHhTRlZWR1FVR0JIbmpnQVhtOVhzWEZ4V25CZ2dWS1QwOVhmbjYrMHRQVFpZeFJwMDZkZE1VVlY2aGR1M2JhdEdtVDR1TGlTdHlIeitmVGlTZWVxR3V2dlZaMTZ0VFI0TUdETldYS0ZGMTQ0WVh5K1g3OWRYbisrZWNQZWZsZkFBQUFBQUFBQUFBQVZHNlVxcWd5NHVQajlkVlhYeWtRQ0dqWnNtV2FNMmVPVnF4WW9hWk5tK3JhYTYvVkdXZWNvWmlZR0VuU2p6LytxSWNlZWtpWFhIS0picnp4Um5rOEhrbjdTdFVYWG5oQmZ2KytiVHh2dWVVV2ZmSEZGN3J3d2d0TFBOYm8wYU5aL2hjQUFBQUFBQUFBQUtDYW9GUkZsVEZqeGd5OS92cnJXcnQycllMQm9PclhyNjltelpwcHg0NGRHajkrdk41NDR3MFZGQlFvUHo5ZitmbjVLaWdvMEN1dnZLSmx5NVpwK1BEaDRWbXJ4WVdxdEcvdjFKbzFhK3Fzczg0cThWaUxGeS9XenAwN1MyVmcrVjhBQUFBQUFBQUFBSUNxaDFJVlZVYnIxcTNWb1VNSGRldldUUVVGQldyWXNLSGk0dUxrOS92MTZhZWZhczZjT1JvMWFwVDhmci95OHZLVWxKU2svUHg4RFJnd1FGT21URkh2M3IxTDNGOXFhcXFtVHAycWdRTUhLaUlpb3NTNUYxNTRnZVYvQVFBQUFBQUFBQUFBcWdsS1ZWUVp5Y25KdXVDQ0MvVGVlKzlwMXF4WjZ0ZXZuM3IwNkNGcFgwSHE4L25VdkhsejVlWGxxVy9mdnFwVHA0NTY5T2lobDE1NlNVbEpTU1h1S3pjM1Z3OC8vTENhTjIrdVhyMTZsWG9zbHY4RkFBQUFBQUFBQUFDb1BpaFZVU1c4K09LTG1qSmxpdmJzMmFPTExycEliNzc1cG5idTNLbnZ2dnRPeGhqTm1UTkh0V3ZYbGlURnhNUm80c1NKbWpKbGl0NS8vMzA5Ly96ek92Lzg4M1h2dmZlcVZxMWFDZ2FEZXZEQkI3Vmx5eGE5OHNvcjhucTlrcVNaTTJkcTA2Wk5rcVI1OCtacHc0WU5wWEpzM2JvMWZENDNOMWVublhiYU1mb0tBQUFBQUFBQUFBQUE0R2loVkVXVmtKU1VwT3V1dTA3ZHUzZFhURXlNSkduQWdBSDYrdXV2SlVtSmlZbDY2S0dId3RmSHg4ZnJ5aXV2Vk8vZXZmWDExMS9ycTYrK1VrSkNnaVJwNU1pUit1Njc3L1Q0NDQrcmJkdTI0ZHVNR0RGQytmbjVpb3FLMG11dnZYYlFMTVhuVTFKU0tGVUJBQUFBQUFBQUFBQ3FBRXBWVkFtWFhYWlpxV1BQUFBPTUpNbHhISGs4bmdQZXpoaWpMbDI2cUV1WEx1RmpmZnIwVWV2V3JYWGVlZWVWdVBienp6OHZ4OFFBQUFBQUFBQUFBQUNvTEE3Y05BRlZ5TUVLMVlOSlNFaFF0MjdkamxJYUFBQUFBQUFBQUFBQVZEYVVxZ0FBQUFBQUFBQUFBQUJRQnBiL1JhVm1qREZ1WndBQUFBQUFBQUFBQUVEVnhreFZBQUFBQUFBQUFBQUFBQ2dEcFNvQUFBQUFBQUFBQUFBQWxJRlNGUUFBQUFBQUFBQUFBQURLUUtrS0FBQUFBQUFBQUFBQUFHV2dWQVVBQUFBQUFBQUFBQUNBTWxDcUFnQUFBQUFBQUFBQUFFQVpLRlVCQUFBQUFBQUFBQUFBb0F5VXFnQUFBQUFBQUFBQUFBQlFCa3BWQUFBQUFBQUFBQUFBQUNnRHBTb0FBQUFBQUFBQUFBQUFsSUZTRlFBQUFBQUFBQUFBQUFES1FLa0tBQUFBQUFBQUFBQUFBR1h3dVIwQUFFNDQ0WVFhZGV2V2JiNy9NY2R4V2hoamZNWVlyekdtY1ljT0hWSitjN1B0aXhZdHlqcUdNUUVBQUFBQUFBQUFRRFZGcVFyQWRiVnExWXFTTkdYL1k4YVlDR05NZ3JYV2VEeWUrNnkxZC96bVp2ZEpHbi9NUWdJQUFBQUFBQUFBZ0dxTFVoV0E2NVl2WDc2clE0Y09XNHd4cC96Mm5ERkdrbzc3NWI5aGUvYnMrZUlZeFFNQUFBQUFBQUFBQU5VY2U2b0NxQ2crbENScmJaa2Z2MXp6YmtaR3huWlgwd0lBQUFBQUFBQUFnR3FEVWhWQVJmR1ZwQjNGTTFLTk1TVSs5dWM0empnWDhnRUFBQUFBQUFBQWdHcUtVaFZBUmJIT1dwdGExZ1cvbEt1ckE0SEEvR01UQ1FBQUFBQUFBQUFBZ0ZJVlFBV3hhTkdpclpJV1dXc2RTZUdsZmcvdy8vT3pzN1AzSFBPQUFBQUFBQUFBQUFDZzJxSlVCVkJSaENUTmxGUldZVnBnakptVGxaV1ZmNHd5QVFBQUFBQUFBQUFBVUtvQ3FEaHljbksrTmNia0ZIKysvd3pWWCt3T2hVS0xqMjBxQUFBQUFBQUFBQUJRM1ZHcUFxZ3dNakl5OWppTzgra3ZlNmRLK3JWWS9lWFk1c0xDd2lYdXBBTUFBQUFBQUFBQUFOVVZwU3FBaW1iTXdVNVlhejlPVDAvUE9kaDVBQUFBQUFBQUFBQ0FvNEZTRlVDRnNuang0dThkeDFtei8yelZZc0ZnOEcwWElnRUFBQUFBQUFBQWdHcU9VaFZBUlJNeXhyeTUvd0Zqakt5MWM1Y3VYYnJHclZBQUFBQUFBQUFBQUtENm9sUUZVT0dFUXFFWjF0cTgzOHhXZmRtdFBBQUFBQUFBQUFBQW9IcWpWQVZRNFRpT3MxYlNFaWs4UzNYNzNyMTd2M1E1RmdBQUFBQUFBQUFBcUtZb1ZRRlVPTXVXTGRzcEtkVmFheVhKR0xPd3FLZ28yK1ZZQUFBQUFBQUFBQUNnbXFKVUJWQVJCUjNIK1VsU2tiWFdPbzZ6SkNNakk4L3RVQUFBQUFBQUFBQUFvSHFpVkFWUUlRV0R3VStNTWJ1Tk1idU1NZDlLQ3JtZENRQUFBQUFBQUFBQVZFK1VxZ0FxcE9YTGwyZFlheGRaYXpjVkZCUjg2M1llQUFBQUFBQUFBQUJRZmZuY0RnQ2dmQ1FtdG95TFN2RFY5WGxzclBWNmFoajUvRzVuT2xJRkFmdTl4Nmg5b2FMYU5tN1YzdTA0UjhRcVdCUU1PZm5HTWJuNVp1KzJYUmtaZTl6T0JMZ2xNYkZsWEZTOHA1N1BhMktxeW5nVmRHeU1NWFp4eU5wZGVVWG10TWF0MnVlNm5lbHdNVjRCQUFBQUFBQUFwVkdxQXBWWW8rWi9hbTI4bnA1VzVzL0dxTEZrb293VUlTdWZqSzMwTTlFTFE1SzE4aG1qTTl6T2NxU005VGwrbjRKV0NzUXJvakN1WmJ0MWtyNXpQUHA0dzRyVVpXN25BNDYyUnMzLzFGb2U3NlV5T3NNWU5aWlZ0REhHVjFYR3E3eWdqQW1Fakl3NTNwRTkyeGkzRXgwK3hpc0FBQUFBQUFDZ05FcFZvSEx4MUQyeFhXSlVoTzFxNUxuVEdITzZKQlcvZCsvMysrWDFldVgxZUdROGxmZ2QvU3JJV3F0UXlGRW9GRklnVUNUcjhad2txYnRIR3Rxb1Zjb0M2K2k1d2tCb3hyYTF5N1pMY3R6T0M1UURUOTBUMnlWR1I5anVrdWVXNHZHcVdHU2tYeDdHcXdxSjhRb0FBQUFBQUFBb2pWSVZxQ1RxTjJ1WDdQV1lxejBlL2NNWVQwZEo4bnE5YXRtaW1WbzBhNlltalJ2cCtIcEppbzJKVlkwYTBmTDdLLzFxbWxWS1VTQ2cvUHg4NWVibWFldTJiVnF6ZHAxV1pheFcrcXBWQ2dTQ0oxdVBIVk1qeXJ1a1VhdDJId1NLZ3VPeTFxU3RkenN6Y0xnYXQycmYySEhzRmI4ZHIxcTNhcUZtVFp1cVNlTkdPcUZlWGNYRXhEQmVWVUNNVndBQUFBQUFBRUJwbEtwQUpaRGN0SFZ6bjgrOFlxU3paSXcvSVQ1ZWwvYnNvZTRYWGFCNmRlc3FQaTVPc2JFeGJzZkVINUNibDZlY1BUbmFzbTI3Wm53eFMrOTlPTW16T3p1N2d6SDZrei9TZjJIOUZpZmR1ZW1uNVV2Y3pnbjhVY2xOV3pjM3NtOTRQVHBWeHZocjFheXBYbi83aTdwZmRJR09yMWRYY2JHTVY1VU40eFVBQUFBQUFBRHc2NnFoQUNxa2t5T2F0QXBjWkdYR0dXUGlvNk9qMVNHbG5RYmROMEN0V3JhUXFjeWI5aUhNV3F1TTFXdjAyQlBQNnZ2NUMxUlFVQ0JyYlk1amJkLzEzdUJrcGFVVnVaMnh2TFZzMlRJdUppWm11YlcycnJXMjMrTEZpMTkxT3hPT1VKczIvaWFPNzhMZmpsY1BEN3BYelpvMlpieXFJcXJqZVBWSGRlalE0VXhqekhmVzJpeHI3VldMRnkvKzB1MU1BQUFBQUFBQU9ISmV0d01BT0lnMmJmeU5hK3RXWXp3dmVJeUpiOW04bWU2Lyt5N2ROK0FPMVUxS29xQ29Rb3d4T3E1MmJYVy9xSnVhTkc2b2RSczJhT2ZPWFpFeTVxOEoxaFRFK0wyTGMzSnlBbTduTEUrSmlZbVJmci8vZGtteGtxWnQyYkpsb2R1WmNBVGF0UEUzRHZudk1zWTg2ekVtL3FRMnJYVHZnRHQxMzRBN1ZDY3hrZkdxQ3FtTzQ5VWZkZnp4eHpjd3hsd3ZLVWZTUjF1MmJNbDBPeE1BQUFBQUFBQ09ITXYvQWhWVTQxREVBSG5NQTVMaVc3ZHFxYWRHUEtwbUp6YVYxOHZmUWxSVkVSRStkYi93QXJWbzNrejNQL1FmTFVsZFZzUEk4MzhSOFlsK1pXVU5kenNmY0RDTlF4RURqTkdETXZ2R3EyZitPMHhOR2pkaXZLckNHSzhBQURnVzJ2Z2JOL2JYY0R0RlpaUHB5eTFRUnNaZXQzTUFBQUNnNm1IcUNGRHhlQnUyU3JuQmE4ekxIbzlISGR1MzAraVhubGQ4WEp6YnVYQU0vYnduUnpmZDNsOExGeTlSS09USUNUbTNyL3NwZFpTa2tOdlp5Z1BMLzFZWjRmSEs2L1dvUXdyalZYVlUxY2VyUDRybGZ3RUE1U0V4c1dWY1RHTFVUVWJxNm5hV3lzWmEvUmcwZTUvYnRITGxUcmV6QUFBQW9HcGhwaXBRc1pnR3JWSzZlcVJIUEI2UHp1dlNXY1ArOHhBRlJUV1VFQitubC8vM3RBWS84cGcrL1h5bXJPelFKaTNiYlZ5Ym5qcEZrdU4yUGtDU2FkeWliUS85TWw1ZGRFRlhEUjU0TCtOVk5jUjRCUUJBK2F0Uk02cWhSK29qWS83a2RwYkt4aGg3a2lmay8xelNOMjVuQVFBQVFOVkNxUXBVSUNlMGFIR2NWK1pSeWRacGtGeGZEOTczYnlVbUh1ZDJMTGlrWmtLQzd2djNIVnE5TmxNclZxYlh0QjR6NUlTbWJSWm5yVWxiNzNZMjRJUVdMWTZUeC91ZjR2SHF2bi9meVhoVmpURmVBUUJRdmp6R1JGaFpuOC9yMVY4dnZsQXRtcDNvZHFRS2IxTldsajZhUEVVRkJYdTlIbU1qM000REFBQ0Fxb2RTRmFnNHZCR2U2TUhHNk5UWW1GaTkrT3lUYXR5b29kdVo0Q0pqakJva0ordVp4NGZxSDFmMU5ibTV1ZTM5RWI0SEpOMmhhcnFzSmlxTTR2RXFwWGk4YXBCYzMrMU1jQkhqRlFBQVI0Zlg2OVhGM2JxcVc5ZHozWTVTNGMxZnVGalRQdnRDQlFWc3B3b0FBSUNqdytOMkFBRDdORzdWN21vamM1dmZINkdISHJoSHJWdTFjRHNTS29pV3padHJ5RVAzSzlMdmwvRjRibXpZb20xZnR6T2hlaXNlcnlJai9ZeFhLSUh4Q2dBQUFBQUFBRlVWcFNwUUFaeHc0cDhhR0psN2pKSDNqRk5QNGErUVVjb0Y1NTJyTHAzL0xFaytqOGN6c0ZITGRrM2N6b1RxcVdIenRrMkx4NnN1bmYvTWVJVlNHSzhBQUFBQUFBQlFGVkdxQXU0ekVWN1BoWktheGNiRTZJckxMMVhOaEFTM002R0NpWTJOMGVXWDlsS3RtalZsakVrMjh2eGRrbkU3RjZvZDR6R2V2NnQ0dkxyc0VzWXJsTUo0QlFBQUFBQUFnS3FJVWhWd1dYTHlTYldNMS94THhrUjFhTjlPNSt5YjNRT1VjdVlacCtyVVV6cEtVb1NNTG0vUXN1WHhibWRDOVpLY2ZGSXRlWFZGOFhoMTV1bW51aDBKRlJUakZRQUFBQUFBQUtvYVNsWEFaUkV4cHF1Uk9VT1M3cjd6ZGtWRlJia2RDUlZVZEZTVSt0MXlneVRKR0oxaVBKRmRYWTZFYXVhWDhhcWp0Rys4aW95TWREc1NLaWpHS3dBQUFBQUFBRlExbEtxQW01bzFpN1RHKzZpa2lPNFhYdkQvN04xNVhGUlYvd2Z3ejdrek1LeXloQUpxaW9nTExpRHVwbGlhUzJsbHFaV1psWmFsL3R4U1U5TXlNN1V5OVFsNzFGeXozTXBTeVYxenkweHpEUlhUWEZCVVJGQVVsRzFnWnU3NS9ZSE00d2dveThBQWZ0NnZGeSs0NTk1Nzd2ZmVKNzhQelBlZWN4RFVzTDZ0STZKU3JrRzlRRHozYkdjQXNOTklNUUVCQWF4cVVjbjRYNzdTTWw5UmZqQmZFUkVSRVJFUkVSRlJlY0tpS3BFTitXbWQrd29oYXJ1N3VhRi8zemRzSFE2VkVZUGVleHNlN3U2QUVBSFY3Vno2MnpvZWVqUms1eXRQRHcvbUs4bzM1aXNpSWlJaUlpSWlJaW92V0ZRbHNoMHRJSHNEUUl2bVRWRXJ3Ti9XOFZBWjRWZTlHa0xidEFJQUNNaDNBR2hzR3hFOUFzejU2cW5RMXN4WGxHL01WMFJFUktXZjBXZ3MwdmszYjk2RWxOSkswUkFSRVJFUmxWNHNxaExaU0xXQWVuV0VVUHgwT251MGJ0a2N6czdPdGc2SnlnaEhCd2UwYnRrQ1RvNk9FRkpVclZLN2ZnTmJ4MFRsVy9XQTRJYlorZXFKVmkyWXJ5amZtSytJaUloS3Qram9hTFJyMXc1TGxpd3BkQi85Ky9mSHh4OS9iTjdXNi9WSVNFakk5eGNMc2tSRVJFUlVWbWh0SFFEUkkwdXhheXdsS3JvNHU2QkZzeWEyam9iS21FWkJEZUhoNFlHMHRMUUtka0xiQ3NCeFc4ZEU1WmdpVzBrcEtybzR1eUFrdUtHdG82RXlodm1LaUlpb2RESVlESmc0Y1NMUzB0S2dLQXJXcjErZjYzSE5taldEcjY5dnJ2dWlvNk54K2ZKbDlPM2IxOXkyYnQwNmZQWFZWL21PNC9mZmY0ZXJxMnZCZ2ljaUlpSWlzZ0VXVllsc3dNL1B6MEVLMlJLQWcxLzFhdkN2NFdmcmtLaU1xZUZYRGRXclZVWE0xYXYyRUdqdTdSMjBMRDcrUktxdDQ2THl4OC9QendHSzBoeVFEbjdWcTZIYTQxVnRIUktWTWN4WFJFUkVwZFBVcVZOeDh1UkpPRGc0WU1HQ0JUbjJHd3dHbUV3bXpKZ3hJOCtpNnA0OWV3QUF6czdPT0hMa0NBQ2dhdFdxV0xSb0VTWlBub3hxMWFyaHJiZmVzamduTGk0T0gzLzhNVWFQSG8wNmRlckF5Y25KeW5kR1JFUkVSRlE4V0ZRbHNvRjBUWVVLamtKcEl3UkUxMmM2UXFQaEVuTlVNRnF0RnAwN3RNZitBNGVFbExLNW8yTm1SUUFzVXBEVlplVXJOQmNRekZkVUtNeFhSRVJFcGMrc1diT3dZY01HVEp3NEVTKzg4RUtPL2FkUG44YkFnUVBScEVrVGhJYUc1dG5QamgwN0FBQmp4NDQxdHpWdTNCZ0xGeTZFazVNVFBEMDlFUklTWW5GT2RIUTBBQ0FnSUNESFBpSWlJaUtpMG94cnFoTFpnRmFMQmtLZ25yMjlQYm84MDlIVzRWQVoxYWxEZStoME9nZ2g2a2c3aC9xMmpvZktKNjBXRFFSUWkvbUtpb0w1aW9pSXFIUlFWUlhUcGszRDBxVkxNV0xFQ0hUbzBBRnBhV2tXWC8vKyt5OEdEeDZNZ0lBQWZQTEpKOGpNekVSYVdocjBlcjFGWDhlT0hjT3BVNmN3Yjk0OEhEeDRFQWNPSElDUGp3OXExNjV0bzdzaklpSWlJaXBlSEtsS1pBTmFJWjREb0czZXRERXFlbm5aT2h3cW95cFY5RUtMWmszd3g1Lzd0ZERJemdBMjJUb21LbitZcjhnYW1LK0lpSWhzTHlVbEJlUEdqY1ArL2ZzQkFGOS8vVFcrL3ZyclBJOC9kdXdZbm43NmFmTjI5Z2pVYkV1WExrVmdZQ0NhTldzR0FOaS9mei9pNHVMdzRvc3Ztby9adUhFanRtM2JadTFiSVNJaUlpS3lDUlpWaVd4Qm9Ca0FQTkd5T1lRUXRvNkd5aWdoQk5xMmJvVS8vdHdQQ0hEZUxDb2V6RmRrQmN4WFJFUkV0bmZ1M0RtY09uVUtiNzMxRm43NDRRZU1HalVLZ1lHQkZzZU1IRGtTSFR0MnhMUFBQbXZSL3MwMzMxaHN4OFRFWU0rZVBaZzZkU3BtelpvRm5VNkhoSVFFQkFZR29sYXRXdWJqUWtKQzBMMTdkNHR6Yjl5NDhjQmlMaEVSRVJGUmFjV2lLbEhKMHlwU0JFRUE5ZXJXc1hVc1ZNWUZOV3dBQUJCU05FVFdsTzZxVFFPaThvYjVpcXlHK1lxSWlNaTJRa0pDc0huelprUkhSK09ISDM1QXpabzFjNnhwcXRWcTRldnJtNk85UW9VS1NFdExNMjk3ZTN1amJkdTI2TkNoQTM3OTlWYzRPVG5ocTYrK1FueDh2TVY1VmFwVVFlZk9uUzNhb3FPaldWUWxJaUlpb2pLSlJWV2lFbGFsYmwxL0NGUndkbktDajNjbFc0ZERaWnl2cnplY25aeVFtcGJtVnRVL3NHYk1oZFBuYkIwVGxSL1orY3JGeFpuNWlvcU0rWXFJaU1qMmREcWQrZWV6Wjg5Q285Rlk3RGNZRExoNjlTcU9IRGxpMFg3NzltM1kyZG1adCszczdEQno1a3dvaW1KdTAycTFxRktsU2pGRlRrUkVSRVJrZXl5cUVwVXdqYlFQZ2dBcVZ2U0NrNU9UcmNPaE1zN0JYZ2NmNzBxSXVoZ05yVmJUR0FDTEZHUTEyZm5LeDl1YitZcUtqUG1LaUlpb2RBa0xDOHUxUFR3OEhPSGg0VG5hR3pkdWJMRjliMEUxTDFldlhzMnhwdXFOR3pjS0VDVVJFUkVSVWVuQm9pcFJDZE1JSlFRQUtsWDBncU9qbzYzRG9UTE9YbWVQeXBWOUVYVXhHbExSTmdXd3l0WXhVZm1SbmE4cSsvb3dYMUdSTVY4UkVSR1ZMck5uejBhelpzMHMycDU5OWxtODl0cHJlUFBOTnkzYVI0NGNpZlQwOUFKZkl5SWlBaWRQbml4U25FUkVSRVJFcGNYRFh5c2tJcXRTSVlNQm9GTEZpbkJ5ZExCMU9EbGtabVppLy83OXVIejVjb0hQUFgvK1BLNWN1VklNVWVXVW1KaUltemR2RnJtZnlNaElHQXdHSzBSa0cvYjI5dkQxOFFZQUNNakdEem1jcUVDeTg1V3ZqN2RWODlYVnExZXQxdGZEcEtTa0lDVWxwY1N1VjV5SzQ3a1pqVWFyOTVrWDVpc2lJcUxTUlZFVWFMVmFpeThBRUVMa2FCZENGT29henozM0hQYnQyMmZ4dFdMRkNtdmVCaEVSRVJGUmllRklWYUtTSllRUVZRREF5K3N4T0RqWXZxaDYrdlJwMUtwVnkvd0hkR0ppSW9ZT0hZcTMzMzRiZ3djUExsQmZvMGFOZ3ArZkgyYk5tdlhRWS8vNjZ5L1VxbFVMWGw1ZUZ1MDdkdXhBYW1vcXVuWHI5c0R6UC8vOGN5UW5KMlBldkhrRml2RmVodzhmeHNDQkF6RjA2RkQwN2RzMzMrY1pEQWE4L3Zycm1ENTlPcXBYcjE3bzYxdUR2WjNkdld0ZCt0a3lGaXAzelBuS3UxSkZxK1dyaXhjdjR1V1hYOGFzV2JQUXVuWHJoeDV2TUJodzVjb1ZYTHAwQ2UzYXRRTUFuRGx6SnNkTEZTNHVMZ2dLQ3JKb2k0Nk9ScTlldmZEc3M4OWk0c1NKRDcxV1Nrb0tFaE1UY2VQR0RjVEZ4ZUhTcFV2bzNyMDd2TDI5RVJVVmhiUzB0QnpuZUhwNmxzaWprem5QQUFBZ0FFbEVRVlRhWWRaNGJ2Zkx5TWhBNzk2OThmampqK2M1L1o4MU1WOFJFUkdWTGtlT0hFRlNVcEpGVzJabUpzNmRPNWZybEwzT3pzNFA3VE0xTlJWR294RnVibTVXalpXSWlJaUlxRFJnVVpXb0JGV3RXdFZCU0tuVmFEVndxK0JhNkxkOXJlWGN1WFBvMDZjUCt2YnRpNkZEaDViSU5kUFQweEVXRm9iVnExZWpYYnQybURGamhzWCt6WnMzWTkrK2ZRZ0lDRUQ5K3ZWaE5CcVJtWm1ab3g5VlZhR3FhcTVGRG8xR0E1MU9CeUNyU0p6WE5GVlZxbFJCUUVBQWxpeFpndERRMER5bk4vWHk4b0s5dmIxNWU4R0NCWWlLaXNLVUtWTXdmLzc4ZkswbFZGeUVFSEIxY1lGV3E0WFJhTlJXclZyVk1TWW1wdUR6Y2hIZHg5czd5Q2s3WDdtNkZpMWZHUXdHODRod2IyOXZORy9lSEN0WHJrUklTSWo1R0h0N2UremZ2eCtiTm0xQ2Ftb3FVbEpTa0pTVWhOallXSmhNSmdEQTRzV0wwYWhSSXl4YXRBaTdkdTJ5dUVaZ1lDQ1dMMTl1M3BaUzRvc3Z2b0RSYU1UbXpadngybXV2b1hidDJybkd0M2p4WXN5ZlA5OThuV3gyZG5aUUZBVURCZ3pBWjU5OWx1dlVkZDI3ZDhkSEgzMVV1QWZ6RU5aK2J2ZWJQWHMyb3FPakVSd2NqUFhyMStjYVE0MGFOZEN3WVVPcjNFOHg1aXNsS0Npbzhva1RKMktzMEJjUkVkRWpZL255NWJuK0xiTm56eDdzMmJQSG9pMHpNelBYM3lmdUZSTVRneEVqUm1EQWdBSG8wS0dEdVQwakl3TTNiOTdFelpzM2NldldMWncvZjk1OC9aOS8vaG1ob2FGNC92bm5yWEJIUkVSRVJFVEZpMFZWb2hLa0tCNE9VZ2lORUVxcEdLWDZ5eSsvQUFCZWZQSEZFcm5lYjcvOWhyQ3dNTVRIeCtPWlo1N0IyTEZqY3h3elljSUV2UHp5eXhnM2JoeCsvUEZIL1Bubm54Zy9mbnllZllhR2h1Wm9hOVdxRldiUG5nMEErT3Fyci9EYmI3ODlOTFpYWG5rbHozMkxGaTB5RnpHMmI5K083Nzc3RGdEdzk5OS9ZK2JNbVJnOWV2UkQreTlPOWpvZE5Jb0NvNVNLb25nNEFDeXFVdEZwM1BTT1VqaHBoRkRNTHlrVTFxeFpzL0RqanovbWFMLzMzKy9ubjMrT0sxZXU0TTgvLzBTclZxM2c0K09EeHg1N0RGNWVYdkR4OFlHUGp3OGVmL3h4OC9GTm1qUkJXRmdZcEpSNDZhV1hVS05HRFl1K0Z5MWFoQ05Iam1ER2pCbFl2SGd4eG84Zmp5Vkxsc0RWMVRWSEhIcTlIczdPenZqMDAwL2g1dVlHZDNkM2VIcDZva0tGQ2puaUhUTm1qSG03b0tQNUM2bzRubHUyOWV2WFkrWEtsWEJ3Y01DMmJkdHlqRVl4bVV3d0dBem8xYXVYMVlxcWdIWHlWYU5HamR5RkVKVlZWVzJvS01wTEFKNFNRbXdCME05cWdSSVJFWlZqYm01dWVQYlpaOUd2WHovVXJGa3pYK2VzWGJzMnoyVlQwdFBURVI4Zmp6ZmZmQlBWcWxYRDNyMTc4ZjMzMytQOCtmUDQ5OTkvc1c3ZE9nQlpMNys2dTd1YlI3d2FqVVpVcTFZTmZuNmN3SUtJaUlpSXlnWVdWWWxLa0hBMk9nZ29Xa1ZSNE9CUXRDSkZVVjIvZmgwYk5teEFRRUFBRWhJU2tKQ1FBQURtNlovaTQrTVJFUkdSNjduT3pzNTVqdmpLelY5Ly9ZVUZDeGJneElrVHFGcTFLc0xDd25JdGhnS0FoNGNIeG84Zmo5R2pSeU1zTEF3REJ3N0UzTGx6Y3h5M2NPRkNwS1dsWWZqdzRUbjJ1YnU3VzJ4WHFWSUZVNmRPTlcvdjNic1hCb01CN2R1M3ozSHV1blhyVUtWS0ZUUnQydFRjNXUvdkR5QnJhdUlaTTJiZzdiZmZ4bmZmZllmbm5uc09SNDRjd2N5Wk16RnExS2o4UFl4aW9MTzNoNkxSUUVJbzBqSFRFVUNpellLaDhzTms3eWcwTWl0ZjZld2ZmdndEOU8zYkZ4MDZkRUJFUkVTT2YvdnIxNjlIaHc0ZDRPL3ZqNTkrK2dsZVhsNDVSckRuUmxFVU9EazVJVEl5RWpkdjNrVFhybDNOKzNiczJJRjU4K2FoVjY5ZWFOZXVIUUlDQXZEbW0yOWkrUERobUROblRxNmowblU2SFo1ODhzazhyNWVTa2dKL2YzOVVybHpaM0pZOWJYcHhLWTduQmdDN2QrL0cxS2xUOGNJTEwrQ1RUejdKTVFyNXpwMDdlTys5OTVDZW5vNSsvYXhicHl4S3Znb0tDbXFzMFdoYUN5RkNwWlRCR28zR0gveGRsb2lJcU1COGZId3daY3FVQXAzVHZYdjNYTnVqbzZQeDc3Ly9RbFZWdlB2dXUzam5uWGV3YTljdTFLeFpFNzE3OThaamp6MW0vbkozZDRjUUF0SFIwZWpSb3dmNjl1MXI4WGNYRVJFUkVWRnB4dytpaUVxU2F1Y2dCVFJaUlZYYmpsUmR1SEFoTWpNemNmNzhlZlR2M3ovSC9rMmJObUhUcGsyNW5udi9OSnU1U1V0THcvYnQyL0hMTDcvZzlPblRjSGQzeC9EaHcvSGFhNi9CenM3dWdlZTJiOThlZ3dZTlF0ZXVYYzEvZ045djllclYwR3ExYU5HaXhRUDdBcktLSmZlT3RGcTBhRkdlQmRrUFAvd1FiZHUyelhWazFwMDdkN0JxMVNyRXhzYml1KysrZzUrZkh5Wk1tSUExYTlZZ0l5T2p5S1A1Q2t0M2QrU1hFRklqRFZvbm13UkI1WTZ3MHpoS21aV3ZpdnJmdHBlWEYvNysrMi9NblRzWERSbzBRTE5telFBQUd6ZHV4SW9WSytEbjU1ZGpQZFQ4MnJseko3eTh2TkM4ZVhNQVdWT0lmL3JwcDJqYnRpMUdqaHdKQUhqODhjZngzLy8rRjRNR0RVTGZ2bjB4ZmZwMFZLdFd6YUlmVlZVUkd4dHIwZWJnNEFCUFQwK2twS1RnNnRXcjZOU3BVNkZpTEt6aWVHNWJ0bXpCeElrVDBiWnRXNHdhTlNySDlPaDZ2UjdEaHcvSHpaczNNVy9lUERnNU9abW5XWGR5S25wNktXaStDZ29LcWlxRWVGMVJsTmNCK0FzaGRGSktqUkJDU0NrQndPWlQ2Uk1SRVpVVm16ZHZ0bmpadExEYzNkM05meXY2K1BpZ2FkT202TnUzci9sM2xZNGRPeGI1R2tSRVJFUkVwUkdMcWtRbFNWVWRvTlZxRkVYQXdVWUZPQUNJakl4RWVIZzQyclJwZzc1OSsxcnNTMHBLd2djZmZJQ3VYYnZpcFpkZXl2WDg3T21hOHBLUmtZRnUzYnJoMXExYjhQSHh3ZnZ2djQrZVBYdm11V1pwYnU0dDlLNVpzd1lMRnk2MDJIL256aDJvcW9wbm5ubkdvcjEzNzk1NDg4MDNjL1EzY2VKRTdOaXhBMERXZWtCU1NyUnUzVHJIY1hxOUhtdlhyclZZWDNESGpoMXdkSFEwdjUxOWIrRkZxOVhpMVZkZnpmZDlGUWVkemg2S1JnR2tVQVEwdHA5WG1zb0gxZWdJaloxR1VZUlZYaGpvMUtrVDl1N2RpNFVMRjZKWnMyWklTRWpBakJrejBMMTc5enhIUHVUSGpoMDcwS1ZMRjVoTUp2ejN2Ly9GMHFWTDBiNTllMHlkT2hVYWpjWjhYSU1HRGJCNDhXS01HREVDcjczMm1qbFhaRThIZlBQbXpSeHJlYlZwMHdhelpzM0NzbVhMWURBWWN1UU1lM3Q3eE1YRlFVcFpiSVU5YXowM0tTVysvZlpiTEY2OEdFRFdhTlhkdTNjLzhKejdwMFUvZXZSb3dXL2dQZy9KVjBwSVNNaGpxcXBXVlJTbERZQVhoQkRtQmRta2xNZ3VwTEtnU2tSRVZIRDE2dFhEc0dIRGl0elB2YjhiT2pnNFlNNmNPVVh1azRpSWlJaW9MR0JSbGFna1NZMERwTlFxTmx4VFZhL1hZOUtrU1hCd2NNQzRjZVBnNCtOanNUOCtQaDRBNE8zdGJWNUh0S0IwT2gxR2pCZ0JWMWRYdEc3ZEdvcWk1T3U4SFR0MklEazVHVUJXNFRaN1ZGaHFhaXBTVTFQeDhjY2ZtNDlkdVhJbDB0UFQ4YzQ3NzVqYlpzeVlZVDcvZnErOTlobzZkTWo2Ykg3QmdnWEl5TWpBMEtGRGN4dzNhZElrMUs5Zkh6MTc5alMzMmRzWGJlclQ0cFkxOGtzREthQkFvK1MvY2szMEFIYXF4aEZLVnI0cVNsSDEyclZyNWhFUktTa3AwR3ExR0RKa0NHSmpZNUdjbkl3clY2NWd5SkFoOFBiMmhxK3ZiNEg2am9xS3dyVnIxeEFTRW9JMWE5Wmc2ZEtsZVBQTk45RzVjMmZFeHNaYXJNK1ZrcEtDMU5SVUxGeTRFSFBuenNYV3JWdlJ1M2R2ODM0dkx5K3NXTEhDb244cEplYk9uWXZGaXhlalRaczJhTkNnZ2NYK29LQWcvUHp6endnTkRZV2lLQWdQRDg5MVpIMWhXUHU1M2JwMUN6dDM3a1R2M3IyeGJ0MDZQUFhVVXpsZW5Kay9mejdTMDlQeC92dnZXN1QvOXR0ditQbm5uNjF5WDdubHEwYU5HcmtEYUFUZ1NTRkVNNDFHRXdUZ2NlQi94ZFA3c1poS1JFUlVjSDUrZnFWaS9WSS9Qeitydkt4RlJFUkVSRlRTV0ZRbEtrR3FZdFJxWUtjSUlXQm5aNXQvZnBNbVRjTEZpeGN4ZnZ6NEhBWFZna3BLU3NLMmJkdk0yeWtwS1lpTmpjV3FWYXNBQU1uSnlmamxsMS95MWRjenp6eUR1WFBuNHRLbFN3Q3lwcEc2ZDZwTk96czdkTzdjMmJ5ZFhZQzl0eTIzdFZlejFhMWJGM1hyMWdXUU5YVndXbHBhcnV1NjZuUTZWSzVjT2M4MVgwc2pPenR0VnVGYXFvcW5zMmF4VjBpSUt3Q0RFQ0pEU21rRVlKSlNHb1VRUmdBbUFBWXBwZW51dGxFSVlWUlYxU2lFTUFFdzNqM0hLS1UwS1lwaXVOdHVrRkthcEpTbXUzM2ZlNnhCVVJUVDNmMUdLYVZSVVpUc1Bvelo3WXFpR0JWRk1SbU5Sb05HbzlGSktXMjdzREE5a0VtQm5RWWlLMTlwTlE4L0lRK09qbzVvMHFTSlJadXFxbWpjdUxGRlljek56UTIzYnQxQ1RFeE1ycVBJcyszYnQ4LzhzNysvUDVvMWE0WTVjK1pneFlvVnFGKy9QaG8yYklpMzMzNGJqejMyR0taUG4yNCs5dDkvLzhXQUFRT3diTmt5VEpreUJYcTkzdUxsRmlFRXZMeThMSzZWbHBhR2lJZ0lORzdjR0o5OTlsbU9XRWFPSElsNjllcmh4bzBic0xlM3QxcEJGU2llNTdaeTVVcm9kRHFzWDc4KzF4ZG5QRHc4b05WcWM3UkhSa1phNFk2eW1QTVZwR0t2a1lHTkdqWHFLNFRvQ3NCVkNPRUt3QTdJdlpqNm9FS3FsTEplbzBhTjNzL3pnQklraEtodTZ4aUlpSWlJaUlpSWlNajZXRlFsS2tFcWtLbUZOS2xTSWpQRFVPTFhsMUlpT1RrWnp6Ly9QSHIwNkZIay91TGo0L0hWVjE5WnRDVWxKZVZveTQ4bVRacGcxYXBWVUZVVk0yZk90Q2ljQUlEUmFNU1JJMGZNMjRtSmlVaFBUN2RvMCt2MXVmYWQyd2Z4RVJFUmVVNy9XOVlZRFVhb1VnVUVWQ0ZSU1NqQ08zdGY5cjNmL3d6dTM3NTNOSEZlaFFzaHhBUDdlZGorYkZxdHhmLzE2QUdvdVY2UWJFcENaSWpzZkpWWitIemw3dTZPZnYzNldiUzkrKzY3ZVB6eHgvSEpKNTlZdEM5YXRBaWVucDc0NElNUEFBQ25UcDNDOHVYTE1YNzhlTGk0dU9Ub1d3aUJEei84RUQxNzlzU21UWnZRclZ1M2ZNZVZuOWtDbkp5Y01HTEVDUHoxMTE5WXUzWnRuc2NGQndmbktJQVdWWEU4dDN0SEhNZkZ4Vm5rVHlCck5HdGFXbHFPOXBpWUdLdmNFM0JQdm9KUUhlM1FTZ2dSQUNCVENGRUJkMzh2eld0MDZvTUlJWm9MSVpwYkxWQXJFRUtZVENhVHlkWnhFQkVSRVJFUkVSR1JkYkNvU2xTQzdJVkdEeUZNcXFvaTNRYkZPeUVFUHYvOGMraDBPdXphdFFzcEtTazVqc21lUHZmY3VYTVc2NHJlNjRrbm5vQ1hseGNDQWdMdysrKy9tOXQ3OSs2TjZ0V3I0NHN2dmpDM1RaczJEYnQzNzhieTVjdHpqQUs3bDdPenM3bXdkKzg2aU5sU1UxTXhhTkFnODdhcVp0WGhjbXU3VjNwNmVxN1Q5d1lFQkdERWlCRTUydStkWXJpczBHZGt3R1F5UWFoQ05hcHlxYjBpMGxSVjFRb2hORkpLUlZFVVJVcXBDQ0VVS2FVaXBkUUlJUlFBNXJhNzN6WFoyM2YzYWU0ZXI5eDN2T2ErOHhRQUNnRE4vWDBDeVA1WmM4OXg5eDUvMldReW5iVE5rNk1IVXRSMENJMUpWVlhvTXpLSzFKVmVyNGZCOEwvQ3JNbGtnc0Znc0ppdTI5SFJFU2FUQ1JVcVZEQ1BRTGUzdDhmeTVjdng1Sk5QNXBrLy9QejgwTEpseXh4RjFZSk9EM3ZqeG8wY0wxcDA2TkFCYmR1MnhmZmZmNCswdERSNGVucGE3SmRTSWpFeEVYMzc5clY2VVJVbzN1ZTJlZk5tYk42OE9kZDlBd1lNc09KZFdETG5Ld2sxS1VXZHExVnZuL1AwOUt3dHBSeU9yQ21BYXdnaFBMS1B2N2ZBK3FCMVZLV1VWd0ZZYjBpdGRaelNhRFJSdGc2Q2lJaUlpSWlJaUlpc2cwVlZvaEtrenpUb2RRNDZvMVJWbTQySXJGQ2hBZ0JnMXF4WkR4eDl0SGZ2WHV6ZHV6ZlhmWFBuem9XWGx4YzBHZzFjWFYzTjdZcWk1R2g3NjYyM3NIWHJWaXhldkJoVHBrd3BWTXgxNjliRlcyKzloV0hEaHNGb05PTGpqei9HOXUzYjBheFpNd3dmUGh5QmdZRUFzdFpLemY0NVcycHFLcHlkblMzYVpzNmNDU2tsN096c2NseHI2OWF0Wlc2dFByMWVENVBKQkNoUWI2Y1o1MTg1ZnpJS1FQWk4zUHZkL0hPVEprMlFucDR1QUNBek0xTUFnTkZvTkg5WFZWWDQrdnBhdEFHQXlXU3krTzdtNWlaVVZiVm95MjNiMWRVVlVrcHplL1l4UW9qTXlNakkyOFgwYUtnb0RHcTZ0TmNZcGFvaW80aEYxU2xUcG1ETGxpMFdiY2VQSDdjbzZuMysrZWU0YytlT1JmN0lyOXExYTF0TVJaNmNuSXpxMVFzMkE2dWJteHNtVEpoZzBlYnQ3WTE2OWVxaFFvVUtHRGh3SUNaUG5veVdMVnVhOTIvY3VCRVRKMDVFbXpadENoeHpmaFRuYzN2NzdiZHpGRTgvL3ZoakpDY25ZOWFzV1JidEsxYXN3RGZmZkZQQTZITm56bGRDcWtLUmFkRVhvdlhSMGRFbmdvS0NodG5aMlRrYURBWUhqVWJURU1CQUFNOElJZXlCZkJWWDkwZ3BCMXNsU0N1NWZ2MTZabXhzYkxxdDR5QWlJaUlpSWlJaUl1dGdVWldvQkptZzBRc3A3NDVVdGUzbnJELzg4QU9NUm1PTzlvU0VCTHorK3V2bzNiczMzbnJyclZ6UGRYTnp5L2QxYXRXcWhSZGZmQkhoNGVIbzNMbHpvZFlxYmQ2OE9abzNiNDQ3ZCs1ZzNMaHh1SEhqQmtKQ1F2RFBQLytnVDU4K2VPcXBwL0QrKysvanZmZmV5M0Z1Y25JeWZIMTlBUUR0MjdmUGQzRW9lelJ2V2FEWFo4QmtVaUdsTUVGanlQNFBTOTczM2NMUm8wY2YybTlzYkt5VklxUXlTV05JRjFLYk5WSlZYN1NpNnZ2dnY0LysvZnVidHlkTW1BQmZYMS84My8vOW43bXRZc1dLK1BQUFA4MHZmaFNFcXFvV0l6b1RFeFBoN3U1ZW9EN3M3ZTNScmwyN1hQYzFiZG9VZm41K1dMUm9rYm1vbXBLU2dtKysrUWJ0MnJYTHNRYXB0UlQzYzd0dkttN3pGTjY1dFZ0TEh2a0tKMDZjU0FXUWVuY3pCc0NXb0tDZ1NvcWlkQkJDdkFJZ1NBamhCY0FWeUNxc1NpbnZuZUk4TXlJaUlzbHFnUklSRVJFUkVSRVJFZDJIUlZXaUV1UWtVektrY0RlcFVrVjZldEdLRkVXVlY4RWhlL2szQndlSEIwN1hXeER2di84K0RoOCtqREZqeG1EV3JGbG8zcnpneTk3OS9mZmZtRGh4SXR6YzNMQmd3UUpNblRvVjlldlhSL2Z1M1JFV0ZvYWVQWHZpMVZkZnhidnZ2bXNlc1NXbHhKVXJWOHdGajhtVEp5TWhJUUdmZi80NVdyWnNpWjQ5ZSthNHpwNDlleEFlSG80V0xWb1U3YVpMVVBiSUx3R3Aza2xQNTZnb3NvNDB1M1RwS2t5cUxQcjB2MTVlWHRpNWN5Y09IRGlBNmRPbnc4SEJBUzR1TGpoOStqVCsrZWNmODFxZzU4NmR5M2QrTUJxTm1ETm5EalFhRFg3OTlWY0VCd2NEeUhveEpERXhFVDQrUG9XTzEyQXdJRDQrSHRldVhVUGx5cFZScFVvVkRCczJEQ05IanNUS2xTdlJzMmRQakJvMUNnYURBU05IanN5em45VFVWQmdNQmxTb1VNRmkzZUw4S283bmx1M2l4WXNXbzNzQjROcTFhOURyOVRuYXo1NDlXK0RZODFLUWZIWGl4SW5yQUZZQ1dOV2dRUU0valVZVHJDaktFd0RhQ2lHYVdTMG9JaUlpSWlJaUlpS2lmR0JSbGFnRVJXdTE2VFdrTktxcXhLTlUrM0oyZHNaLy92TWY5Ty9mSHlOR2pNQm5uMzJHcDU5K09sL25KaVFrWU42OGVRZ1BEMGVyVnEzdzVaZGZ3c1hGeGJ5L1U2ZE9hTnUyTFJZdVhJaGx5NVpoMDZaTm1EaHhJdHEyYll1clY2OUNyOWVqVnExYUFHQmVMOUhPemc0VEpreEE3ZHExTVhEZ1FHZzBHcGhNSnZ6d3d3LzQ5ZGRmMGFWTEYweWNPTkg2RDZLWVpLOVJDQ0hVMi9iMmFiYU9oOHFMMitsQ1BtWlVWVm5rNmNvek16T3haTWtTTkc3YzJHSVVwS3FxK1BISEg5R3dZVU9FaG9ZaUtpcktZbVRtZzJpMVd2enh4eCs0ZlBreTZ0V3JaeTR3L3ZYWFh3Q1E3elZPbHk1ZGlrT0hEaUVwS1FsdnZQRUc0dVBqY2ZQbVRmUCt5Wk1ubzBxVktuanl5U2Z4d2dzdklDd3NETnUzYjhmcDA2Zng3YmZmb25MbHlubjJQWGp3WUZ5OGVCRTdkKzRzVkZHMU9KNWJ0cjE3OTVxZjFmMCsrK3d6aSszY1pqVW9yRUxtSzlQSmt5ZWpBRVRWcTFkdm85Rm9yT0RzN093bnBYeFJDTkZIQ0ZHd3VaNkppSWlJaUlpSWlJZ0tnVVZWb3BKMC9ueUdyQnRzVkcyNHBtcEpPbnIwS0pZdVhZcWVQWHNpTkRRVTMzNzdMWVlORzRZeFk4Ymc2YWVmeHRpeFkvSFlZNDlabkdNeW1YRHAwaVh6aC9oZmYvMDFkdS9lalRGanh1RFZWMS9OOVRvT0RnNFlPblFvT25Ub2dHblRwcG5YVWp4dzRBQ0FyRFZaNzlXbFN4Y29pb0xKa3lmandJRUQ2Tk9uRDc3Ly9udGN1blFKbzBhTlFxOWV2Y3JNdXFwU1N1ajFHVkJWRlZKS0k4NmZ0KzBRYUNvM1ltSmk5SDUxSHpPcVZsaFQ5YWVmZnNLdFc3Y3djT0JBaS9hdVhidml0OTkrdzh5Wk0zSDc5bTBvaXBMdllpZ0FyRnExS2tmYjZ0V3JVYWxTSlFRRUJPU3JqeE1uVHVEYXRXdlFhRFJvMGFJRmZIMTk0ZXZyQ3g4ZkgvajYrc0xSMGRGOGJKY3VYYkI1ODJhY09IRUNyVnExUXUzYXRmUHNOeU1qQTZkUG4wYW5UcDF5VEtlYlg4WDEzRHAxNm9RV0xWcWdRNGNPK1RyKzhPSEQyTE5uVDRGaXo0MDE4dFdwVTZjeUFTVGMvVG9DNE9OR2pScDFsRks2UFBoTUlpS2lzc1VnRE5KTzJNbk16RXdNSEpiM3pCaVVHeWtCa2VzeUtFUkVSRVJFUmNHaUtsSEppd0VRY2ljNUdabVptYkMzdHkvUmk2ZWtwRURLdlArK1RFM05XdExPWURBZ09UazV6K01VUllHenM3TkZXM2J4WmQyNmRWaTFhaFhPbkRrREJ3Y0h2UEhHR3dDeWlwdExseTdGeHg5L2pKMDdkK0t2di83Q3M4OCtpeDQ5ZXFCT25Uckl6TXpFaHg5K2lNT0hEME5SRlB6blAvL0IyTEZqOGU2Nzc4TFB6KytoOXhZWUdJanZ2Ly9ldkwxMTYxYjQrUGdnTURBd3g3RnQyclRCcTYrK2loOSsrQUhqeDQ4SGtEV3FyRnUzYm1XbW9Bb0FScU1KU1VsWnl3aEtpWXMyRG9mS0Y0bTcrU29wNlhhaDgxVkdSb2I1NVlwcTFhb0J5TW9WMlQ3NjZDUGN2bjBiSDMvOE1UcDE2Z1FQRDQ5Q0IvemJiNy9oNU1tVDVsR3IrVEZqeGd6TW1UTUhHelpzd0pBaFEzSTlKaW9xQ3Q5Kyt5MTI3OTROZjM5L05HM2FGR3ZYcnNVTEw3eUF2bjM3b21QSGpqbW1HejUxNmhTTVJtT2U2N1ErVEhFK3Q0OCsrcWhBc1RScjFnek5taFY5dHQzaXlsZkhqaDNiYnEyK2lJaUlTZ3RwbElsUTFPc1FTczQvWm13c2ExMXpBQkRJK3BXeHRQMzlKQkpVUmIxaDZ5aUlpSWlJcVB4aFVaV29wS255S0RUaStXdHgxNUdXbGw3aVJkWE9uVHZuYTVUc3NtWExzR3pac2p6Mysvdjc0NWRmZmpGdlg3dDJEWEZ4Y1lpTmpjWGh3NGZoNGVHQmdRTUg0dVdYWDdaWXY5WEh4d2NMRnk3RTJyVnJNWC8rZkt4WnN3WnIxcXpCN05tenNXelpNaHc4ZUJDVEowK0dsQktUSmszQ25qMTc4TlJUVDZGeTVjcHdkSFNFb2lnUVFxQk5temFRVW1MRGhnMVFWUlVta3dsR294RkdveEVPRGc2b1hMa3lJaUlpOFBiYmIwTUlnWXlNREp3N2R3Nm5UcDNDdm4zN3pLTlkyN1ZyaDhhTkcyUDkrdldZTTJjT0ZpeFlnS1pObXlJb0tBalZxMWRIdFdyVjRPL3ZENTFPVjRTblhud3lNak1RRTNzTkFDQ0VQR1RqY0tpOHVadXZZbUt2RlRwZjZYUTYvUGpqajRpTGk4UDY5ZXVoMSt0eCt2UnBCQVVGQVFBcVZhcUU4UEJ3UkVkSFkrclVxWVVPOWN5Wk01ZzhlVEtxVnEySzd0MjdGN3FmYkVhakVSczJiTUM2ZGVzUUdSa0paMmRuakJneEFyMTY5WUpXcThVcnI3eUNtVE5uSWl3c0RHRmhZYWhkdXpibXo1K1BDaFVxQUFDT0h6OE9uVTZISjU1NG9sRFh0L1p6aTR1TFE0OGVQUW9WeS8yV0wxK09HalZxRlBnODVpc2lJcUw4aTcxdzZxcGYzVVo5WVJKdXRvNGxCOVhrWHNGWk8wZ0krQnVOWW5scUpvbytwWVVWbVZSRHlwWHpKeS9iT2c0aUlpSWlLbjlZVkNVcVlTWW94N1VBNHE5ZlIxcDZHdHpkUy9adjVJa1RKMXBsZlR4WFYxZUw3YVNrSkdnMEduaDRlR0RBZ0FGNDdybm44aXhFQ2lIUW8wY1BkTzNhRlJzMmJNRDE2OWZScWxVcmJOMjZGU05HakVDWExsMEFaQlZ1Zi9ycEoveisrKzlJU0VoQVJrYkdBMGZaWm52cHBaZHc5dXhadUxtNTRmWFhYOGVNR1RQd3l5Ky93R2cwUXFQUklEQXdFSU1IRDhaenp6MEhUMDlQQUVEdjNyM3h6ei8vWU1lT0hUaDQ4Q0FXTEZnQUtTVzBXaTNDdzhNdDFrMnNWNjhlamg0OVd0aEhaMVdaR1ptSXZWdWtrRURwQ0lyS2pleDhGUnQ3clVqNXFtTEZpb2lKaWNHa1NaTWdoRUNOR2pYdzBrc3ZtZmRuWkdSZzhPREIrWjZ5TnpjM2I5NUVoUW9WOFBYWFgrZWFlK3pzN09EcDZabnZxWGkxV2kwT0hEaUFqSXdNakJzM0RsMjZkSUdUazVONWY0MGFOVEI3OW14Y3ZYb1Ztelp0Z3FPam83bWdDZ0RIamgxRHk1WXQ0ZURnVU9oN3N1WnpjM1YxeGJCaHd3b2R5NzJ5ODJaQk1WOFJFUkVWaUNuNjMyUFJ0ZzRpTjBGQlFWVVZCZjVDaUdaMmRuTGV4Wk1SeDIwZEV4RVJFUkZSU1NodGM3UVFsWHZWcTllcElSd2RvdHdxVkJDL3JQd2V0V3I2Mnpva3F6bHc0QUFDQXdQaDVsYTR3a3RLU2dwY1hCNjhMSjZVRWthak1YdE5QdlAzckNtb3NsS2FUcWVEMFdnMEZ6V2lvcUt3ZmZ0Mk5HN2NHRUZCUWZrcWNxU2twT0Q4K2ZOSVQwOUhxMWF0Q25VL0plRmFYQnllN2ZZS2J0KzVJL1Y2NFI4WFhUby9lS0d5S1R0ZmViaTdpVlhMbDVUNmZHVTBHZ3U5Zm1sSjlQZW9ZNzRpSWlJcUgrclZxMWROcDlPdEUwSTBNaGdNcjBkR1JxNjBkVXhFUkVSRVJDV0JueFFTbGJCTGw4NWNxbDYzMGMwN3ljbGUxNjdGbC9vaVJVRzBiTm15U09jL3JLQUtaSTF5dGJPemUraHhXcTNXSEUvTm1qVlJzMmJOQXNmU3FGR2pBcDFqQzdIWDRuRW5PUmtDU0dDQmdxd3RPMThsM2I1VEp2S1Z0UXVnTEtoYUYvTVZFUkVSRVJFUkVSR1ZaWXF0QXlCNkJLa0NNZ0lBVHA4NVkrdFlxSXc3SG5ueTdrK1NVMjVSY1dDK0lxdGh2aUlpSWlJaUlpSWlvcktNUlZVaUd4Q1Fod0hncndPSDhyVkdLRkZ1cEpUWSsrZGZBQUJWSU1MRzRWQTV4WHhGMXNCOFJVUkVSRVJFUkVSRVpSMkxxa1Eyb0JybFJraVplZUR3VWNSZnYySHJjS2lNaW8rL2p2MEhEZ0tBUVVMZGJ1dDRxSHhTalhJakFBUHpGUlVGOHhVUkVSRVJFUkVSRVpWMUxLb1MyVUFHMHM5TGdWT1ptWm5ZdG4ybnJjT2hNbXJIN2owd0dJMkFsR2NNZXROWlc4ZEQ1Vk1HMHM5THlIUE1WMVFVekZkRVJFVGxoMDZuRTBJSURRQm90ZG9NVzhkRFJQUW9rVlNzYlAyL0x4R1ZmaXlxRXRsQW5OR1lMQ1gyU1NubHVvMWJZREtaYkIwU2xURW1rd25iZHV6SyttVmE0SkNhWnBkZzY1aW9mSW96R3BNaHhXSG1LeW9zNWlzaUlxTHl4V1F5S1FEc0FFQktxYmR4T0VSRVJFUkVKWVpGVlNKYmlJN1dTNGtEZ05CZmpvbkIyWE5SdG82SXlwaW9DeGNSZmVreUJKQUppWVB4OFNkU2JSMFRsVlBSMFhwSTlXQjJ2cm9ZZmNuV0VWRVp3M3hGUkVSRVJFUkVSRVRsQVl1cVJEYWlDdlc0RURJaE5UVVZSeU9PMlRvY0ttTk9uRHlGeEtRa0FDSlpHdVVSVzhkRDVac0o2dUhzZkhYaTVDbGJoME5sRFBNVkVSRVJFUkVSRVJHVkJ5eXFFdGxJekwrUnA2WEUxWXlNVEJ3NGRBUnBhV20yRG9uS0NIMUd4dDMvWnRJQnFIR1h6cDg0YnV1WXFIeTdjdWJrY1hPK09zeDhSZm5IZkVWRVJFUkVSRlM4OUhvOWpFWmpudnZqNHVKUWxPVkNFeElTc0gvL2ZpUWxKUlc2ajd5b3FvcU1ETXZsdVZOU1VuRDc5dTBDOVpPUmtZR1VsQlJyaGtaRWxDc1dWWWxzeHloVmRUa0E3UHZySUU2Zk9XZnJlS2lNaUk2K2pGMTcvZ0FBU0luRkFMaklKUlUzUTNhKzJybDdEL01WNVJ2ekZSRVJVZmtrcFZUdWZzLzdVM3dpSWlwMlNVbEo2TmF0RzM3KytlZGM5NmVtcHVLRkYxN0FnZ1VMOHRWZmFtb3FMbHk0WU5GMjZOQWhEQjA2RkdmT25DbHl2UGM3ZXJSTHArWUFBQ0FBU1VSQlZQUW8yclZyaDkyN2Q1dmJsaTlmanZidDIrUHExYXY1N21mMzd0MW8xNjRkb3FPanpXMjNidDFDUWtKQ3ZyNVNVN2xLRFJIbGo5YldBUkE5eXRJU1RUODRleW1qYjkrNVUzM3B5cC9RSkNUWTFpRlJHYkJ3eVZJa0pkMkdsUEppNmkzaklsdkhRNCtHN0h5Vm1KakVmRVg1eG54RlJFUlUvcWlxcW1nMEdqc0FrRkp5Q2hNaUlodHlkM2RIOCtiTk1YLytmSFRwMGdYdTd1NFcrNDhmUHc2VHlZU25ubm9xWC8ydFc3Y09NMmZPeE96WnM5R3FWU3VyeGJseTVVck1uRGtUWVdGaENBME5OYmZ2MnJVTG1abVphTkNnZ2JsdDU4NmRDQXdNUkpVcVZmTGQvNTQ5ZTFDcFVpWDQrZm1aMjNyMjdKbnZFYSt2dmZZYVB2amdnM3hmajRnZVhTeXFFdG5RalJ1blVodzlnaWRvTlBodXc2YXQyb0g5K3lHd1RtMWJoMFdsMktsL3p5SjgvVVpJQ1JPZ2Zubmp4aW5PYlVJbElqdGZLUXFXYk5pMFZjTjhSUS9EZkVWRVJGUStTU2tGQUFFQVFvakN6eWRKUkVSV01YandZQnc5ZWhRWExseEE0OGFOTGZidDNyMGJsU3RYUnAwNmRSN2FqNVFTYTlhc2dhK3ZMMXEwYUdIVkdOZXNXUU1mSHgrMGJ0M2EzR1l5bWJCcjF5NDBhZElFRlN0V0JBQkVSa2Jpd29VTDZOKy9QeElTRWg3WXAwNm5nNnVySzR4R0kvYnYzNCtRa0JBY09YTEV2SC9xMUtrNGUvWXN2dm5tRzh5WU1TTkh3WG4rL1BtNGZmczJ4b3daZzBxVktsbnhib21vUEdOUmxjakcxRFRqSm8ycjlnQWcybnc1SXd6ei8vc2ZPRGc0MkRvc0tvWDBlajIrbVRNdmEwUElJMGFUc3NtMkVkR2o1bTYrT2dxSTVsL09DTU9DMlY5RHA5UFpPaXdxaFppdmlJaUlpSWlJaXNmcDA2ZngwMDgvV2JRMWFkSUU2OWF0dzdwMTZ3QmtqV0FkTW1RSXRtL2Zqc2NmZnh4TGx5N050YStYWG5vSnJxNnVBTEpHaUVaSFI2TnIxNjQ0ZnZ5NCtaaExseTRCQUtLaW9tQnZiNTlyUDk3ZTNxaGN1WEt1KzQ0ZVBZcm82R2dNR2pRSWl2Sy8xUWozNzkrUGhJUUV2UC8rKythMjdQdGF0R2dSRmkxNjhHUkg3ZHUzeC9UcDAzSGd3QUdrcEtSZzc5NjkyTHQzcjNuLy9Qbno0ZS92RHdDb1Y2OGV2TDI5TGM3MzhQQ0F5V1JDU0VqSUE2OURSSFF2RmxXSmJDd201cDlFdnpwQks0VkFzNGpqa2JvLy96cUFEdTN5TnlVSFBWb09IZmtiUi80K0JnQUdvY28xTVdkUFhMTjFUUFJveWNwWGpkWUlJWU1qamtmcURoLzlHMjJlc041MFFGUitNRjhSRVJFUkVSRVZqL1QwZEVSSFI4TmdNT0RNbVRPb1dyVnFqbEdZWGw1ZTJMaHhJNUtUazNIaHdnWE1uei9mdkM4akl3TkExa2pQOXUzYnc5WFZGU2FUQ2ZQbVpiMFl1Mm5USm16YWxQTzkySmt6WitZWlU1OCtmVEJpeEloYzk2MWV2Um9halFZdnZ2aWlSZnVhTld1ZzFXcng5Tk5QQXdDaW82UHgyMisvb1V1WEx1amV2VHRtenB3Sms4bUVNV1BHNU5xdmg0Y0hBR0RGaWhWbzNMZ3h2djMyV3dEQWhnMGI4T1dYWDhMZjN4Ly8vUE5QbmpFVEVSVUdpNnBFdGljbHNCWEFzSlNVbExvcmZscU5wbzFENE83bVp1dTRxQlJKVFUzRnF0WGh1SldZQ0FEWERFWlRPQURWeG1IUm8wY2FoUHpWRHVpWGtwSlNkK1hQYTlDZ2ZqM21LN0xBZkVWRVJQUkk0UFMvOUVpb1g3KytwNklvbkJlVVNwWEdqUnZqaHg5K1FGeGNITHAyN1lvaFE0YWdZOGVPRnNjWWpVYTg5TkpMQUlBZE8zYkEwZEhSdks5Mzc5Nm9WS2tTd3NMQ3pHM0xseS9IeFlzWDhjNDc3K1JZUy9YQWdRTll0R2dSUm8wYWhjREF3RnhqdW44VWFMYWtwQ1RzMnJVTGJkdTJoWmVYbDdrOU9qb2FmLzc1SjNRNm5YbjA2K3paczZIVmFqRnMyREJVckZnUkxpNHVEeDFKZXViTUdSdzZkQWhoWVdIUWFyTktIYi8rK2l0Q1EwUGg2ZWxwUHE1NzkrNDV6alVZREFnT0RyWm9hOWl3WWQwOEwwWlVnb3hHNCszVHAwL3pCZlZTaUVWVm9sTGcwcGtURjZ2VkRmcFNrV0x4L2dPSE5HdCszWUIzM3VwajY3Q29GQWxmdndrN2R1K0JsRENwcW1sS1ROUS81MjBkRXoyYXJ2NTcvR3gydnRyMSt4L01WNVFEOHhVUkVWSDVwdFZxRlFCMmR6ZFRiUmtMVVhFS0NRbXBDR0E2Z09DSEhVdGtDeWFUQ1FETXhjUjdMVjI2RkxHeHNRQ0ErUGg0K1BuNW1mY2xKQ1FnS0NqSXZIM3g0a1hNbno4ZmRldld4WUFCQTZEUmFDejZ1bll0cTY1VHMyYk5BaytWdTI3ZE9oaU5SdlRvMGNPaWZkR2lSWkR5ZisvbC9QSEhIOWk5ZXpmZWVPTU44L3FxK2JGaXhRcjQrZm5CeDhjSEF3Y094RHZ2dklOVHAwN2hQLy81ajhWeHc0Y1BoOXQ5TDRULytPT1BPZnJUYXJVNUc0bHN3TTdPTHFaUm8wWWpqeDA3ZHM3V3NaQWxGbFdKU29uTC81NVk2VmMzK0VtRHdkRHZtem56MGFCK0lGbzBiV0xyc0tnVWlEaDJBdFBEL2d1RHdRQXA1Y3JMWnlPL3QzVk05R2pMemxlWm1jeFhaSW41aW9pSXFQeVRVZ29oaEFJQXB1eFA5SW5LSVZWVmEyZzBtazRBZkcwZEMxRnVWRFZyUXFBclY2NGdJaUxDM083ZzRJQWxTNWFnYTlldTJMMTdOeTVmdm13dXFxYW1wdUxXclZ2bTlVOVRVbEl3YXRRb1NDbnh5U2VmNUNpb0ZvV1VFbXZYcmtXVktsWFFzbVZMYy92NTgrZXhiZHMyMk5uWm1kc1dMbHdJYjI5dnZQZmVleFo5M0x4NUUrdlhyOC9SdDA2blErZk9uUkVhR29wR2pSb2hKU1VGaHc4ZnhvZ1JJeEFlSGc1Zlg4dC90azgrK1dTTzBiUy8vLzQ3RWhJU0xOcUVFSTBLZmNORVZpU2xEQkJDQkFGZ1ViV1VZVkdWcVBRd3BPb040NTBkN1Z2ZVNVNnVPMkwwZVBIRG9tOFI0RjhEUWdoYngwWTJJS1ZFOUtYTEdEMytFOXk1a3l3Qm5KV3EraWtBZzYxam8wZWVJVlZ2R08vaWFCOTZKem01NW9qUjQ4V0tKUXZnVjcwYTg5VWppdm1LaUlpbzlKUDNEZ215bmhQVzdFendsMGtxUmFTVUNyS211azZUVXM2VFVrYmFPaVlpQUV1eWY5RHI5UUNBV2JObVdSelFxVk1uZlBqaGgyalpzaVdpb3FJUUdSbUp0bTNiQWdEKytlY2ZTQ25Sb0VFREFGblRCS2VucDJQOCtQR29VNmVPVlFNOWVQQWdZbUppTUhUb1VJdlBDcjc4OGtzNE9UbWhZOGVPMkxKbEN3RGdxNisrUW14c0xKeWNuQ3o2dUh6NU1xWk5tNWFqYjNkM2QzVHUzQmtkTzNhRXFxbzRmdnk0ZVYvVnFsVUxIYk9xcXYwS2ZUS1JkVlJSRk9WOUFJNjR1OXdDbFM0c3FoS1ZJamVpVDExM3JCVThScVBCZC9IWGIxU2NOSFVhdnB3OEVWV3JWTFoxYUdRRE4yNGs0TFBQdjhMRlM1Y0JpRHRTbGVNdW40dU10blZjUk1EZGZGVW5hSnhHaUxueDEyOVVuUExsREV5YU1JNzU2aEhGZkVWRVJFUkU1WldVTWxNSXNUMGlJbUtycldNaHdqMUYxWXlNREFEQXRHblR6Q05SWDMvOWRUZzRPS0JyMTY0QWdNREFRQnc2ZEFpREJ3OEdrTFUrcWxhclJmMzY5UUZrRlNlWExWc0dGeGVYWEVlRUFrQmtaS1Q1M1BqNCtGeVBlZjc1NTNPOFpMMW16UnBvdFZwMDY5Yk4zQllWRllXSWlBaU1HalhLWXBTb3I2OXZqdEdsQUJBU0VvS0ZDeGMrNkhsQVVaUUg3Z2VBUFh2MjVKais5OXExYXhhalpRSGcyTEZqbkcySmJDbzRPTGkrbExJL3NvcXFWQXF4cUVwVXVxaVh6eDNmNWxjbjZITkkrZldCUTBmdy91anhXRGczREI3dTdyYU9qVXJRclZ1SkdEcnFRL3dkY1F4U1NwaUVhZEtWcy9ZYkFhaTJqbzNvTHZYeUdlTjZ2enJhcXBEeTZ6LzIvY1Y4OVloaXZpSWlJaUlpSWlwNXljbkpBSUI2OWVxaGN1WEtVRlVWUnFNUmpvNy9xOFUwYWRJRTRlSGh1SHIxS254OWZiRmx5eFk4OGNRVDBPbDA1bU84dkx3UUh4K1BTWk1tUGZCNlM1Y3V6WE5mbHk1ZExOWjJUVWhJd0o0OWUvRDAwMC9EdzhQRDNGNnpaazMwN05rVHZYcjF3dXpac3d0OHo0VjEvMmhlQURBWURBZ081cExKUkZRd0xLb1NsVDZHNkRNbnd2enFCcm1aVkl6NSs5aHhwejc5Qm1EMjExK2hlclhIOC9YMkZaVmRxcXJpMHBVWWpCanpFVTVFbm9TVVNGZFYrZVdWczVGZjJ6bzJvcHhPWlVhZlFaaGYzU0Ezb3hGai96NTIzTEZQdndHWU8yc0dIcTlhaGZtcW5HTytJaUlpSWlJaXNwM0V4RVFBUUlVS0ZRQUFhV2xwQUdBeGhXNW9hQ2pzN2UzeDQ0OC9vazZkT3JoKy9UckdqaDJibzYrS0ZTdGkyN1p0dVY1bjE2NWRtRFp0R3I3ODhrdUVoSVRrZXN5OUJWVUFXTGR1SFV3bUUzcjA2SkhqMkhIanh1WGo3cXhyN2RxMU9kWlVIVGR1WEk0MVZZbUlIb1pGVmFKU0t0cVk5cVdmNG53SGl2ajA5Sm16RlFZTUhZbDMzdXFERjUvdkNwM08zdGJoVVRISXpNekV1bzJiOGQwUEszRDJmQlFra0FZaFB6T20zUGl2cldNamVwQm9ZOXFYZmxxblRFamx3OU5uemxZWU5Qd0R2UFY2TCthcmNvejVpb2lJcU94TFNFaEFjbkl5YXRTb1VTTFhpNHVMZzR1TEMxeGNYRXJrZWtSRTVWMU1UQXpjM056TWVUVTlQUjJBWlZIVnhjVUZIVHAwd09yVnErSG01b2FhTldzaU5EUTBSMStLb3NETHl5dlg2MlQzWDZGQ2hUeVB1WmVxcWxpN2RpMnFWNitPcGsyYkZ2aSs3blhqeGcyc1hyMDYxMzJkTzNlR3E2dHJydnRpWTJOUnVUS1hKeUlpNjJOUmxhaTBPbjgrdzFpMTZqeXRrK2N0S09MYjgxRVhIS2RNbTRFdDIzYmcvd2E4amFhTlF6Z0tySnhRVlJVUnh5TXhkOEZpSERweUZLbXBhVmtGQ29uQm1YZHUvQndiRzV0bTZ4aUpIdWo4K1l6TXlwVm4yYnQ0eFVJUjMvNTc1cXc1WHcwZk1nREJEUnN3WDVVVHpGZEVSRVRseDVJbFM3Qng0MGJzMmJPbjBIMFlqVVo4OTkxM0NBME5SV0JnNEFPUDdkMjdOM3IzN28zKy9mc1grbnBFUlBRL1o4NmNNYStOQ3Z4dk91QjdpNm9BMEs5ZlAyemV2QmtKQ1FtWU5Ha1NOQnBOc2NhMWI5OCt4TVhGWWVUSWtVWHVLelkyRm5QbnpzMTFYNHNXTFhJdHFpNVpzZ1JidDI3RnFsV3J6RzFTU2lRbEpTRWhJUUdKaVltNGVmTW1ybHk1Z29TRUJFeWNPQkdKaVlrSUN3c3JjcnhFVlA2eHFFcFVpc1hFeEtRRE1UOVVyZE1nUWd2TmtwU1V0T0EvOXUzWDdEOTRDTzJlREVXL04zcWpka0JOT0RrNXdzSEJ3ZGJoVWdIbzlSbElTMC9EMmZOUldMWmlGYmJ2MmcyajBRUXBwUXFCRTBhVFlVRE0yVk9IYkIwblVYNWxGZE5pNytZcjdiS1VsTFQ2Zit6YnIvbnI0Q0U4bFoydmF0V0VreVB6VlZuRGZFVkVSRlIrQ1NHS2RINTZlanJXclZ1SDlldlg0OGNmZjRTcnF5c3lNek5oTkJwelBkNWdNSmlucDd5WHZiMTlqcWtqaVlnb2J4a1pHVGh5NUFqNjlPbGpia3RLU2dJQU9EczdtOXRVVmJWWUMvWFhYMzlGczJiTmlyV3d1bWJOR3RqYjIrTzU1NTRyY2wvQndjRll1SERoUTQvTEhxWDd4UmRmNE15Wk0ramV2VHY2OSsrUGE5ZXVBUUNlZi81NXFLb0tJS3ZvN09ucGlkdTNiME9yMWNMZTNoN0J3Y0Y4R1p5SThvVy9zUktWQVRGblRwN3dyUkhZWGFlekh5Z2hYakFhamZXMjc5eU5uYnYzb0ZaTmZ3VFdyWU1hZnRYaDYxTUpMczR1Y0hKeWhMMDlwOXdzVFRMdmZuaVFrcEtLK092WGNlRmlORTZmT1l0ejV5L0FaRElCQUtTVVo2UVE2NlhSTkMvbTNLa0xOZzZacUZCaXpwdzg4WGhBZys0YXJhYS9oSGpCY0UrK3FsTXJBSFZxMTBJTnYrcW83T01OWjJkbjVxdFNpUG1LaUlqbzBhQ3E2Z09McXUrODh3N3UzTG1UNjc0MzNuZ0RMN3p3QWx4ZFhURnAwaVFNR0RBQWt5ZFB4bGRmZllYcDA2ZGo3ZHExdVo2M2FORWlMRnEwS0VmN2tDRkQwSzlmdjhMZENCSFJJMmo5K3ZWSVRVMUZseTVkekcweE1URUFBQThQRHdCWnN3bE1talFKbXpkdlJ2ZnUzU0dsUkhoNE9JUVErUFRUVDZIVDZXQXltWEo5MmVWZWVyMGVRRmJoTW5zMGJHN3M3T3h3Ky9adDdOdTNEODg4OHd6YzNOeUtlcHY1dG5YclZnQlo2OG91WDc0Y0ZTdFd4TXFWSytIbDVZWEhIbnZNL04zVDA5UDhvbmYybXFvZmZmUlJpY1ZKUkdVZmk2cEVaY1MxaTZjdklTRGcwOGZoc0Vob05SMFU0RDFWVlJ1Zk9YY2VaODZkaHhDQW80TWp0SFphYURWYXZsMVZ5cWhTaGRGb2hORmdSTHBlRHltbGVaK1VPQzRGRnBveXhXOHhTc3BsbkQrZlljTlFpWXJzeXZtVFVkbjVTdEZxbmhWQVAxVlZHNTgrY3hhbno1ek55bGVPanRCcW1hOUtJK1lySWlLaThtdm56cDM0NUpOUEFHUjkyRzQwR3RHNmRXdUxZK2JNbVlOR2pScmg0c1dMOFBYMVJZc1dMY3o3akVZalZxeFlZUjROQlFCTm16YkZxNisraWxXclZtSHIxcTE0L2ZYWDBhRkRoeHpYSGoxNk5OcTNiNDlubjMwMng3NXExYXBaNnhhSmlNcTloSVFFekpzM0Q2MWF0VUp5Y2pKbXpwd0puVTZIalJzM1FxdlZJakF3RUZldlhzVkhIMzJFeU1oSXZQenl5eGc3ZHF6NS9QRHdjSnc2ZFFvZmZQQUJIbnZzTWJ6eHhodjV1dTZvVWFNZXVQK1ZWMTZCbTVzYlZGVkZ6NTQ5aTNTUEJkVzZkV3VZVENaTW1EREJYRFFkT0hCZ2ljWkFSSThHRmxXSnlwTHo1ek91QUZISStwcGYxYjl1UTQyZDdoV2hpTGFRc2tacWVwcTlTQk1hS2FRQ0NGWXBTaFdwQ2lsVUNHa0NrS21xdUtRSStRZFUwOC9SWi84NWJ1dm9pS3p1Zi9scU5vRFpWZjNyTnRUYTI3OEdvYlNHbERYUzB0THNJWm12U2lmbUt5SWlvdktxZXZYcWVQUE5Od0VBZS9mdVJYUjB0UG5EOUN0WHJtRExsaTBXbzFlRGdvSXdiTmd3ODNaYVdocFdyRmlSbzk4aFE0YkEyZGtaVHozMUZCd2NIT0RuNTVmakdLMVdpNnBWcTFvVWFZbUlxT0RXcjErUHRMUTBqQmd4QW9xaTRPZWZmNGFVRWg0ZUhoZzdkaXl1WHIyS0lVT0dRSy9YWS9qdzRlYThEd0FmZmZRUi9QMzlNWHYyYkl3ZVBSckxseS9INU1tVHJSSlgxYXBWTVdiTUdOU3NXUlBCd2NGVzZUTy9PbmZ1ak02ZE81Zm9OWW5vMGNTaUtsRVpGblBoMzBnQWtRRGc1VlhIMWNGTjY2MVZwSXZVS0U0Q1dzNm5XWXBJbURJTkpqVk5xQ0lsVFdSY3YzWCtmTzd6YUJHVlV6bnlWUVhGUjZzUnpzeFhwUS96RlJFUlVma1ZFQkNBZ0lBQUFNQ05HemR3NjlZdERCZ3dBRUJXa1hYTGxpMkZXbWZQeWNrSmd3Y1BObTlQbkRnUkJ3OGV0RGptenAwN1dMcDBLVmF2WG0zUi9zVVhYeUFrSktUQTF5UWllbFQxNmRNSGZuNSs4UGYzQjRBYytkWmdNS0JqeDQ3bzFxMGJnb0tDTFBZSklkQzdkMiswYWRNR0owK2V0UGovaGFLNmZ2MDZYbnJwSlRSdTNEaGZ4dzhiTnN6aXhaMzd6WnMzenlweDVlV0xMNzRvMXY2SnFIeGlVWldvbkVoSU9KT01CT1M5c0FFUlVTbkJmRVZFUkVSa2U1bVptYkN6c3pOdkc0MUdBTWgzVVZXdjEyUExsaTNtN2VyVnE1cy9TRTlLU29LM3R6ZDY5KzV0M2o5bHloUTg4Y1FUYU5ldUhRRGc5dTNibURadEdqSXpNNHQ4TDBSRWp4SjdlM3UwYjk4K3ovMTJkbmFZTUdIQ0EvdW9WcTJhMWFkZXIxU3BrdmxGSFNLaThvcEZWU0lpSWlJaUlpS2lSMHhLU2dxY25aM04yeWFUQ1VEV05MMzVQWC9LbENubTdlZWVlODVpZEZLbFNwVXNwbUtjTm0wYUFnSUN6RzN4OGZHWU5tMWFrZTZCaUlpSWlLZ2tzYWhLUkVSRVJFUkVSUFNJdVhQbkR0emMzTXpicXFvQ3lIOVIxY3ZMQy92Mzd3Y0F2UDc2NnpuMkp5WW00c2lSSStadG85R0lxMWV2bXRzU0V4TUxIVHNSMGFOSzNMdndOUkVSbFRnV1ZZbUlpSWlJaUlpSUhqRkpTVW1vVmF1V2VidWdJMVVCUUtmVEFjaGFvKzkrRVJFUkdEUm9FQUJBU2drcEpUWnMySUNOR3pjV0pXd2lJaUlpSXB0UmJCMEFFUkVSRVJFUkVSR1ZIRlZWRVI4ZkR3OFBEM05iOXRxbTk2NnpXbGlob2FHWU1HRUNEaDgrakMxYnRxQkdqUm9BZ0Q1OStpQThQQnlIRHgvR3JsMjc4TW9ycjhEYjI3dkkxeU1pSWlJaUtna3NxaElSRVJFUkVSRVJQVUtpb3FLUWxwYUd3TUJBYzF0R1JnYUFnbzFVelV2UG5qM3g0b3N2NHR5NWMzajc3YmNSRUJBQVYxZFhyRm16QmoxNjlFQllXQmlFRUJnN2RpejgvUHlLZkQwaUlpSWlvcExBb2lvUkVSRVJFUkVSMFNNa01qSVNBQkFVRkdSdTArdjFBQUI3ZS9zaTl5K2x4Sm8xYTlDM2IxODBhZElFVTZkT2hhSW82TldyRi9yMzc0OWZmdmtGM2JwMXcrclZxODNURGhNUkVSRVJsWFlzcWhJUkVSRVJFUkVSUFVLMmI5OE9kM2QzVks5ZTNkeG1yYUxxNmRPbjhkNTc3K0h6eno5SHIxNjk4TWtubjBCUnNqNSswdWwwZVBmZGQ3RjI3Vm9FQlFYaGl5KytRSzlldlhENTh1VWlYWk9JaUlpSXFDUVVmVTRYSWlJaUlpSWlJaUlxRXk1ZXZJaERodzdoelRmZnRHaFBUMDhIa0ZYNHpCWWZINCtEQncrYXQ3UFhYYjFYWW1JaWtwS1NZRFFhb2RmcjhlR0hIOEpnTUdEZXZIbG8xcXhacmpGNGUzdmo2NisveHJadDIvRExMNy9BeDhmSEdyZEdSRVJFUkZTc1dGUWxJaUlpSWlJaUlucEVMRjY4R0VJSXZQenl5eGJ0VVZGUjhQTHlnaERDM0xabnp4N3MyYk1uejc3aTR1SXdhTkFncEthbVl2djI3WGp5eVNmeDMvLytGeDRlSG5CMWRYMW9MSjA3ZDBibnpwMExmek5FUkVSRVJDV0lSVlVpSWlJaUlpSWlva2ZBdG0zYnNHWExGblRwMGdXVksxZkc5T25Ub1NnS2J0KytqWDM3OXFGang0NFd4ei8vL1BNWU5HaVFlVnV2MTZONzkrNEFnSnMzYjZKZnYzN1E2L1ZZdW5RcFZxMWFoWEhqeGlFb0tBZ3RXN2FFbDVjWDdPenNvQ2dLaEJBWU9uUW9GRVhCK3ZYcm9hb3FWRldGMFdpRXdXQkFqUm8xOE1RVFQ1VG9zeUFpSWlJaUtpZ1dWWW1JaUlpSWlJaUlIZ0hoNGVHb1ZLa1NSbzhlRFFDNGNPRUNEaDA2QkVWUlVMZHVYUXdaTXNUaWVFZEhSM2g3ZTV1MzA5TFN6RCs3dTd2RHhjVUZYM3p4QlFJQ0F2RFJSeCtoVmF0V1dMZHVIWDc5OVZja0ppYkNZRERrSzY0cFU2Wlk0ZTZJaUlpSWlJcVhlUGdoUkVSRVJFUkVSRVJVbGtrcDVhMWJ0M0RseWhVRUJ3ZmZ2ODlpMnQvOFNrbEpnWXVMeXdPUE1abE1VRlVWSnBNSlVrcUxyK3hyT2pvNlpvOW81ZWRVVkdvRUJRVzExR3ExNFZKS0J5SEVhMy8vL2ZkV1c4ZEVSRVRsVzNCd2NIMUZVVFlDcUFpZ2IwUkV4R3BieDBTV09GS1ZpSWlJaUlpSWlPZ1I0T25wQ1U5UHp4enRoYTFsUHF5Z0NnQWFqUVlhalFaMmRuYUZ1Z1lSRVJFUlVXbWgyRG9BSWlJaUlpSWlJaUlpSWlJaUlxTFNqQ05WaVlpSWlJaUlpSWpLT1d0TnJSc1VGUFNNVnF2ZElxV01qNGlJOExGR24wUkVSRVJFWlFGSHFoSVJFUkg5UDN2M0hSNUZ0ZjRCL0h0bWR0TXJJYVRRUWk5U0VwUXFvbGdBQVJXUUpsM3hnb29JQ0NKSysxRlVVRkJCRUJTNElFM2dnb1Y3QVJFRjcwVlFhUUdpb1VVQndSU1MwRkkzMmQzeit5UHNtczN1cGllVGhPL25lWGpZblhObTV0MWw5MDJZZDg0NVJFUkVSRlFvcXFwYWlyTlMwMENJaUlpSWlNb1ppNnBFUkVSRVJFUkVSRVJFUkVSRVJQbGdVWldJaUlpSWlJaUlpSWlJaUlpSUtCOHNxaElSRVJFUkVSRVJVYUZJS1V0bGJWWWlJaUlpb3NxR1JWVWlJaUlpSWlJaUlpb1VJWVQ3blljWm1nWkNSRVJFUkZUT1dGUWxJaUlpSWlJaUlxSkNNWnZONnAySEprMERJU0lpSWlJcVp5eXFFaEVSRVJFUkVSRVJFUkVSRVJIbGcwVlZJaUlpSWlJaUlpSWlJaUlpSXFKODZMUU9nSWlJaUlpSWlJaUlpSWlJaU9odTBhSkZpOW82bmU3SlBKdERBSGdqcDNiWEl6dzhQQ2gzb3hEaTE4akl5UCtXVjR4a2owVlZJaUlpSWlJaUlpSXFMS0YxQUVSRVJFU1ZuUkFpVlZHVVJibTNTU2tGQUpjN1Q0Y3JpakkwZDd2SlpCcFZYdkdSWTV6K2w0aUlpSWlJaUlpSUNrVUk0WDduN3d5dFl5RWlJaUtxcktLaW9tNUlLWGNCY0pOU3Vra3AzUUM0SXVjR05nSEFKZGQyTndEWlVzci9hQmd5Z1VWVklpSWlJaUlpSWlJcUpDR0VDZ0JTU3BQV3NSQVJFUkZWWmxMS2pZWHRhemFidDU4K2ZUcXRMT09oZ3JHb1NrUkVSRVJFUkVSRVJFUkVSRlNPaEJCSHBKUVhoUkNXNXpaLzh2VDlseFl4a2kwV1ZZbUlpSWlJaUlpSWlJaUlpSWpLa2FJb040VVF4eXpQcFpSMmZlNFVWNk1BUkpkZlpPUU1pNnBFUkVSRVJFUkVSRVJFUkVSRTVlajQ4ZU1aVXNyakFMTHp0dVV1c0VvcGYwbElTRWdzejlqSU1aM1dBUkFSRVJFUkVSSGREWUtDV25ucXZPR3ZDdW1pQ0xnWUZlZ1Z3RVdhVlVVeG0wMW1pU3k5WG1TbFNabnRiakJtWE5KbDNVQk1qRUhydUlseWsxSzYzUmt4a2FWMUxFU2xLVytPVGpmS0J0NnExRWtwMVN5amJGQzdRYXNXek5GRVJGVEtwTmxzUHFLcWFqS0FZQ2Q5TXFTVWgySmpZOVBMTXpCeWpFVlZJaUlpSWlJaW9sSVdITlkwVE8vaTBrRlJSVU5JV1VkSXBTWUUvQ0RnSWFUVVNTRlV2WlNxRkVLRkloV2hLaVlocGNrc2hNa0RNRWwzZlhZOTZOTmxzMWJKVW9vckFDNUJtTTdlTnFUL2VPT1BQMjVwL2Zyb3JxWUhBQ0VFaTZwVWFSVW1SNXROWnBlMGJMTVVVaGl5VEhLS3FoZmptYU9KaUtpMHBhV2xIZmYyOW80WFFnUkxLUjFOQVp5bUtFcVVGckdSUFJaVmlZaUlpSWlJaUlwUFZHL1N4TXNkSHQ0cVRLMEE5QURRV3loS2c3OTdDRURrckllazErdWdDQVZDRWRhL0JRU2tsREJMTTZSWndpd2x6R1lUakVZVElDVnlCZ1VDZ0E1K3JqNUczNmJoUjZXVWU0UlpmcHR1TkYvU0dhNm44TTUxSWlLSFNpVkh1MGhablRtYWlJaktRa3hNek8ySWlJZzlBTUx6dGdraElLVzhtcGlZeVBWVUt3Z1dWWW1JaUlpSWlJaUtSdFJ1MGlSRWhXc3JLY1E5Q3RCUndueS9FSXAxeWk1WEZ4ZlVxaG1Ld01EcThQUDFoWitmTDZyNSt5RWdJQUJ1cnE1d2RYV0JpNHNMWEYxZG9hb3Fzck96WVRCa0lTc3JDd2FEQVducDZiaCsvUWF1MzdpQm03ZHU0ZWJOVzRoUHVJYTQrQVNkeVdUcUtJVG9LSVdZN2FHSzMrRWFlRGpNSi9CbmsxbEdweHBUVDNPVUZCSGQ1WmlqaVlpb3N0a0k0QTBuYlZ1dVhyMmFVWjdCa0hPaTRDNUVSRVJFUkVSRUJBQmhZYzJEcFl0dVBCU2xteEN5TnFTb0xnUlVBS2dmVmhkdElscWpkYXVXYU5Lb0lmeDhmZURsNVFWM2R6ZDR1THREcjljWCtYeVpCZ015TWpLUWtaR0oyeWtwdUg3OUJrNy8raHRPUi8yRzR5ZFBJVEV4eWRJMUc1RHhVc3FMWm9oTnFjYTBMZGRqWW02WDRrdW51MHpEaGcxOVBEdzhtcW1xNnBaN3U1UnlnS0lvNHdCRVNTbkg1OWt0UzBwNTV1VEpremZMTDFLaXZ6RkhFeEZSWlJVUkVYRlNDTkhhTXYzdm5UWHNUV2xwYVhYT25Uc1hxMmx3Wk1XaUtoRVJFUkVSRVZIK2RDSE5tdFhVbS9VVEZTSEdDQ0U4aEJCd2NYR0JuNjhQZW5SN0ZJUDc5MFdUeG8zS05TaWowWWlmZmptS3JUdSt4UDhPSG9ZaEt3dloyZG1RT1ZkaS9wUkN2SmN1c2o1TGpJNU9CMkF1MStDbzBtdlZxbFU5VlZYWENpR2E1R255QU9BanBjd1NRbHpQMDNiSmJEWS9jL0xreVV2bEZDWVJ3QnhOUkVSVlFKczJiY1lDV0ptN3FDcWwvQzR5TXZJeGJTT2ozRmhVSlNJaUlpSWlJbktvdVV1ZHh2cDJRc0ZnSWNSZ0FRUUlJZEM4YVJOMDZ0QU9YUi9zak5hdFdzTGR6YTNnUTVXeG03ZHU0ZWRmanVLSGc0ZHg2S2VmOFZkc1hFNkRsSmZOVXF6S2hubDc3TG5UNXdGSVRRT2xTaVVpSW1LN0VPTHBQQ01tYk9TNThMY3ZNakt5VzdrR1NYY3g1bWdpSXFvNldyWnNXVituMHgwVlFsU1RVa0lJQWJQWlBQVGt5Wk9idFk2Ti9zYWlLaEVSRVJFUkVWRWV3UTBiQnJycVBHY0xpQ2NBV1Z0VlZkSGludVlZL3N4QTNOY21IQ0hCUVhCeGNkRTZURHZwNlJtNDlPZWYrT0YvUCtMemJUdHlMdHhMYVFCd3dTVEZCc05OOC9LRWhOTnBXc2RKbFVONGVQZ1FSVkUyRmJhb2FqS1puanQxNnRUYWNnMlM3a3JNMFVSRVZOVzBiTm5TWDZmVC9Wc0ljVDhBU0NuL2tsSjJQWG55NUFXdFk2Ty9zYWhLUkVSRVJFUkU5RGQ5N1VhdCtxdXErS2NRd2sxVkZQajR5UDNGSlFBQUlBQkpSRUZVK0dEcXE2K2czMU85aTdYbW5sYlMwdEx3MGNlZll0TzI3VWhQejRDVUV0SXNUMlZMNDhpL3p2OFdCVTQzU1FWbzFhcVZwMDZuaTVOU2VsdTI1UzZzV2dxcWQ2UWFESWFRNk9qbzFISU1rZTQrek5GRVJGUlZxZUhoNGU4SUlTWUxJUlFwNVhZcDVUKzRWbjNGb21vZEFCRVJFUkVSRVZGRlVLdHB5NWJWcW9mOG42S0s2VUlJajhhTkd1TFo0VU93WU41c3RMMnZEVlMxY3YwWDJzWEZCWjN2NzRpSEgrb0NGNzBlVi8vNkN4bVptY0dLb3ZUeHJSN2s0dVVYZERIbGVzSnRyZU9raWlzaElTRTdPRGk0dGhDaXJXV2JvOUdxZDdadGlJcUsybDZPNGRGZGhqbWFpSWlxT0JrU0VsSUh3S01BOUFDK1BIbnk1RjV3YXZnS3BYTDl0a0ZFUkVSRVJFUlU2cHE3MUdrYS9Kd095b2VBZUVTdjE3dU9HdllNcGsyWmlJY2ZlZ0JlWHA1YUIxZ2kxUU1DMEs3dHZlamNxUU9Ta3BKeDZmS2ZYZ0tpaTZLSWRyNEJRWmR2SlNkYzFqcEdxcmdDQXdOL1Z4UmxETzVjUTNKU1ZNMEc4R0o4Zkh4c09ZZEhkd1htYUsxakpDS2k4bEd0V3JVNHZWN2ZUd2poSW9SNFB5NHVqbFAvVmpBc3FoSVJFUkVSRWRGZEt5d3N6TTB2Mk8xTkJjcmJFS0pHamNBQTVaMjVzL0g4cU9IdzkvZURvaWhhaDFncTlEb2RnbXJVd0NNUFA0ajB0SFNjUFhkQk5abE1kUUgwOFE2b2NlWjI4clVZOEM1NGN1RGF0V3RKb2FHaHZZVVF0UUQ3b3VxZDU2Y1VSWGszTGk0dVc0TVFxUXBqam1hT0ppSzZteVFtSnFZR0J3ZTNCZUF2cFp3ZEh4K2ZxWFZNWkl0cnFoSVJFUkVSRWRGZHFWYjk4RWFxaS9rMUFlVTVuYXFvblRxMngvZ1h4K0RlaU5ZT1IrTlZGU2FUQ1h1Ky9RNmZyRjZIMzg2Y2haUXlTMG81MTJCSy96UStKaVpSNi9pbzRtbmR1dlVjVlZWbldkWlFGVUlnOTJPejJiem81TW1UYndBd2FoZ21WVEhNMGN6UlJIVDNxRkd2UlpDSFRoZWlkUndWZ2J1citWNjlJaDY5blNFV2FoMkwxcVNTY2V2eXVYTVh0WTRqdDZyN0d3Z1JFUkVSRVJHUkUyRU5XM1dBWG53b0lOcTd1cnJpMmVGRE1IYjBLUGo2K21nZFdybjUvWStMV0xCNENmYi84RCtZeldZREJMN0t6RmJHeDhkRThxSTkyV2pUcGswUEFGc0ErRW9wclVYVk80V3RGTFBaUE9Ma3laTmZhUnNsVlNYTTBjelJSSFQzcU5XNGRVMjlncFVTYUtoMUxCV0ZJcUF6Uzk2c0J1QzZGSEw4NVRPblQyZ2RpQVdMcWtSRVJFUkVSSFJYcWRPb1VYMUY1L2x2QVRSM2QzUEQrQmZIWVBTb1lkRHI5VnFIVnU3UzB0SXg1WTJaK083QWYyRXltU0NsM0tzenBqMFZFeE5qMERvMnFqaGF0bXhaWDZmVGZTNkVhSmUzcUNxbGpNck96aDcwNjYrL250RTZUcW9hbUtQL3hoeE5SSGVEc0tiaEQwSGdTd0g0NmZYNktqMGJBUldTbE1nMkdpR2x6RGFiekM5ZFBuOTZ0ZFloV2ZEVFNVUkVSRVJFUkhlTnNFYmg0VkR4bVJCb0ZSSWNoTmNtdllJK1QvVFVPaXhOR1kxR0xQdGtOVDdiOERsdTNiNE5LZVdXYktOODdhK1kwMWUxam8wcURGMTRlUGluUW9pUkFISXZZaWtCZkJFWkdma01BSzZuU2lYR0hHMlBPWnFJcWpwTFVkWFgyOXZ2aFg4OGkvcGhZVnFIUkJxN2Z1TUdscTFjaGRpNCtBcFhWTlZwSFFBUkVSRVJFUkZSZVFocjJLb0RkRmdoZ0ZhMWE5WEUzSm5UOE9BRG5iVU9TM002blE0dmpINFdIdTd1V1ByeEowaFB6M2hhcjRjYTJyanhTN0huenlkcEhSOVZDRVlBZTRRUS9hU1V2cGFOUWdpRHlXVDZHaXlvVWlsZ2puYU1PWnFJN2hZdUxpNW9mOSs5aUFodnBYVW9wTEhZdUhpczIvaTUxbUU0cEJUY2hZaUlpSWlJaUtoeXExR3ZSWkJReFhzQ0NQZno5Y1cweVJONXNUNFhOemRYUEQ5cU9FYVBIQVpWVmZVQ1lvQ0w0ajRmZ0twMWJGUXhaR1ptN3BkU3B1VFpuSldXbHZhTkpnRlJsY0ljblQvbWFDSWlvb3FCUlZVaUlpSWlJaUtxMHFvMWJPamo0YW9zaENJNisvbjZZdTdNTjlDajJ5TmFoMVhoS0lxQ0NlTmV3RCtlSFFGM056Y0FHRk8zYWF0SmFOalFWZXZZU0h0bno1NU5CdkNGRUFLV1AxTEtiVEV4TVlsYXgwYVZHM04wNFRCSEV4RVJhWTlGVlNJaUlpSWlJcXJDbXJ2NHFKN3ZBbUs0dTdzYlhwczBIcjBlN3dZaGhOYUJWVWlLb3VDbE1jK2g3NU85b1ZOVm9VQ1pXVmYxR0FaZVB5QUFack41WGU3bjJkblpuMmdWQzFVVnpORkZ3UnhOUkVTa0xmN0FKU0lpSWlJaW9xcEtDV3VpZnc0S2hxbXFxZ3pvK3hUNlB0bUxGK3NMNE9YbGhRa3ZqMFhUcGswQUFSOGh4TXphVFZxMDBUb3UwdDZwVTZkT1NTbVRBRUJLR2ZmcnI3K2UwRG9tcXRTWW80dUJPWnFJaUVnN0xLb1NFUkVSRVJGUmxWU3JjZXY3b0lncEFzS3pRN3Y3OE9LWTUrQ1dNMlVpRlNDd2VuVzhNM2NtNnRTdUJTRkVYVlhvRnRlcDA5SmY2N2hJYzJZQUsrNDgzbnpuT1ZHeE1FY1hIM00wRVJHUk5saFVKU0lpSWlJaW9xcElWUlg1bGdBYU5LZ2Zodm16cHlPb1JnMnRZNnBVV2pSdmhubXoza1ExZjM4QThnSEZYYnlsZFV5a1BaUEp0QnRBdkpSeXI5YXhVS1hHSEYxQ3pORkVSRVRsajBWVklpSWlJaUlpcW1wRW5TYXRweWhDZWRURHd4M3Z2alVIWVhYcmFCMVRwZFN4UXp1TUhqVWNPcDFPUUNpajZqWnUrYmpXTVpHMmpFYmpKU25sS2dBWHRJNkZLaTNtNkZMQ0hFMUVSRlMrV0ZRbElpSWlJaUtpS3FWTzA1WnRGQVdUVkZWQnZ5ZDdvM0dqaGxxSFZHbnBWQlc5ZWp5R2U1bzFCU0RkaEZCZXFWbXphWURXY1pGMm9xT2prMDBtMDZlcHFhbHhXc2RDbFJOemRPbGhqaVlpSWlwZkxLb1NFUkVSRVJGUmxSRVUxTXBUZ1RJT1VsUVBxbEVEZ3djK0RVOFBENjNEcXRScTE2cUowYU9HUXdnaG9JZ0g5TjR1M2JTT2lUU1ZmZnIwNmFzeE1URUdyUU9oeW9jNXV2UXhSeE1SRVpVZkZsV0ppSWlJaUlpb3l0RDVtaG9DNG1raG9JNFlPaGpObXpiUk9xUktUd2lCSjNwMlI2OGUzU0FBVDBDOEJVRFZPaTRpcW55WW8wc2ZjelFSRVZINVlWR1ZpSWlJaUlpSXFnd1hvUnN2Qkh6cTFhMkRZYzhNMURxY0ttWHFxNi9BMzk4UFFvaDZ0WnUwK0lmVzhSQlI1Y01jWFhhWW80bUlpTW9laTZwRVJFUkVSRVJVSllRMmJ0a1VBb09FRUJqLzBoaDR1THRySFZLVkVoeFVBNzBmejVsVlVsVjBVMm8yNWJwOVJGUjR6TkZsaXptYWlJaW83TEdvU2tSRVJFUkVSRldDcTFEZWhCQmVMWm8zUTVmT25iUU9wOHJSNi9WNDdPR3U4UFgxZ1lDc3JZZHJmNjFqcXVna1ZTaGFmeDd1ZHN6UlpZczVtb2lJcU95eHFFcEVSRVJFUkVTVlhxMG1MVnBCb0x0T3A4TlRUL1NFcjQrUDFpRlZTYTFidGtDTDVzMGdKZlNRNHFuUXhvMnJheDBURVZWOHpOSGxnem1haUlpb2JMR29Ta1JFUkVSRVJKV2VBdkU0QlB5cUIxUkR4L1p0b2FxcTFpRlZTZDdlWG5pcWQwOElJUVFFd25YQ280bldNUkZSeGNjY1hUNllvNG1JaU1vV2k2cEVSRVJFUkVSVXFkV3AwOUpmRVVvN1FMalVxaG1LSm8wYWFoMVNsZGFyeDJQUTZWUUlnUkFGYUt0MVBFUlVzVEZIbHkvbWFDSWlvckxEb2lvUkVSRVJFUkZWYW9xcnFhNFE0ajRBR05DdkR4U0YvOVV0Uys3dTduaG1RTTVTZlVKSXJ0bFhTU1VsSmVIdzRjTzRlZk5ta2ZZekdvMklqbzVHY25KeUdVVkdWUTF6ZFBsaWppWWlJaW83L0MyR2lJaUlpSWlJS2pXenFyYVRVdGJ5OVBSQXQwZTZhaDNPWFdId2dMNlc2VHZ2cTFXL1dTT3Q0Nkg4cGFXbDRZOC8vckRaZHVUSUVZd2ZQeDduenAwcjByR1NrNU14ZlBodzdOcTFxOEMrVWtyczJiTUhKcE9wU09lZ3FvVTV1dnd4UnhNUkVaVU5GbFdKaUlpSWlJaW9VbE9FK3JnUVFubTgyNlB3OWZYUk9weTdRbGpkT21oNVQzTkFDRmVkaThzd3JlT2gvSDM5OWRjWU1HQUFmdnJwcDNJN1oyeHNMTWFNR1lNWk0yYmdYLy82VjdtZGx5b2U1dWp5eHh4TlJFUlVObGhVSlNJaUlpSWlvc3BNaFpRZEFLRGJJdzlySGN0ZFE2L1g0OTQyNFRsUEpKN1VOaHJLajVRU08zYnNRRWhJQ05xM2IxL201ek1ZREZpOWVqVUdEQmlBMDZkUFk5eTRjUmd3WUVDWm41Y3FMT1pvRFRCSEV4RVJsUTJkMWdFUUVSRVJFUkVSRlZmdEppMGloQkRCZm42K2FOcUVNeHlXRjFWVjBheEpZK2oxZW1SbFpiZXNYYnRKNkpVcjUySzFqb3ZzZmYvOTk3aDA2Uko2OWVxRlU2ZE9XYmRmdm53WkFQRDc3Ny9EeGNYRjRiNUJRVUVJRFEwdDFIbXlzN1B4NzMvL0cydldyRUY4ZkR6YXRtMkwxMTU3RFEwYU5DajVpNkJLaXpsYUc4elJSRVJFWllORlZTSWlJaUlpSXFxMGhGQjZBMENqQmczZzVlbXBkVGgzRFNFRWF0VU1RVUExZjhRblhGTlZENWUyQUw3V09pNnlaVEtac0hMbFNnREFybDI3SEs2RHVuanhZcWY3RHhzMkRKTW1UY3IzSEFrSkNkaTFheGUyYmR1R3hNUkUxS3RYRDRzV0xVTFhybHc3azVpanRjSWNUVVJFVkRaWVZDVWlJaUlpSXFMS1NpaFNQQTRCTkczY0NPN3VibHJIYzFjSkRRbEJqY0JBeENkY2cxbW83Y0VMOWhYT3hvMGJjZkhpUll3ZVBSb2RPM2EwYWZ2NTU1K3hldlZxVEo0OEdjMmFOWE80ZjFCUVVMN0hQM1BtRElZUEh3NHBKWm8zYjQ0cFU2YmdrVWNlZ1JDaTFGNERWV3JNMFJwaWppWWlJaXA5TEtvU0VSRVJFUkZScFJUVW9GVWdoR2lpMStuUXVGRURwMU9ZVXRrSXFsRUROVU5EY1ByWDM2QUE5NkJoUTFmRXhCaTBqb3R5WEx4NEVaOTg4Z21hTm0yS3NXUEhRbFZWbS9hNHVEZ0FRSU1HRFJBUkVWR3NjelJyMWd3dnYvd3lPbmJzaUNaTm1wUTRacXBhbUtPMXhSeE5SRVJVK2xoVUpTSWlJaUlpb2tySlJWWHFRa0RuNWUyRjRPQWdqbzRyWjNxOUR2WHJod0VBaEpEVndvd3UvcGVBZUkzRElnQ3BxYW1ZUEhreXBKU1lOV3VXWFVHMXFNNmZQNC9JeUVnQVFFcEtDZ0RnMUtsVDJMcDFLOXpkM1hIeTVFbWNQSG15d09PNHVycWlUNTgrSllxRktnL21hRzB4UnhlT2xGSnFIUVBkWFFTVElWR2x4cUlxRVJFUkVSRVJWVW9LWkMxSXFCN3U3dkQzODlVNm5MdFN6WkFRQUlDVXdnY3VxaDk0d2I1Q01CcU55TWpJd0p0dnZsa3FJMGlQSFR0bXQvYnFEei84Z0I5KytLRkl4L0gxOVdWUjlTN0NISzA5NW1naUlxTFN4YUlxRVJFUkVSRVJWVXBDeU5wQ0tLcUh1enVxK2Z0ckhZNk56TXhNbkRsekJpRWhJUWdPRGk3V01ZeEdJM1M2aXYzZjlwbzFReTBQZmFVaXEya1pDLzNOejg4UEd6WnNnSmVYRjNidTNPbXdUMVJVRklDY3RWVVRFaEljOW5uaWlTY2doRUQvL3YzeHhCTlBBQUFTRXhNeFlNQUF2UGppaXhnMGFCQUFRRXFKb1VPSHd0UFRFNTkrK3FuVEVZa2NuSE4zcWNnNU9pa3BDYXFxd3I4RWNURkhFeEdSSXpkdjNvU2ZuNS9EdHN6TVRCaU5Sbmg1ZVJYNmVBYURBWHE5SG9xaWxGYUlWQUlWK3ljL0VSRVJFUkVSa1JNU1NtMUlxWHA0dU1QZnlZVUxyVnk5ZWhYUFAvODhubnZ1T1l3Yk42N0kreHNNQmd3Wk1nUzFhOWZHaHg5K1dBWVJsbzZhSVhjS3hrTDZBTHFLVlRXNXkxV3ZYaDBKQ1FtWU0yZE92djNXcjEvdnRLMW56NTdRNlhSd2NYR3hyb2VabnA0T0FIQnhjWUczdDdlMTcvRGh3N0Z3NFVKOC8vMzM2TnUzYnltOEFxcnNLbktPSGpGaUJHclVxSUYxNjlZVmEvK2RPM2RpMGFKRldMeDRNZHEyYlZ2SzBaVWU1bWdpb3ZJbHBjVElrU1BScGswYnpKNDkyNjU5OSs3ZFdMQmdBYlp1M1lwNjllb1ZlTHlVbEJRODlOQkRlUHZ0dDlHOWUzY0FRRVpHQmdvemM3bWJteHNMc1dXQVJWVWlJaUlpSWlLcWpGUkZrY0dBVUx5OXZlSGo0MTN3SHBYSXNtWExjT25TSmJSdTNkcnBTTU42OWVxaFpjdVc1UnlacmVEZ0lDaUtBclBaN0dVMmNSUlVSUk1ZR0lpOWUvYzZiTnUvZno4V0xseUlCUXNXSUNJaXdtR2Zvb3pDNjlldkg3WnQyNFpseTVhaFE0Y09DTGt6N1NoVkxxMWJ0NzRuTFMzdFdreE1UR0lKRDFXaGM3VFpiQzcyaGVhNHVEZ3NYcndZZXIwZWNYRnhUbk4wang0OXJEY2phS1VNY3JTdVJZc1c3WFE2WGZUSmt5ZHZsc0x4S3B5VWxCUzR1N3M3elgrSmlZa0lEQXdzMGpFdlhib0VUMC9QSXU5WEVXemZ2aDBIRHg3RWtpVkx0QTVGYzIrOTlSYjgvZjN4MGtzdmFSMEtWV0JIamh6QjFhdFhNV1hLRklmdGUvZnVSWEJ3Y0tFS3FzNzA2dFVMdDI3ZEtyRGZoZzBiMEx4NTgyS2ZoeHhqVVpXSWlJaUlpSWdxSGYvNjliMmtGRDVDQUlIVkE2clV0S0k3ZCs3RTVzMmI0ZWJtaHIxNzk5b1Z4VXdtRTdLenN6RjQ4R0ROaTZvNTAzcjZJU241dWw1UlVSMkFBRkR3cmZOVUxoUkZRZlhxMVIyMldhYWQ4L0h4Y2RxbktIUTZIZWJObTRkbm4zMFdZOGFNd2VyVnF4RVVGRlRpNDFMNVVsWDFlUjhmbjRrUkVSSGJ6V2J6WjFMS2swYWo4V1owZEhRYWl2RGRydWc1V2twWnJLSnFXbG9hSms2Y2lJeU1ET2oxZWl4Y3VOQ3VUMlptSmdEZ29ZY2UwcnlvV2dvNVdnMFBEL2NXUW9SS0tYc0tJVjRRUWpTUVVvWURxSkpGMWZmZmZ4OG5UcHpBbDE5K2FmY1orZlBQUDlHM2IxOU1uejRkL2ZyMUsvUXhYM2poQlR6d3dBT1lQbjI2ZFp2WmJFWjJkcmJUZlhRNkhWUlZ0VDVQU2txQ3lXUXF3aXV4NWVQakEzZDNkNXR0UnFNUmNYRngrT09QUDNEeDRrVTgrdWlqcUZXcmxrMmYyTmhZNjNUeEZZSEpaRUpTVWxLSmpoRVFFR0JYTk0vSXlNRFZxMWZ4eHg5LzRQTGx5L2pIUC81aGw3Zk9ueitQR2pWcUZPb2NPM2Z1eFBIanh3dWNMWUtxbmkrKytBSmVYbDVRRkFXSER4KzJibS9WcWhVeU16TngvUGh4akJvMUNrYWowZUgrUWdpYjc3NGo4K2JOUTFaV2x0MzJ4TVJFZlBMSko3aDU4eWJDdzhNUkdocnFZRzhxS1JaVmlZaUlpSWlJcU5KeDErbjBnSFFGQkx5OUM3OG1VVm1SVXBaSzBlREFnUU40NjYyMzhPU1RUMkxXckZsMng3eDkremJHakJtRGpJd01QUHZzc3lVK1gybnd6N2xnRDJHR0YxaFV2YXMxYTlZTXMyYk53cXhac3pCbXpCZ3NXclFJalJvMTBqb3NLZ1loUkg5VlZmdExLUk4xT3QyaDhQRHdJMmF6K1VlRHdYRHkzTGx6S1FYdFg5RnlkRjRtazZuSVJkV01qQXhNbWpRSkNRa0pXTDkrUFpvMmJXclg1NnV2dnNLOGVmTXdZY0lFK1BqNGxGYTRKVktjSEIwZUhoNEc0SDRBcllRUTdRSGNxeWhLeGZ1SExHV3BxYW40OXR0djBiOS9mNGVmajIrKytRWUEwTEZqeHhLZjY5Q2hRNWc0Y2FMVDlna1RKbURFaUJIVzV5Tkhqa1I4Zkh5eHp6ZDE2bFFNR2pRSTI3WnR3NVl0VzNEOStuV2twTmgrbGIyOHZOQy9mLzlpbjhNaU96c2Jqei8rT0lLRGd6Rmh3Z1Q4K09PUEpUNW1vMGFOMEx0M2J5UWtKRmpYK0M2dXJWdTNvbUhEaHBnelp3Nk9IVHVHNjlldlcyK0dzT2pXclJ2Q3dzS0tkZnlrcENRc1diSUVOMi9lUk0rZVBkRytmZnNTeFV1Vng0VUxGN0IvLzM2WXpXYTg4c29yTm0wYk5tekFpUk1uSUtYRTJyVnJzWGJ0V29mSENBc0x3NDRkTy9JOXovMzMzMi96WEVxSkw3LzhFc3VYTHdjQVRKOCtIWDM3OXExd056UlZGU3lxRWhFUkVSRVJVYVdqTjZoNnVFTVBBTzV1N2dWMUwxTW1rd2xQUC8wMEhudnNNYWZycDZhbnAyUFdyRmxvMHFRSi92R1BmempzczJmUEhzeWVQUnRkdW5UQjVNbVRrWkdSWWRPZW1abUpDUk1tSURrNUdTdFhyb1NIaDRkMWZVc1BENC9TZlZGRjRPWHBDUUF3SzlJVk9SZnM2UzVpTkJyeDdiZmZZdjM2OVZpOWVqVjY5dXdKczltTWVmUG1ZZGl3WVJnMWFoU2VmLzU1NlBWNnJVT2xJckNzMVNhRUNBVFFSd2pSVTZmVEpldDB1dGpXclZ2dk1wdk5uMFZGUmYzaGJQK0tsS01kS2VwSTFkdTNiMlBpeElrNGQrNGNsaXhaZ2pwMTZsanpyOFdCQXdjd2YvNThEQjA2RlAzNzk3ZTI2L1Y2VFQvL2hjM1JEUnMyZFBYeDhlbG1OcHVIQ1NIYUNDRnFTQ205aEJBS1VIbzNEMVZrdTNmdlJtWm1KdXJVcVdNendpd3NMQXlob2FIWXUzY3ZXclZxaGNEQVFLZWp6SFE2SFZKVFUyMm1oYzdJeUVCTVRBdzJiOTRNQUtoV3JScnV2ZmRldlAzMjJ3NlA4ZWFiYnpyYzNybHo1eUlYUFEwR0ExNS8vWFhyODBhTkdxRlRwMDd3OWZYRjl1M2JVYjkrZlR6MzNIT29YcjE2cWMwdXNILy9mdHk0Y1FQanhvM0R1WFBuc0gzNzluejdXMmJnVUZYVjZYZmw0WWNmUnUvZXZhM1BSNDBhaGZEdzhDTEY5ZHR2djJIVnFsWFc1NjFidDRhdnJ5L2MzTnl3YXRVcURCMDZGSTg4OGdnQ0FnSVFIQnhjcEdOYlpHWm00dFZYWDhYTm16a0R1ZDk4ODAzODg1Ly9STjI2ZFl0MVBLcGNGaTllakhyMTZtSDkrdlYyK1ZKS2lWZGZmUld0V3JYQ2swOCs2WEQvTDcvODBqcUMvZmZmZjBkQ1FvTDEvd1BuejUrSHQ3YzNBZ0lDMEtSSkUrcytWNjVjd2J4NTgzRDgrSEYwNjlZTlU2Wk1RVUJBUUJtOVFnSllWQ1VpSWlJaUlxSktLRnVuNmx4RXpnVjdEdzl0TDlnZlBud1lWNjVjZ2JlMzh6VURQVHc4a0pTVWhGOSsrUVVEQmd5QW41K2Z0VTFLaVJVclZtRE5talVBY2k3TUh6aHdJTjl6RGh3NDBPYjU4ZVBIUy9BS1NzYjd6alN5a01JTkxLcFdDQ2FUeWE3Z2s1ZGxWRTVHUm9iZGFLWGM5SG85M056Y3JNOHR4YlliTjI1ZzFhcFYyTEZqQnhJVEUxRzllblZyVysvZXZWR3paazNNbURFRHExZXZ4bi8rOHgvMDZkTUhmZnIwcVl4ckNoYjJNMTNVejM2cEgvZmVlKzh0ZE4rTWpBeUhmYVdVcWhBQ1FnaElLYTMvcGdCY3BKUWhRb2dRVlZYdlZWVjFWa1JFeEZFQVc0MUc0NWZaMmRtM2J0KytuUkViRzVzRndLaGxqbzZQajhmVFR6K2RieC9MRkl4NVIvdmt0WEhqUmtncE1XblNKRnk5ZWhVQU1IYnMySHozMmJScEV6WnQybVI5UG1iTW1BTDNLVXVPY25UejVzMWRUQ2FUcTE2djl4QkMxTkxwZEVNQURBVVFwQ2lLemI5OXJzK0FsWlRTcFhuejVnWE9iZXp1N2w2a21RdU9IejllMUprT1NxMS9abVltUHZ2c013Q3dLM1pPbURBQmJkdTJ4YVZMbHdBZzM1R0gzMzc3TGJLenM2MGp4aXpIL3UyMzMzRCsvSGtBT2FQNmUvVG9nZTdkdXpzOGhyT2lhbWhvS0I1NDRBR241M1lrNzgrQ2lJZ0k2enJhMzMvL1BVSkNRdEMyYlZ0cisvYnQyMjJtR1Q1Nzlpd01CZ08yYnQxcWM1dytmZnJBMWRYVjRUbDM3TmdCVDA5UDlPalJBKzd1N2hnMmJKalQrRXdtRThhT0hZdVRKMDlpK2ZMbE5ySGtwMW16WmtWK0wvTHEwNmNQZ0p4MWRGZXRXb1dtVFp1aWRldldBSURrNUdSODk5MTNOdjJUazVPUmxaVmw4MTc0K3ZxaVI0OGVBSEttQjU4d1lRS0Nnb0tnMCtrUUhSMk5RWU1HNGFXWFhzS3laY3RLdElZbVZYekhqaDNEMGFOSHNYejVjcHZmbXl3Ky8veHpKQ1ltWXY3OCtianZ2dnNjSHVQdzRjTklUTXhaMG56VHBrMzQrdXV2clczcjFxM0R1blhyOFBEREQrTzk5OTZEeVdUQ3BrMmJzSExsU2xTclZnMUxseTR0OEdjYWxRNFdWWW1JaUlpSWlLalMwZXNVSFhEbmdyMjd0a1hWblR0M1FxZlQyWXlnY09TRkYxN0F1SEhqc0diTkdreWVQTm02L2ZyMTYvaisrKzh4Wk1nUWZQMzExM2pvb1lmUXQyOWZtMzAvK2VRVFpHUmsyRTBWK08yMzMyTGJ0bTJsOTJLS3dkdkhHMUpLNktTczFiSmx5NGNVUlRGSktRV1FNMkxIOHZnT0FjQm1XOTcyWE90STJmWEo3MWgzOWl2VVBwYnQrWjNMeWJiYzUzUDZHcUN4YytmT1lmanc0WVhxbS91ejZNakFnUU50UmptZE9IRUNBTEIrL1hvQVFQMzY5ZkhTU3kvaDhjY2Z0eGxoRkJFUmdhMWJ0MkwxNnRYWXNtVUxWcTVjaVkwYk4rTExMNzlFdFdyVml2cVNTa1diTm0xbUY2Vy9sRklCb0VncFJhNVJqZmwrVnZLMjM5blBhYnVqN2VMdjRTMzVmbmZ5dHQ4cGZoWHFYTG1LSVNMUE9hM3ptbG8yNVM2cTVYNHNoR2dMb0sxT3A1dWoxK3ZQdWJ1N1h3Z0tDanFha1pHeExrTnFsNk05UER3d2FOQWdwKzFTU3F4ZnZ4NkJnWUhXWW9nelBqNCsyTHQzTDdLenMvSGtrMDlpNTg2ZCtQVFRUMjFHdWNiSHgyUEdqQm1ZUG4yNlhkSEUyZXdGNWNuYkorZUdIMFVLZCtCZTBiSmwxcjJxcWc0WFFqUUIwQlJBaUJEQ0ZYQmNRSFUwT2xVSU1jM056UzBadVlxVTBuWm5DZVNzRzVxN2p4RENyay91NTVaaVg1NjJ3dXd2NzV6TGFaOEN6bzBOR3piZyt2WHIrUExMTCsxR2JPcDBPcnorK3V2dzlmWEYrUEhqOCs0S0lDYzM3dDY5RzY2dXJnZ0lDTUNoUTRlc2JUMTY5TEJiVTdXNExsMjZoTk9uVHhlcWIyQmdvTFZJV0ZpTEZpMkNxcXJXZ21sbVppWU1CZ00rK2VRVEFEbXpFNlNscGFGNzkrNE9pNnFYTGwzQzhlUEhNV0RBQUxzMVhCMVp0V29WSWlNak1YYnMyRUlYVkMyT0hUdUcyTmpZUXZWdDFxeFprWTRkR3h1TGQ5OTlGMTVlWHRiMUxWTlRVNjFyVmdJNTcwM05tald0ZWVTdnYvN0NxRkdqMExseloweVlNQUZBemswVmp6enlDQzVmdm16TkQyM2F0QmxrTXBrY2ZqWUwrZmtGQUdrcGZoZG1uN3g5U3JJdkFFdmh2Vml2d1dnMDJ2WFB6SkpOTW91L1pIQ0YwTFJwVTNUdjN0M2h0TjVUcDA3RnVuWHJFQjRlN3JTZ0N1Uk1uVzM1WGsyWk1nV3Z2UElLVWxOVDhkUlRUMkg2OU9sNCtPR0hvZGZyY2U3Y09jeWRPeGZuejUvSGtDRkQ4T0tMTHpvczVGTFpZRkdWaUlpSWlJaUlLaDFUZHJaTzcrS3FnNENtRnhFU0V4UHgzLy8rRjEyNmRDbXdVTlNoUXdlMGFORUMvL3JYdnpCMDZGRHIxSElCQVFIWXZIa3pYRjFkc1hQblRnUUZCU0hYaFdVQWdMKy9QM1E2bmQzMnFLaW8wbjFCeGVEbDZRa0J3TU5WYWF2WEtROWF0a3NwaGFNTDlJQk5BY2ZSOUdoT2k1SU9DbFIyaDg1NzNGeUZJWnY5TENQeEhPMWJsSGp6TkZjSU5Xdld4THg1ODBybFdIbW5MRXhOVFFXUWM0SDZoUmRld1AzMzMrOTBTbEF2THk5TW5EZ1JRNGNPeGJadDIxQy9mbjNOQ3FwMy9GOVJPdWY5RERsckwyai80cmFYMWo0bDJTL3Z2bzRLckVJSVR3QnQ3dnpwN2U3dVBrSnZOcC9PekJZQlJsbitPZHJIeDhkdUxidmNybHk1Z3ZYcjF5TXpNeFBqeDQ4djhMMFpNbVFJbm43NmFlc2FkNjFidDRaTzkvY2xWY3ZveFVhTkdxRmx5NVkyKzFhRTNPRGw2UWtwSlZ4VnRJeUlNTzhVUXQ4Y1FLaVVVdWVvY0E0VTZyUGJ6OEcyRXNkYWttTVVkWTNjM0RJeU1yQnUzVG9NR3pZTWRlclVzV3MvZi80OERodzRnREZqeHRqZDlHU1JsWlZsTGFvV1ZtcHFxc05DZG41KytlVVh2UHZ1dTRYcTI3WnRXN3ovL3ZzMjIvYnQyMmZONDdkdjM4Ymx5NWZ4NVpkZkF2aDdCTzdZc1dPdDY3a3VYYm9VWDMzMUZmYnYzdzhBT0hqd1lMNXJ3VnErSndXTkZnZHlpcUpyMXF4QjE2NWRuUzZOa0ordFc3ZGE0eXJJaXkrK2FETmxhbVptSnZiczJRTWdaNHBrU3p5V3g1YlB3WW9WSzlDOGVYTUFPZXZhMXFoUkErKzk5eDRBNElNUFByQ1pKcnB4NDhabzNMaXgzYmtiTkdpQUJnMGE1TjYwTXAvUHE4TVBSSjdQaVFTY2YrWWRGR0R0RHBmcnBqSW5wM044TTQyRm9pZ0Zuc1BCUVFFQU9wM09yczFWTC84eW1NM2FKOHdTOFBMeXd0eTVjL0hnZ3cvaWwxOSt3YTVkdXpCMzdsd0FRSk1tVFRCMDZGQkVSRVRnekprekNBd01SUFhxMWUyT2taV1ZCUmVYbkVrQVBEdzg0T0hoWVMzcWUzcDZXbWU2K2VpamozRDI3RmtvaW9MdDI3Zm5POFgyMjIrL2pRY2ZmTkJwT3hVZGk2cEVSRVJFUkVSVStiam1GTWtFQkFxNE1GU21MTlBrOWV0bmQzM1pvZEdqUjJQU3BFbjQ5Tk5QTVd2V0xPdjIzQmRoNCtQamNlellNWnY5cmwrL2p2VDBkTHZ0bHVrb3RXUjUvNldBS3FWMFF5bE94NWhiSVM0UzVudk1mUGEzdlZLWi93VnVXY2grbHI2K0JYVXFDNzYrdnVqWnMyZVpISHZnd0lFSUNBakFRdzg5Vk9pZHN2dDNBQUFnQUVsRVFWVHZYbUJnWUlVWXNTZWx2RlNjL1lRUUJ2ejliMis1Mkd5KzAyYmRucXZSOHNlbVBWY2JjdTFqM2U5T1grbWdEUUFjdHVkcHl4dUhzeml0ai9QdUI2QTVnUHFGZUZ2K2ZoRi9yN1ZwRmtLWXBaVGVpaENlRUZBZ29XbU9kdVRNbVRNQWdGdTNidUhzMmJPRkdzR1dPMGVmT0hIQ2JxU3E1YmlXZ295RlpmU2tsaXp2djFDZ0IrQWpwWFFIWUFLZzR1OFJ6a1VpcGZ3QndHMzhmVk9KZFhTMWd4SGMrYmJsSFptZHU0K0RVZHVPK3VSdHQvWnh0ci9sN3p2dGJkemQzZkhJSTQvZzBLRkQyTEJoZzgxcjdkV3JGMjdldkFrdkx5OE1IanpZNlh1U2xaVUZJR2ZLOUVPSER1SFdyVnZXdHN6TVRGeTVjZ1c3ZCsrMmJ1dlNwUXQ2OWVwbExYQVcxcUJCZy9JZGlaMVgzdWwvMTZ4Wmd5dFhybGpqU2twS3d0bXpad0VBOCtmUEwxSXNlUmtNQnZ6blAvOUJ5NVl0MGFoUm8zejduajkvSHBNblQ0YWJteHQrK3Vrbi9POS8vOE9ERHo2SXExZXZvbGF0V29VNm42VzRXVmdIRHg2MFBrNUpTY0dpUllzQS9QM3pmUGZ1M2RpN2R5OEFZTUdDQlVVNmRsRklLYk9jTk9WYlZIUjBVMWNSVCsxb0ZnUW5wM0o4UTFvUnp1R1V3eHZhaEt3U2RTcWRUb2Z1M2JzakpTVUZ1M2Z2dHBuaU95d3NERWFqRVU4OTlSUzh2YjJ4ZXZWcWVGbW1aNy9EWUREQTM5Ky93UE1NSERnUUR6endBUGJ2MzQ4TEZ5NVlwNWovK3V1dmtaS1NnbUhEaGlFNU9SbHIxcXl4Rm1tcDlGU0pEeXNSRVJFUkVSSGRYUlNqemdRZGpBRHNMbUtYbDh6TVRPellzUU1oSVNIbzBLRkRvZmJwMHFVTEdqUm9nRjI3ZHVINTU1OUhhR2lvWFovZHUzZmJYSGpOVGN0MStaekp5TWlBQkpCdU1CN3pjbEUrVmxYVk1vR2IzWlJ2VHFhN0szRDZPS1BSYUxmZFdkOWMwOHNWZU56QzdwZTdYKzdSR1huYnM3S3k4aFp2ejZJS2V1U1JSN1FPb1ZnaUl5TzVvRjBCMnJScDh3RUFtMkZvK1l3NHQ3VGZCbkFjd0NHajBYZ2tLeXZyY0xwSjc2dm9sTTBDb29GV09kcVpBd2NPd05mWEY1NmVudGkxYTFlUnB3Vjk4Y1VYSFc1ZnVIQmhhWVJYNmpJeU1pQ0VRSWJSSEhYMlYyVmN5NVpaVFZWVmJRK2dFNEQyUW9qNkFOenltZWJaMFdFblJrWkduaXJqME11TEJJQTVjK2JneUpFanVIRGhBajc0NEFPOCtPS0xxRjI3TmtKRFE1R2NuSXdISG5nQVpyTVpVVkZSZGlPU0FkdHBPMWVzV0dFdDNsc2NQWG9VUjQ4ZXRUNjNyTXY1NktPUDJrMURQV1BHREp2cDFFdlRsaTFiQUFBWExsekE0TUdEMGJ0M2I1dWJ2RXJpdSsrK3crM2J0OUcvZi85OCsxMjVjZ1hqeG8yRGo0OFBSbzhlalhuejVpRTdPeHM3ZCs3RS9QbnpNV1RJRUl3ZE83WlEwd2NYVjJCZ29IV0s1czgvL3h5TEZpM0NyRm16ckRja2xlVk1JRUtJaDNJWEs4MTVSbWc2V3lKQnI5Zm51eXhCZm85MU9sMlo3Z3NuMDgwWGRxa0VnMGsya1FJVk00a1drc0Znd0xWcjF3RGtyRHN2cGJUZXdBQUFRVUZCY0hGeHdkdHZ2NDBYWG5nQnI3NzZLcFl0VzJaVDlEUVlESVdhM2FGTGx5NEFjdkpJMTY1ZHJUZGFiTjY4R1JFUkVSZzBhQkRPbkRtRE5XdldsT24zNkc3Rm9pb1JFUkVSRVJGVk9rYXp6SFlGc2dFZ0l5TlRreGkrK3VvcjNMaHhBOU9tVFN2U3RJUERody9ILy8zZi8ySHQyclVPMTFkNzdybm43SXFuTTJiTVFFcEtDcFlzV1dLemZkT21UVmk2ZEdueFhrQXB1WjJTQ2lFRXpGQ3VuajU5K245QVRyR2JpQ3EzZ3RiWGxGS2VCUEFGZ0oxWldWbnh2Lzc2YXpMdWZQOURHN1R3MERwSE8zTHQyalhzMzc4ZnZYdjNSclZxMWJCMTYxWTgvL3p6MWlrVkMrT25uMzZ5eWZtWEwxL0d3SUVEc1diTkdyUm8wY0ttYjBXWWN2RjJTczVJU0NHUURoeVhVVkdJQWhEVnZIbnpMUzR1THRXbGxHRkNpSUVBK2dzaEFvRjgxOUV0MTlqTGt4QUM3ZHUzUjFCUUVENzQ0QU8wYjkvZXJuZzZmZnAwSER4NEVLdFhyN2FiNWpVek05TmFWRjI3ZHEzTktPWERodzlqeXBRcDFodXhBRmdMS1hYcTFFSFhybDF0anBWN1BWWm5CZzhlYkZPd3lXdno1czEyMDdmblpwbjZGc2dwdkpkRzRXWDc5dTN3OXZiR1k0ODk1clRQK2ZQbk1XSENCRWdwc1d6Wk12ejU1NS9XdHZ2dXV3L3QyclhEaGcwYnNHL2ZQa3liTmcwUFBQQkF2dWRNVEV4RW56NTluTFlIQkFSZzU4NmQrUjdqbTIrK3NUN096TXdzOHluTFQ1dzRjYWJnWG5lWHNLYmhRdnNWNlVzbU9qb2F6ei8vdk0yMjNKL05EUnMyb0huejVtamR1alZtejU2TjZkT25ZK2JNbVhqbm5YZXNQMU1NQmtPaFI1Yis4c3N2dUh6NU1xWk5td1lBU0VoSXdOV3JWekZ5NUVnQU9kOXJJR2ZhWUNwZExLb1NFUkVSRVJGUnBhTTNtb3hTcjJZTEFXUmtsdjhGKzZ5c0xLeGZ2eDdWcTFmSFUwODlWYVI5SDMvOGNTeGJ0Z3c3ZCs3RTZOR2pyV3VyNXBaN3ZUNGc1Mkt2RU1MaGRxMmxwYVhsUERDTGlsTTVJYUlTeWJWZXFtV1RVVXFaSXFWTUFyQlRDTEV5TWpJeXh0bitXdWRvWjFhc1dBR2owWWhubm5rR3ZyNitXTDkrUFpZdlgrN3dCaGRuRkVXeHljV1c2WFZWVmJYTDBSV0JzeHdkSFIyZENpQVZ3Q1VBUHpSczJIQ1N0N2YzRXdDZUUwSkVBUENWVXJwWjVnRXR6alRCbGNuVnExY2hwVVJjWEJ5QW5BS0ZwZGp1NStjSGIyOXZUSmt5QlZGUlVSZy9manpXcmwxck05dEVWbGFXdGFpcTErdng0NDgvWXRXcVZmajQ0NCt0bndzWEY1ZENyN2w2NE1BQlJFUkVPQzM0WjJSa29GV3JWbll6QjF5K2ZCbWJOMi9POTk4ckt5dkxXbWc4Y3VRSSt2VHBnOVdyVjZOMjdkcUZpczJSbUpnWW5ENTlHa09HREhINkdnOGVQSWczM25nRG5wNmVXTDE2TmVyV3JXdFRWQTBORGJYK2ZyUjQ4V0pNbkRnUjNidDN4OVNwVTUyK0QyYXpHWm1abVJnd1lBQWFObXhvZDc3bzZPaDg0ejUzN2h4Ky9mVlhBTUFubjN5QzdkdTM0K09QUHk3S1N5Y0NrTFBXdkdVRStyNTkrN0J1M1RwczJyVEoycDc3KzlXalJ3OUVSMGRqMDZaTjZOR2poL1hHaW95TURLZEYvYVNrSkN4ZHVoUnVibTU0N3JubjhONTc3eUVpSWdMdDJyVURBSHo3N2JjUVFxQno1ODRBL3M3OUhLbGEraXJlVDNvaUlpSWlJaUtpQWhqMGJrWjNtRFViQmJWbHl4WWtKQ1JnNHNTSlJWNnJTS2ZUWWRDZ1FWaStmRG5XclZ0bnZjUGM0dUxGaTlZMXZTemk0dUtRbVpscHQvMzgrZlBGZXdHbEtPWE9LQ2dJbVlHaXI2ZEtSQlZRcnFsOXJ3STRMcVg4UlFoeEtEMDlQZkxjdVhNcEJlMnZkWTUyWlAvKy9kaTVjeWVlZU9JSmEvRmw4T0RCMkxoeEk5cTFhNWZ2NkxyYzl1M2Jaek5TTlRFeEVVRE9xS0hZMkZpYnZpYVRDVm9yYkk2T2lZa3hBTmdPWUh1clZxM3FDU0h1RjBLMEJOQWV3TDFDQ0M5bisxWUZmZnYydFJsZCt2cnJyMXNmVDVnd0FTTkdqSUMvdnorV0xsMktFU05HWU55NGNWaTdkcTIxMkdjd0dPeldSLy8xMTE5dHRwbk5aaGlOT1pNNUZGU0FYN0prQ1NJaUlqQjc5bXluZlJvM2JtdzMxZTZ4WThld2VmUG1mSSs5ZS9kdXBLU2tvRnExYXJqbm5uc1FFeE9EbDE5K0dldlhyd2NBbkQxNzFyb013UjkvL0lHc3JDenI4M1BuemprODVvNGRPd0FBVHovOXRGMmIwV2pFUC8vNVQzejY2YWVvWGJzMlB2cm9vM3pYVFgzeXlTZlJybDA3ekpvMUMzdjM3c1dSSTBjd2RlcFVkT3ZXemVrKzk5OS92OTJvMXVUazVBS0xxaHMzYmtSUVVCQVNFaExRdFd0WC9PdGYvOExNbVRNeGZQaHdBRG1qaGk5ZHlsbU8rK2JObXpDYnpkYjM0dUxGaS9rZW0rNHVibTV1MXA4dEowK2VoQkRDcnRDZjI0UUpFM0RmZmZkWnAvSUZjdFpBemx0VS9mMzMzd0VBNzcvL1BueDlmVEZ4NGtRc1hyd1lmLzc1SitiTm13Y2c1MGFKalJzM29tUEhqcWhSb3dZQVdOZHJ6cnR1SzVVY2k2cEVSRVJFUkVSVTZiaGtHWTNRS2RrQWtKYWVWdTduLy8zMzMrSHI2MXZndW1ITzlPdlhELy81ejMvUXFGRWp1N2FEQncvaXA1OStjcmpmM0xsemJaNWJMczVxNmVhdFd3QUFJWkVPRmxVcmhFdVhMaUVzTEt6SSsxMi9maDMrL3Y0T1IwQkxLWEg5K25VRUJBU1VSb2cya3BLU2NQRGdRWFRxMUFsQlFVRjI3YW1wcWJ3b1dNNmtsUDhHOExuSlpEcGhNcGtTZi92dHQ1c0F6QVh0WjZGMWpzNHJNaklTTTJiTVFFaElDQ1pObW1UZC9zSUxMK0MvLy8wdlpzNmNDVGMzdHdLbkdnV0ErZlBuMjIxemMzUEQyclZyN2JabloyZVhMUEJTVUp3Y2ZmcjA2WXNBTGdMUU5XL2V2THBPcHd0VFZiVWJnR2VGRUVWUExwWEFsaTFiSUtWRWJHd3NKazJhaFBuejUxdC9SbGV2WHQzYUx5d3NEUFBtemNPcnI3NksxYXRYWThxVUtRRHNSNWpkdm4wYm5wNmVOc1hUM0ROYi9QTExML25HYytQR0RXdHhwRFJsWldWaDFhcFY2TmF0R3k1Y3VBQlBUMCs4Ly83N0dEWnNHTDcrK21zQXdQZmZmNC8vL3ZlL0FISit6ekFhalhqcnJiY0F3S2J3YkpHWm1ZbmR1M2VqVFpzMmRqOTd6cDgvai8vN3YvL0R1WFBuMExGalI3enp6anZ3OXZZdU1NN2c0R0NzWExrUzY5ZXZ4NG9WSzdCcDA2WlNYODg3SmlZR2UvYnN3Y1NKRS9IQkJ4K2djZVBHbURsekptYk5tb1h3OEhBQU9WTTVXMzRtR2d3R3hNYkdXdDhMbzlHSU9uWHFsR3BNZFBkUVZkV21vQXJrakM2MTVKSDkrL2RqL2ZyMWlJcUtRbkJ3TUlZUEg0NCtmZnJnczg4K3c3WnQyekJ0MmpUcm11QmJ0bXhCVWxJU0ZpeFlZRDFXU2tyTy9VLzgvYW4wc2FoS1JFUkVSRVJFbFk3UjZHSlFZY3dFZ0lTRWE1QlNsdXRVdUhQbXpFRnljbkt4cDlUeTgvUERGMTk4WWJlOVc3ZHVhTisrUFI1OTlORkNIZWZvMGFQV0M1OWFNSnBNdUphWUJBQ1FRdHhDRVlvdWQ1UFUxTlFTajJpcFZhc1cvUDM5Qyt5M1lNRUM3Tml4QTB1V0xFR25UcDJLZEk2WFhub0pRTTdGdWJ4T25UcUYwYU5INDgwMzMzUTRFcWtrTGwyNmhQbno1K09qano2eUs2b21KeWRqOE9EQkdEeDRNRWFQSGwycTV5VjdCb05obmFxcTc1dytmZnBhU1k2amRZN09iZS9ldlpnelp3NzBlcjExcEkrRnU3czczbi8vZlR6MzNIT1lQSGt5WG5qaEJZd2FOY3JoT3RuMTZ0WEQ0NDgvanJsejV4WjZIZTBsUzViWXJjdFpua29oUnh1am82UGpBY1FEK0JuQU94RVJFWjJ5c3JLY0wrWlpTVFZvMEFEQTN5TklhOVdxNVhTVTJZTVBQb2dQUC93UUhUdDJ0RzdMWFF3QmdMLysrc3R1eXRyWFhudk5tc2RWVllXbnB5ZWlvNk9SbEpSa1BhK1VFai8rK0NOU1UxTUx2RG5teG8wYmRpTkg4MXRuRlFBKy9mUlRKQ1FrWU9USWtaZ3hZd1lBb0c3ZHV0aThlVE5xMTY2TkF3Y09ZTUNBQWVqWnN5Y0FZT25TcGZqcXE2K3dmLzkrQURrM0tDeGV2TmltV1B6Tk45OGdOVFhWNGMrRzk5NTdENy8vL2p2R2pSdm45THZsaktJb0dEVnFGTzY3N3o3NCtmbFpwOXAyNUsrLy9ySjdMNUtTa3B6MmwxTGluWGZlUVdCZ0lIcjI3SWtQUHZnQVFNNjByUGZjY3c4TUJnT2FOV3VHZWZQbW9WNjllZ0NBa1NOSG9rYU5Hbmp2dmZjQTVLeGJHeFVWVmVqWFEzZW43T3hzZlA3NTUralNwVXUrMytuMDlIUVlqVVo0ZUhnQXlCbnRldVBHRGN5YU5RdTlldldDMFdqRS9QbnpzV2ZQSG93Y09SSURCZ3dBa1BQNzJmTGx5L0hZWTQ4aElpTENlcnpidDIvRDNkMjlRazVMWDlueEhTVWlJaUlpSXFKS0p6YjJlSHBkbjFiWGhZUzhlZXVXeU1qSWhJZEgrYTRabE4rSXZldlhyd1BJV1ZldEtJcXlyaDhBdEczYkZtM2J0aTNTUHFVcEllRWFzck96SVNVeXpOSjhRN05BS3JqVHAwOWovUGp4SlRyR2pCa3owTGR2M3dMN0RSMDZGTHQyN2NLaVJZdXdkZXZXUW44Ry8vampEMXk0Y0FGanhveHgySDdnd0FFQXlMZFFlK1BHRFh6Ly9mY08yenAwNkpEdmRJL09CQVFFWVBUbzBkYUwyS05IajhhQkF3ZXNvOE1LMHJGalJ5eGJ0cXpJNTcxYi9mYmJiNmRLNHpnVklVZmZ1blVMSDM3NElYYnUzQWwvZjM5ODlORkhhTnk0c1YyLyt2WHJZK1hLbFJnL2ZqeVdMMStPNzc3N0R1UEhqN2NwbUFFNW42Vzgyd295WWNLRUVyMkdraXFESEowZEdSbXAzWjA4RlVqZVVjMTVpNnFYTDEvR1gzLzloVU9IRGxtM2RlblN4V1lkMXNjZmZ4enIxcTFEOSs3ZDdZNWZzMmJOQWtkTzc5cTFDN3QyN1NwUzNELy8vRE9HRGgxcVZ6QzJyUGZvYU1SMWJoRVJFZGk0Y2FQTnR1M2J0OFBQejgvaFNOSUZDeFlnTVRFUlRaczJMVktjdWJWbzBhTEFQcGFmRVhsVnExYk40ZmJidDIvanQ5OSt3N3Z2dm12M2M5THlYdVI5blhrTkdUS2t3TGpvN21RWjBiMTc5MjZzWExrU3NiR3hCZjYrZnVwVXpvL2Y0T0JnQU1DWU1XTXdZY0lFNjgwRVY2OWV4YzgvLzR3MzNuakRPbFBPMWF0WE1YWHFWRlN2WHQxdU9aRUxGeTRnSkNTa1ZGOFg1V0JSbFlpSWlJaUlpQ29sWVJaWGhTcE02Um1adXB1M2JwWDdCZnZjb3FPajhmNzc3OFBiMnh1cXFpSXlNaElBcktNYjhoTWZIMTlxSS84MmJ0eFlxSE9XbHRpNCtKd0hRdDZDV1Z3dnR4TlhVb3NXTGJKZXJNM3Q5dTNiTUp2TmRxT2FnSnpwQmtlTUdHR3piZUxFaVRoNjlLalQ4MlJsWlNFMk5oWVBQZlNRMHo3ZmZmY2QzTjNkWVRBWVlES1pzR1BIRHFpcWlwNDlleUk5UFIxQXprZ3FWMWRYbUV3bWZQUE5OMmpXckJrVVJVRkNRb0xOc1Z4ZFhlSG41NGU0dURpODg4NDdEcy8zOXR0dkY2dW9DdVNzZStucTZvclZxMWVqVzdkdWFOU29FU1pQbmx6Z2ZwOS8vbm14emtlbFE2c2NuWjZlam0zYnRtSDkrdlc0ZGVzV1dyUm9nWVVMRjFvdlZEdlN0R2xUYk42OEdiTm16Y0tSSTBmdzhzc3ZvMjdkdXBnelp3NTI3dHhwWFVPeEpCNSsrR0hyK25mbGhUbTY1QTRjT0FDejJWemcxTE8zYjkrMlRoT2NsWldGNk9ob1ZLdFdEWFBuenNYSWtTTWQ3ak4rL0hoMDc5N2RMcWQ2ZVhuaG5udnVLWEROOWw2OWVtSG8wS0VPMjNJWGIzTjcrZVdYclZQYmxvWXpaODdnekprekdERmloTU9iZUFJQ0FzcGsydmk4WG52dE5adFJlaGJPUnVuNSt2cGk0Y0tGNk5LbGkzV2FWS0xTY3VUSUVXUm5aMlBtekpubzJMRWozbi8vZmV1TkRLbXBxVmk0Y0NIYzNkM2g2dW9LVlZXUmtaR0JmZnYyd2N2TEMyM2F0QUZnUDIxdldGZ1kvdjN2ZjF0bnlUbHg0Z1NtVEprQ3M5bU1qejc2Q0QvODhBUE9uVHNIWDE5ZkpDY240L3Z2djhjenp6eFR2aS84THNHaUtoRVJFUkVSRVZWT2lyd01DVk5HZXJydXhvMmJDQTF4ZnNHOHJBVUhCK1BVcVZQV085TTlQRHp3OU5OUEYycjlMMjl2Yjd6eXlpdWxFb2V6RVJsbDVhL1l1SndIRXJjRUw5Z1hxSGJ0Mmc2bmszenR0ZGVRa3BLQ2xTdFgyclZaQ3B5NVpXWm1vbHExYXVqWHIxK1JZemg4K0RCT25EZ0JLWE9XVnB3eFk0WjFXa2NBNk5PbmovVng1ODZkc1dUSkV2ejQ0NDlJU2twQ1VsS1NkVXJJM0N6OUxENzg4RVByQ0t1WW1CZ01HalNveUhFQ3dLRkRoekJ6NWt6ODg1Ly9STisrZmRHblR4L3JGTEtGR1NIMDNYZmZGZXU4VkVvMHl0SEp5Y240N0xQUGtKMmRqZkhqeDJQNDhPSDVUaHRxRVJnWWlCVXJWbURmdm4xWXMyWU42dFdyaDN2dXVRY1pHUmxPcDRFdENrYzNWSlExNXVpaU01bE1BSUNvcUNnc1diSUVrWkdSQmQ3RWtaS1Nnb3NYTDFxbmVqNSsvRGdNQmdPV0xsMktCUXNXV0tlV2RhUng0OFlPUjFBWFpQdjI3UkJDRkRpMVoxWldGZ0JZYzJlSERoMktmSzc4N05peEF3QktmVnI0d2dvS0NzTGh3NGVoMStzTG5GbzQ3M3Z4NElNUGxubDhkSGNTUWlBNE9CalRwazJ6RzNIdTVlV0ZZOGVPSVNrcHlmci9CbGRYVnpSbzBBQVRKa3pJOTNkNVMwRTFPenNiYytiTWdVNm53OUtsUzlHNGNXT2NPSEVDMjdadEE1QXpVMDduenAyZHpqNUNKY09pS2hFUkVSRVJFVlZLVXVJS0ZHRkt6OGpFalZzM05ZMmxXclZxT0hyMEtFd21FOHhtYzVHbS9mWDA5Q3gyMFVscjFsRlF3RzJEenNEcGZ3c2hKU1VGQm9QQlpsdDJkamFNUnFQZCttOTZ2ZDdwWnlrNE9CalBQdnRzc2M1LzRzUUptMjMrL3Y1MmhmMlBQLzdZK25qRGhnMElDZ3JDYTYrOVpuZThtVE5uRnVyemJqQVljTys5OStiYnh6SkZzcUlvT0hyMEtMS3lzbkRyMWkwWWpVWUFPUmNwazVLU3JFVVBSd0lDQXJoK1dBV2hWWTZ1WGJzMmxpOWZqaG8xYWxoSERoYkZZNDg5aHNjZWV3d21rd21Lb3FCZHUzWm8xNjVkR1VSYTlwaWppKzZYWDM0QkFDeGV2QmhoWVdFMk40a0FPZXZrcHFTa3dOWFZGWHE5SGthakVULy8vRE15TXpQUnBVc1hBTUMyYmR2ZzQrT0RObTNhWVBueTVYajk5ZGNSRlJXRmwxOStHWjA2ZFVKb2FDaTh2YjN0emkybGhORm9oTWxrZ3Nsa2dxcXExblVUODNLV2Q2T2lvckI5KzNaNGVYbkJ4Y1VGWjg2Y0FZQXltUVkwTFMwTjMzenpEZHEzYjEvc21RaEtnNnVycThQdFgzLzlOVTZkT2dWUFQwK29xb3IvL2U5L1VGWFZidTF1b3RJMmUvWnNtTTFtK1BqNE9HemZzMmVQOWJIWmJDN1NXc05BenZkLzZkS2w4UER3UUdCZ0lBQlkxNTgzR28xUUZLWEl4NlRDNDIrWlJFUkVSRVJFVkNtWlRlYkxPa1dZVWxKVGtaQndEVkpLNitnRHJhaXFXcWdSVVZXQjJXekdIeGN2V3A3ZXpESWFPUXFxRUdiTW1JRWZmL3pSWVZ2ZWRmVmF0R2lCRlN0VzJQVnIzNzY5ZFhSRFVUVnUzQmpkdW5XektUeDZlbnJpeVNlZnRPbTNZY01HQU1DeFk4Y1FHUm1KcVZPbm9tdlhybmJIVXhTbFVFVlZuVTZITjk1NHcySGI1Y3VYc1huelpnd2FOQWoxNjlmUDkwTGd3SUVEY2V2V0xhZnRXN2R1TFpWUmhWUnlXdWJvNXMyYmwvZ1lsVDJYTTBjWGo2cXFjSE56dzRzdnZvakJnd2ZiM2FSeDdkbzE3TnUzejNwemg2cXFDQWtKd2JScDA2eHI3bGFyVmcxOSt2U0JvaWdJQ2dyQzZ0V3I4Y01QUDJEUG5qMDRlUEFncmwyN1poMDFtWit1WGJzNkxhbzY0KzN0amFpb0tHUmxaY0ZrTXNIRHd3UERoZzFENTg2ZDdmcTZ1Yms1TFVnV3h1N2R1NUdSa2FIWktOV0M2SFE2bkRoeDRzNjZ3aEorZm42WVBYdTIzYlNxUWdpNHVibVY2ZzA1dVdkdm9MdFAzczlZZm9wYi9LeGJ0NjdEN2J5eHJPenhIU1lpSWlJaUlxSks2VXJNcjVmck5XMGRsNW1aNmYzN3hVc3dHbzFGR2lGS0pYUDl4azFjdWZvWEFFQktFWE05SnVhMnhpRlZDbE9tVE1IWXNXTnR0aTFkdWhUcDZlbVlObTJhelhZUER3KzcvYU9qbzYwWDgxZXZYbDJzR0JvMGFJQ0RCdzhXYW5ycXBVdVhJalEwRkgzNzluWFliaktaQ3ZXOVUxVVYvZnYzZDloMjdOZ3hiTjY4R1owN2QwYW5UcDBLUE5iQWdRUFJyVnMzbTIyWEwxOHU5L1VxS1gvTTBkcGlqaTZlUVlNR29VdVhMazVIZHI3MTFsdDQ2NjIzQU1BNmpYcmVtd1ZHakJoaFUxVFI2WFI0OU5GSDhlaWpqMXEzV1VhaldtYTRrRkphLzFqa0xuanUycldyVVBHSGhZWGhpeSsrS0ZUZmRldldGZGpubFZkZWNicEVnYWVuSjhhT0hWdWlhWFFmZU9BQkhEOSt2TkQ5UTBOREM5Mi9WNjllNk5XclY0SDl2THk4Y09qUW9RTDdmZmJaWjRVNkx4RlZiU3lxRWhFUkVSRVJVV1ZsbE1BQkFUU09pZmtEbVprR1hyQXZSM0h4OFVoTVNnWUFDTWlqR29kVGFUaGFWOUV5RGFTajBYVjUxMVE5ZS9ZczFxNWRtKzg1TE5NTDV6Y0M2ZUdISHk1VVVmWGRkOTlGZkh3OHRtelpncDQ5ZTlwTnArcW9xQm9YRjRlWW1CZ0F3SlVyVjJ6aTJycDFLMXExYW9YdzhQQUN6KzFNU0VnSUlpSWliTGFWWkxRVmxSbm1hQTB4UnhkZllhZktkVGJ5MnRrSXN0eXF3c3dXanRiWUppS3E2bGhVSlNJaUlpSWlva3JMSk9WdW5SQmp6OGY4anN6TVRIaDdGMzY2TFNvK0tTWGk0aEtzRit6TkpoelJPS1JLUlVxSkgzNzR3Zm84TVRFUm1abVpPSERnZ0hWYnAwNmRIQllLKy9YcmgzNzkrdVY3L0dIRGhrRlYxVklaVlJNY0hBd2daN1RTL3YzNzhlbW5uOExGeGNYYWJqUWFiWjREd01LRkN4MGV5MncyNDdQUFBrUE5tald4ZnYzNllzZVVucDV1dC81c2ZsTUNrM2FZbzdYQkhFMUVSRlEyV0ZRbElpSWlJaUtpU2l2TmxQNkRqK0tWL2xkc25FZjh0V3NJREt4ZThFNVVZbVlwY2ZIU0phU2xwVUZLeFAwWmMrcWMxakZWSmlhVENWT21USUZlcjdjWnFUUmp4Z3lZeldaa1pXVmg5KzdkQ0FvS3l2YzRrWkdSV0xkdUhWNSsrV1UwYXRTbzJQRmN2WG9WOTk1N3I5MzIwTkJRQURtRjFkbXpaMlBxMUtsNDU1MTNNSHYyYk92cmtGTGFqVDU4N2JYWHJDTkpyMTY5aXFsVHB3SUEzTjNkTVhMa1NDeFpzZ1Q3OXUzRFk0ODlWcXg0VjYxYWhWV3JWaFZyWHlwZnpOSGFZSTR1UEtIMVl1eEVSRlNwc0toS1JFUkVSUC9QM24xSFoxVWwrdi8vN1BPVTlBSWtOQkdpcUhRU3NHQkJaY0EycUlnb09Pb0lVN3hleFlKK3ZkWXBlaTNqek9nNGc4TlB4QTZpS0FxaU9DaU9YVUFjcFlVYWFnSVI2U1NRL2p6bjdOOGZTSzRSakJDU25KVDNheTNYNHJUOWZKNHMzUXY1c1BjQmdFWnIxOXExZTVLN1ptYTdybnZxWjUvUFU2OGVCMjZmaXRvWGpVUzBPSHZaZDBmZSs1S2lmdVpwclA3NHh6OGVzSDNpbDE5K3FkR2pSeC9TODB1WEx0V2NPWE1xUzh1YWF0R2l4UUh2ekh2eXlTZXJIQThhTkVpWFhYYVpwazJicHI1OSsrcmlpeTlXSkJLUmRPRFd1MGNkZFpTNmRPa2lTUWRzYnpsaXhBaE5uRGhSNDhlUDE4Q0JBMnUwL2VXd1ljT3F2SnRRMnZkTzFSOWJJUXYvTUVmN2d6a2FBSUM2UWFrS0FBQUFBR2pVck5XL0pOdHYrdHN6elgvOVp1UUJXNUdpOWhVVTd0RVgvL2xLMXNxTlJtMzFML2hFblZtL2ZyMVNVMU4xMUZGSEhYQnQyYkpsT3Zua2t3LzYzTU1QUDZ6enpqdXY4amdoSVVGRGhneXBjczlMTDcxMHdITzMzbnFyNXMyYnAvSGp4K3Y4ODg5WFJVV0ZKQjNXZjNPeHNiRWFQbnk0Sms2Y3FGV3JWcWxIang2SC9PeCtSeDk5dFByMTYxZmwzUDczMHFMaFlZNnVmOHpSQUFEVURVcFZBQUFBQUVDalpoWDkyQ2kwYTBQdXhsWUxGMmZyMUZOTzhqdFNremY3M3g5cHo1NjlrdXlhL0xWTFAvTTdUMk9WazVOelFCbTRldlhxUTNyV2RWM05uVHRYblR0M1B1ajFkdTNhNlpwcnJqbm90YTVkdXg1ZTBPL0V4OGZyMFVjZlZWcGFtc0xoc0FvS0NpUWR1RkwxcDF4MTFWVzYvUExMbFpaV3M2MWdYZGRWZVhsNWxYUDdWODJpNFdHT3JuL00wUUFBMUExS1ZRQUFBQUJBbzJiS3ZQVW1Yb3NrbmZQRzlMZjRBL3Q2OE93TEUvZi9jb1lrNjJPVVJ1MjExMTdURzIrOFVlV2M1M21IOU96Q2hRdTFhOWN1N2RtelI3bTV1Y3JJeUtoeXZWV3JWcnJpaWl0cUxldCszYnAxcS94MWFXbXBwSDJyVHc5SGNuTHlFV1VZTjI2Y3hvMGJkMFJqb1A0d1I5Yy81bWdBQU9vR3BTb0FBQUFBb0ZITHkxdTV0VlBYM3Y4eGNuNjJjRWwyWU91MjdXclRPdDN2V0UzV1YxOHZWUDdtYnlWcjk3cFI5Mk8vOHpSR3hoaDE2TkJCdDkxMm13WU1HRkRsMnBJbFMvVEhQLzd4Sjk4MSt2VFRUeXNoSVVIcDZlbjYvZTkvcjZlZWVrcUppWWwxR2ZzQVJVVkZrcVM0dUxncTUrKzg4MDQ1amlOSnNyYjIrNXlMTDc1WVo1OTk5a0d2dFd2WHJ0WS9EMGVHT2JwK01VY0RBRkIzS0ZVQkFBQUFBSTJkNThsOEZqQjI5Tlp0MjFMbi8rY3JEYm53NXpMRytKMnJ5WWxFSW5yMWplbVNKR3UwM0FrNGEzeU8xQ2dGQWdHOTlkWmJCNzJXbVpuNW85ZjJtejE3dGhZdVhLalJvMGZyN0xQUDFzaVJJL1ZmLy9WZitzTWYvcUR1M2JzZmRwNzgvSHlkY2NZWlZjNlZsNWVyZmZ2MjFUNjNaTWtTU1ZMcjFxMnJuTC9nZ2d0MHpESEhTSkoyN3R5cHlaTW5WenZPL25JMkdQenBQNllhTldxVXNyS3lsSm1aK1pQM0ZoVVYxUkZHWlVVQUFDQUFTVVJCVkh2UmpJTmlqcTRuek5FQUFOUXRTbFVBQUFBQVFLTzNhVlh3bzR3dTBkelMwcktzV2JNLzBNQUJaeW1KTXFYVzVheFpxeSsvV2locjVWcVpPWGs1UzNMOXp0U1lqQnc1OG9pTHBLVkxsK3FCQng1UWVucTZycjc2YXNYR3h1cVpaNTdSWFhmZHBXdXV1VWJISFhlY3RtM2JwcGlZR0kwZlAxNk80OGdZSThkeDVIbWVJcEdJb3RHb1BNL1R6VGZmTEduZmRyeFhYMzExbGM5NTlkVlhxeHpQbURGRFM1WXNVVnBhbXVMajQ3Vno1MDY5K2VhYlNreE1WSThlUGFyY08zRGdRSjE1NXBtU3BMVnIxeDVRcWs2ZlBsMjV1Ym1LajQrWHRWYnZ2ZmVlakRIcTJMSGpUMzcvVWFOR0hmVDhuajE3TkhueVpJWERZWVZDSWVYbTVtcmR1blhxMTYvZlQ0Nkp1c2NjWFQrWW93RUFxRnVVcWdBQUFBQ0FKbUJCeERPOS94aVFtZjc1bkhuQk5XdlhxMjlXYjc5RE5TbXU2MnJ1RjE5cXk1WXRrbFRneXAwazN0VjNXSDd4aTE4b0xTM3RzSjZKUkNKNjRva25LbytuVFpzbXovUDA2S09QVnI3THRFZVBIbnI5OWRjMWUvWnNmZmpoaDRwRUl0cTVjNmNtVHB5b2FEUjYwQzE0VHozMTFNcVZvY25KeWJyMjJtdXJYSjg5ZTNhVlk4ZHg5UGJiYjFjNWQ5UlJSK21lZSs2cFhBM2FvVU1IL2VsUGYxTFhybDByNzhuSXlOQ3NXYk9Va3BKU2VXNzc5dTE2K2VXWEs0K1RrcEkwWnN3WXRXM2I5ckIrTnQrWG1KaW9LVk9tcUtTa1JOSys5N3oyNzk5ZnYvM3RiMnM4Sm1vVGMzUmRZNDRHQUtEdXNjOEdBQUFBQUtDcENHUjB6WHpmR0RQd1oyZjExN1BqbjJCN3lWcTBaKzllamJqNjExcTlkcDA4YS8rWnQyckpMWDVuYXVqc2QyMm10VmF1Nng3UzlyWS9wYUNnUUlzWEx6N2dYYXcveGZPOHluSjEvOHBWU2RxOWU3Y2lrY2dCVy9qK21QTHljcFdWbFNrWURDb2hJZUh3d3YvQS9zSTNGQW9kMFRqZlY5M1AyakFoK0kwNXVnNHhSd05vckRLNlpnMlEwWnZwclZxbFR2am40K3JEWDdwcDlqWi91MFcvdWY1bXJWNnpOdUs1M3VpODFkblArcDFwUDhmdkFBQUFBQUFBMUJMWFd2dXdySTE4Tm1lZVBwc3p6Kzg4VGNxcnIwL1htblhyWmEzZFhiakYvTkh2UEkySk1hWldDbFZKU2sxTlBleENWZHEzMGpRUUNDZ1FDRlFXcXBMVW9rV0xReTVVSlNrbUprWXBLU2xIWEtoSys5NmhXcHVGcWxTN1AydlVPdWJvT3NRY0RRQkEzYU5VQlFBQUFBQTBHVkZUc2NSS0gwVmQxLzdsOGJIYXNuV3IzNUdhaEtYTFYraXhmNHlUdFRacWpmNWVVTEM0d085TUFCb2Y1dWk2d1J3TkFFRDlvRlFGQUFBQUFEUVozNnhhdGRPemV0N0k3RjIvSVUvVDNweXBpb3FJMzdFYXRkMjdDL1NQY1U5OXQxV3JWbmdSOXhXL016VVdCZzJLMy84K2dEbTZMakJIQXdCUWZ5aFZBUUFBQUFCTnlzYWN5QXhyN2JzVkZSVjZaZW9iMnBTZjczZWtSc3RhcXc4LytWUmYvdWRyU2FxUTlWN1l0SGJaZXI5ekFXaThtS05yRDNNMEFBRDFpMUlWQUFBQUFOREVyS2pZVlJ3ZGJhM04vWGJMVnYxajNGTXFMUzMxTzFTamxQL05aazE2K1RXVmxKYktXbjJSVzc3bktVblc3MXdBR2pQbTZOckNIQTBBUVAyaVZBVUFBQUFBTkRsNzhwZnZjcjNvUFZhMitOM1ovOVpUejc2Z1NJUXRKZzlIY1hHeC92cjRFMXEyWXFXczFiY1ZubnU5Y25QTC9NNEZvUEZqamo1eXpORUFBTlEvU2xVQUFBQUFRSk5VdHR1K1l6MHp4ZlU4NzRXWFh0SGIvM3BQMXJLQTUxQzRycXMvUHpaVzc4Nyt0NnkxNWE3Y2V6ZXZYcnJLNzF3QW1nN202SnBqamdZQXdCK1VxZ0FBQUFDQUptbjc5aFZGa1VqRmd6S2FXMVJVclBIUFBLOGwyY3Y4anRYZ1JhTlJUWjAyUTIrOU0wdWV0UkVyUFZteDI3enVkeTRBVFF0emRNMHdSd01BNEI5S1ZRQUFBQUJBazdWNS9ZcU5pa1p1c2RhdVg3OGhWMy8rMnorVS84MW12Mk0xYUYvODUydE5lTzVGRlJVWHkxbzdKeHExajIvZG1sM3NkeTRBVFE5ejlPRmpqZ1lBd0QrVXFnQUFBQUNBSmkxM3pZckZubzJPbEZYaGY3NWVxQnR1dVYwYk4rWDdIYXRCV3JCb2lXNjc0MTV0M0pRdmEyMnVMYTI0K3B1MTJmeXdBTlFaNXVoRHh4d05BSUMvS0ZVQkFBQUFBRTNleHB6bDh6M3IzUzVydHk5ZnVVcS91LzhoNWVadDlEdFdnK0c2cnViTW02K2JicnRETzNmdDhxeTFxeUt1dVRRdmIrVzNmbWNEMFBReFIxZVBPUm9BZ0lhQlVoVUFBQUFBMEJ5NGVUbWhTWjcxYnBOVU1QZUxMM1hIdmZkcFpjNXF2M00xQ1AvKzZCUDk0WUUvYWV1MjdaSlJkaVRxL2VhYk5ZdVgrSjBMUUxQQkhQMGpvdEdvM3Y3WExQM3UvZ2UxWmVzMjVtZ0FBSHhFcVFvQUFBQUFhQ1lXUlBKeWxyN3F1ZTVWVmlwWXNHaXhmbnY5TGZwc3pqeS9nL25HV3F2blhueEpkLzN1ZnVWdDNDUXJtK2RHM011L1didDB2aVRyZHo0QXpRbHo5QTlaYS9YWHYvMWREL3p2QTlxNWRiT01zWnVab3dFQThJL3hPd0FBQUFBQUFQWE02ZFFsNjBySDJEL0xtQTVwYWExMHorMjM2cUxCNXlzVUN2bWRyZDdzTGlqVTA4KzlxT2NudmF5S2lvZ3IyV3pYVkl6Y3RITGxNcit6QVdqV21LUDFmM1AweEpjbUs4YTRrbEcwdUtKaTFKcmx5MS94T3hzQTFLYU1ybGtEWlBSbVlrSjg2dkJMaDZyRFVlMzlqZ1NmN2RtelIxTmVuNjd0TzNaRVBOY2JuYmM2KzFtL00rMUhxUW9BQUFBQWFJNENuYnBrbnVVWSsxY1o1NlNFK0hnTkgzYUpydjNWTldyZnZwM2YyZXJjMHVVcjlQODk5YXcrL215T0lwR0lyTFd2V3RkOUlHL05zcFYrWndNQU1VZFh6dEhXalNnaFpDTEdxTkIxM1l1enM3UG4rNTBQQUdwVHh5NVpaemlPZmR2SXRQUTdDeG9hVzJGZGUxM3U2dXlKZmlmWmoxSVZBQUFBQU5Cc0hkMmxTM3ZIeEQ1aHBFc0RqdU4wNzk1VkQ5Ly9lL1hxMGQzdmFIVWlHbzNxdFRmZTFCTlBQcTBkTzNmSzg2eHJyWGRmc2NxZjJKR1RzOWZ2ZkFEd2ZjelIxZzBIdk1rSjRjQWx4cGl5YURSNkthVXFnS2FtVGVmZXJlTkM1a0ZKSGYzT2dnYW53SXRHSDl5NGR2a0t2NFBzUjZrS0FBQUFBR2pXT3ZUbzBUTG9CaDh4MGxVeUpqRTVLVWwvdU9jT0RScHdsbEpTa21WTTQvOWZaOCt6MnJaOW01NmYrTEltdnZ6cS90V3AzMWg1Zjg1YnRYU0NwSWpmR1FIZ1lKcjdITjBpTnJEQkdET1pVaFZBVTlhbVRlK0V1RGluK2V6eGprTlNGRlBxN3NqSktWSURlbzk0NC85ZEJ3QUFBQUFBUjZoRGh3NXh3Y1MwRVRKMnRLeE9Nc1k0UHovdkhGMXgrYVU2NDdSK0NnUUNma2Vzc2NMQ1BmcndrODgwZWNwVUxjNWVLc2xXV0d2ZTgxejNueHZYTFAxRVV0VHZqQUJRbmVZOFIvZnQyL2NjYSswVVNsVUFBUHhIcVFvQUFBQUF3SGVPN3RLbmZjRHhIalF5dnpIR0tDRWhYcG05ZSttZTI4ZW9lN2V1ZnNjN0xOWmFmZnpwNS9yN1A4ZHIzZm9OS2lzdmw1VXQ4S3p1S3JGbFU5anVGMEJqMHh6bjZMNTkrMTVBcVFvQVFNTkFxUW9BQUFBQXdBOTBPS0hYNEtEai9FRkd2V1FWSHhjWFp5NDRiNUN1K2NVSUhYTk1KeVVuSmN0eEd0Ny9VcnV1cXgwN2QybEo5akk5UDJteS92UDFRbGxyUFJtelc1NzNwWFhONy9QV0xsbmtkMDRBT0JMTmFZNm1WQVVBb09Gb2VMKzdBQUFBQUFDZ0FXaDczSEhwc1lINHkyWE1TRW1uR0dPYytMZzRuZG4vTlAzc3JQNGFjTmFaYXAyZTVuZE1TWkxuZVZxN2JvTSsvdXh6ZmZEUnA4cGV0dnk3ZC9MSmxiVXpyZEZMZWF1V3pCVHZUZ1hRUkRTWE9acFNGUUNBaG9OU0ZRQUFBQUNBSDJjNmRPalJ3a2x3QmpuR3VWdFNsakhHaVFtSGxaS1NyTlA2bmFJaEYvNWNwNTk2c21KaVl1bzkzSzdkdS9YaHg1OXA1cXozdEdKbGpncjM3SkhydXBLMTVkYWEyYTZpRDVidDhsWnQzNzZpcU43REFVRGRhL0p6TktVcUFBQU5CNlVxQUFBQUFBQ0hKdFNwVytaRnh1cG1JL1d3VXBveHhwR2tsSlJrblROd2dFN3UyMGZkdTNWUmFrcUtFaElTRkI4WGU4Ui9rTzk1bnNyTHkxVlNVcXFpNG1KdDI3WmQyY3RYNk12L2ZLVTVYM3lwc3JMeS9iZFdTSGFyOVRRLzZrWCtscjlteFZlU3ZDUDd5Z0RRYURUSk9acFNGUUNBaG9OU0ZRQUFBQUNBdzlDaFE0YzRrOWpxeklEVlFCbjFNOFprU1VyZGZ6MGNEcXRUeDZQVjZlZ09hdHUyalZxMWJLa1dxU2xxMmFLRldyVnFvWVNFUkNVbUppZ3hJVjZKaVlrS2g4SXFMUzFWVVhHUmlvdEx0TGVvV0h2Mzd0WE9YYnUwYTFlQkN2WVVhc2VPbmZwbTg3Zkt5OXVrelZ1MjdGdnA5QjFydGRuSUxyVFNYTmU2SDJ6S1dmYTFIejhYQUdnSW10b2NUYWtLQUVERFFha0tBQUFBQUVETkJETXl1cWZaWUtpZGdocG9yTTR4eHB3a293TmU0aGNPaHhRVGpsRk1URmpCWUVpaFVGREJZRkNoWUZDTzR5anF1b3BHbzRwR280cEVJb3BFb2lvdkwxZDVSWVdpMGVpQm4yeVZaNjJkTDJQZmxXZS9qRGlSN2Qrc1dyVmJyRXdGZ1AyYXhCeE5xUW9BUU1OQnFRb0FBQUFBUU8wSmREeXVSeGNUQ0o0cW1aTmt2T01kT2EwbEd5dGpZcXhzakdSQ3hpcGtwWkNSRFhuV09vNWpvbFltS3F1SWtTSjIzemFSNVpMS0pSVkw5aHRybENPckwwdkx2VG5iTml6YjZ2Y1hCWUJHNkxEbWFDc2JjaVRIeWtabEhGL21hRXBWQUFBYWpxRGZBUUFBQUFBQWFFTGNqV3VYcjVDMFF0THozNTBMSFgxMGwzUWJIMG9MS05ES3lFMzJGRWcwc2treFFYdVdNVW9waWVwREsrMTFqTGZYazdQWHVyYlFXSGRudVMzYnNXWHQydTArZmg4QWFFb09hNDVPQ05taHdZQnpRdFF6Sy9kVzJKa0J4eFl3UndNQTBIeFJxZ0lBQUFBQVVMY2ltemJsYkphMCtZY1grdmJ0TzhCYWUvVEtaWXNlOXlFWEFLQ2FPVG9ySzZ1LzR6am5CeHo3ZWNuZWdoZHpjM1BMZk1nSEFBQWFDTWZ2QUFBQUFBQUFORWM5ZS9ZODNWcDdxakhtK0t5c3JBdjl6Z01BQUFBQStIR1VxZ0FBQUFBQStDQVVDbldUMU5aYUc1WjBrdDk1QUFBQUFBQS9qbElWQUFBQUFJRDZGNVNVSlNrc3lSaGplbVpsWmFYNm5Ba0FBQUFBOENNb1ZRRUFBQUFBcUdjbm5uaGkyQmh6aHZrL1hheTFyZjNPQlFBQUFBQTRPRXBWQUFBQUFBRHFtZXU2UjBucXV2L1lXbnRDSUJEbzRtTWtBQUFBQUVBMUtGVUJBQUFBQUtobnhwaGZTNHF6MXNwYUsyTk1qT2Q1bC9xZEN3QUFBQUJ3Y0pTcUFBQUFBQURVcjZDa1VUODhhWXk1Nk1RVFR3ejVrQWNBQUFBQThCTW9WUUVBQUFBQXFFZTllL2MreHhqVDNscGJlZTY3MWFycHJ1c085ekVhQUFBQUFPQkhVS29DQUFBQUFGQ1BBb0hBNWRWY3ZxSGVnZ0FBQUFBQURobWxLZ0FBQUFBQTlhUkxseTd0alRGOTk2OVNOY2JJR0NOcDMycFZ4M0V5czdLeWp2Y3pJd0FBQUFEZ1FKU3FBQUFBQUFEVWs3aTR1Rk9zdFoycXVTWFdHSE5CdlFVQ0FBQUFBQndTU2xVQUFBQUFBT3BId0hHY0hwSlNmK3dHYTIzUVdudEs5Kzdkdy9XWUN3QUFBQUR3RXloVkFRQUFBQUNvQnllZWVHS2l0ZlowWTR3anFYTGIzKy8vMmhoakhNZnBIaGNYMTlhZmxBQUFBQUNBZzZGVUJRQUFBQUNnSG5pZWQ1UXhwdjhoM05yTmRkMHVkUjRJQUFBQUFIRElLRlVCQUFBQUFLZ0gxdHJCa3BLdHRkWGRJMGx4eHBoQjlaVUxBQUFBQVBEVEtGVUJBQUFBQUtoN0FXUE1mMHY3dHZyOS90YS8rLzNnL0JXU0F2VVhEd0FBQUFCUUhVcFZBQUFBQUFEcVdHWm01b25HbU9NTzlYNWpURWFmUG4wRzFHVW1BQUFBQU1DaEMvb2RBQUFBQUFDQXBpNFlET1o0bnBmMWc5TzlKZjFaVWl0cjdmOHp4c3o5L3NYUzB0TDhlZ3NJQUFBQUFLZ1dwU29BQUFBQUFIVnN3WUlGaFpLV2ZQOWM3OTY5NHdLQlFJVXh4aHBqMWk5Y3VIREpqendPQUFBQUFQQVoyLzhDQUFBQUFBQUFBQUFBUURVb1ZRRUFBQUFBQUFBQUFBQ2dHcFNxQUFBQUFBQUFBQUFBQUZBTlNsVUFBQUFBQUFBQUFBQUFxQWFsS2dBQUFBQUFBQUFBQUFCVWcxSVZBQUFBQUFBQUFBQUFBS3BCcVFvQUFBQUFBQUFBQUFBQTFhQlVCUUFBQUFBQUFBQUFBSUJxVUtvQ0FBQUFBQUFBQUFBQVFEVW9WUUVBQUFBQUFBQUFBQUNnR3BTcUFBQUFBQUFBQUFBQUFGQU5TbFVBQUFBQUFBQUFBQUFBcUViUTd3QUFBQUFBQUFDb2U5WmE2M2VHMm1DTU1YNW5BQUFBUVBQRFNsVUFBQUFBQUFBQUFBQUFxQWFsS2dBQUFBQUFBQUFBQUFCVWcxSVZBQUFBQUFBQUFBQUFBS3BCcVFvQUFBQUFBTkRNckYyN1ZoVVZGZFhlNDdxdWR1ellVV3VmV1ZSVTlKT2ZDUUFBQURSVWxLb0FBQUFBQUFETnlLWk5tM1QxMVZkcjd0eTVLaWtwT2VDZnNySXlTZEtzV2JOMHlTV1hxS2lvcUZZK2Q4aVFJWHI1NVpjUDZkNk5HemRxK1BEaGlrUWl0ZkxaQUFBQXdKRUsraDBBQUFBQUFBQUE5ZWZ4eHgrWHRWYjMzSFBQUWE5blpHVG81WmRmMXJQUFBxdjI3ZHZyOWRkZlArQ2VRWU1HS1RzN1cvUG56ei9vR0tOR2pUcWdFSFZkVjl1MmJkT0tGU3VxbkU5UFQxZDZlbnJsc2VkNWV1Q0JCN1IrL1hvOSsreXp1dUdHR3c3M0t3SUFBQUMxamxJVkFBQUFBQUNnbVJnN2Rxd1dMRmlnNmRPbnEwT0hEdFhlbDUrZnIyN2R1bFdXb092WHI5ZXVYYnQwMGtrbjZaUlRUcEhuZVhKZFYrdldyZE9XTFZ0MHhobG5WRDQvWWNJRWZmenh4d2VNTzNYcVZFMmRPclhLdWV1dXUwNy8vZC8vWFhuODZLT1BhdEdpUlpLazU1NTdUc2NmZjd6T09lZWNJL3JlQUFBQXdKR2lWQVVBQUFBQUFHZ0dkdXpZb1duVHB1bXV1KzdTWlpkZHBtQXdLR3V0akRHU0pHdXRPbmZ1ck91dXUwNlRKazFTZW5xNk1qSXk5TkJERDBtU3JyLytlbVZsWmVrUGYvaURKS2xIang0YU1tU0lIbjc0WWJWczJWS1BQUEpJNVdjVkZSWHA3cnZ2cnZMNXc0Y1AxK1dYWDY0cnJyaWl5dm40K1BqS1gvL3RiMy9Ub2tXTE5HVElFTDM5OXR2NjFhOStwYi8rOWErU1JMRUtBQUFBWC9GT1ZRQUFBQUFBZ0dZZ0xTMU5NMmJNVUhKeXN0TFMwalIzN2x4ZGUrMjE2dCsvditiTW1hUGJicnROeWNuSjZ0T25qMjYvL1hiOTVTOS8wWWNmZnFqYzNGeXRXYk5HQ3hZczBOQ2hRdzhZTnk4dlR4MDdkcXh5TGpFeFVRa0pDWXFQajYvOHh4aWpVQ2hVNVZ4cWFtcGxxVnBlWHE0T0hUcG84dVRKT3VhWVl5UkpaNTk5dHFaT25hbzllL2JVL1E4SUFBQUFxQVlyVlFFQUFBQUE4SkcxTm15TUdkZW5UNSs5Zm1kQjA3Wnc0VUk5OHNnaktpd3NWRWxKaVlZUEh5NUpLaXdzMUlnUkkxUlFVS0R5OG5MOSt0ZS8xczkvL25ObFptYnEvUFBQMTExMzNTVmpqQzY2NkNMMTZ0V3J5cGllNXlrbkowZng4ZkY2N2JYWEpFbEpTVWthUEhpd0xyendRaFVXRmxhNWY4S0VDWm93WVVMbDhaZ3hZelJ5NUVoSlVreE16QUdyV0NVcE5UVlZ3NFlOcXp6dTA2ZlBvdHI1aVFBL3FaUGZBUUFBUU1OQnFRb0FBQUFBZ0E4Q2dVQ3BNYVpjKzNhUjZyeC9DMWFncnZUbzBVUGp4bzNUUGZmY285Tk9PMDFEaGd6UnZmZmVxMUdqUnVua2swL1crUEhqNVhtZWJyenh4c3JWbzVkY2NvbG16cHdwYWQvMnZ6K1VrNU9qb3FJaTVlVGthTTJhTlNvcUtsSnFhcW9HRHg0c1NSbzZkS2dHRFJwMDBEdy8zQjc0VUJsanNtcjBJRkFEMWxwUFVuRjhmTHpuZHhZQUFPQXZTbFVBQUFBQUFIeXdmZnYyMVdscGFRODZqbk9jMzFuUVBNVEV4TnpmcGswYmJkeTRVYi81elcvVXFsVXJuWHZ1dWZyc3M4OTB3UVVYS0JLSktEMDlYZW5wNmFxb3FOQUxMN3lncDU1NlNpZWNjSUk4ejlQdHQ5K3VFU05HNkZlLytwWGF0R2tqU1pvM2I1NVNVbEwwemp2dktCQUk2TEhISGxOT1RrN2xad1lDQVlYRDRkcitLdmZYOW9EQWp6SEdSSzIxczFlc1dGSGhkeFlBQU9BdlNsVUFBQUFBQUh5UW41OWZtcCtmLzdMZk9kQ3MzTDk3OTI1RkloSDk3bmUvcTNKaHdJQUJLaTB0VlRnY1ZtRmhvUll2WHF5U2toTGRmUFBOK3NVdmZpRkptakpsaWlaUG5xeTMzMzViVTZaTVVjZU9IZlh1dSsvcTdMUFBWaUFRa0NSdDNMaFJuVHQzcmh4M3hvd1pldnZ0dHc4YUpoS0oxT2hMTEZ5NDhIOXI5Q0FBQUFCd0JDaFZBUUFBQUFBQW1va1dMVnJvMDA4L3JUd3VMeS9Ydi83MUw3Mzg4c3M2NVpSVE5IejRjQjE3N0xIYXRHbVQyclp0cXcwYk5takNoQW02N3JycmRNMDExK2pLSzY5VVhsNmVPbmJzcUVXTEZtbkRoZzI2NG9vck5ILytmUFhyMTAvTGx5OVgvLzc5SzhlLzZhYWJLdCtaK2tNREJ3NnM4KzhMQUFBQTFCWktWUUFBQUFBQWdHWm01Y3FWZXYvOTl6VnIxaXoxN2R0WGQ5OTl0MkppWXJSMTYxYXRYNzlleGNYRldyeDRzZDU3N3ozMTY5ZFB1Ym01T3Y3NDR4VU1CaXRYb3I3d3dndkt5TWhRU1VtSmJybmxGbDF4eFJVcUtDaFExNjVkS3o4bkx5OVA4K2JOTzJpR2FEUmFMOThWQUFBQXFBMlVxZ0FBQUFBQUFNM01ZNDg5cHJWcjF5b3BLVW01dWJsNit1bW5aWXpScWxXclZGeGNyTjY5ZTJ2dzRNRzY2YWFidEdyVktoMS8vUEVIakhIODhjZnIzSFBQMWNVWFh5eGpqTWFPSGF2MDlIVDE2dFdyOHA1MzNubEg3NzMzM2tFemxKV1YxZG4zQXdBQUFHb2JwU29BQUFBQUFFQXo4OXh6ejhsYXEzWHIxbW5ldkhsYXNHQ0JRcUdRYnIzMVZwMTU1cGxLVDArWEpHM1pza1ZQUGZXVXBrK2ZydnZ2djE5SlNVbVZZNHdlUFZyV1drblNWVmRkcFZkZWVVWG5ubnV1akRHVjk5eDQ0NDFzL3dzQUFJQW1nVklWQUFBQUFBQ2dHVm0zYnAwZWV1Z2hyVm16UnFXbHBVcEpTVkd2WHIxVVVWR2gyYk5uNjYyMzNsSkpTWWxLU2twVVdscXFrcElTclZpeFFyLzg1Uy8xK09PUFYyNy9Hd2dFS3NlY05XdVd0bS9mcnNHREIxZjVyQTBiTnVqenp6OC9hQTYyL3dVQUFFQmpRcWtLQUFBQUFBRFFqR1JrWktoNzkrNDY3YlRURkFxRkZBNkgxYTVkTzRYRFllWG01dXJ2Zi8rN0huLzhjWFhxMUVtbHBhVnEwYUtGWW1KaTlNZ2pqMmo4K1BGNjdMSEhxb3hYVkZTa2NlUEc2Ynp6emxPM2J0MnFYSnMxYTViZWYvLzlnK1pnKzE4QUFBQTBKcFNxQUFBQUFBQUF6VWdnRU5DSUVTTTBiZG8wdmZYV1c4ckt5dExZc1dNbFNURXhNWktrVHAwNktTTWpRemZkZEpQV3JGbWp3WU1INi9ycnIxZW5UcDBPR08vaGh4OVdVVkdSeG93WmM4QTF0djhGQUFCQVUwR3BDZ0FBQUFBQTBFek1uajFia3laTjB1clZxM1g2NmFmcm9ZY2VVbXBxcWo3Ly9IUEZ4TVRvblhmZWtTUzFiTmxTa3ZTUGYveERIMzMwa2Q1NDR3MU5talJKZmZ2MjFhMjMzcW9lUFhwSTJ2ZHUxdmZmZjErMzMzNjcyclp0SzBsYXRHaVJ0bTNicGtna290V3JWMnYyN05rSHpmTDk2K2VkZDE2VmQ3RUNBQUFBRFEyL1d3VUFBQUFBQUdnR3JMVjI0Y0tGbWo5L3ZvWU5HMVpaZ2s2ZVBGbGp4NDZWNTNtS2k0dlR5SkVqZGQxMTF4M3cvS3BWcXpSbHloU05IajFhYmRxMDBadzVjelJtekJoZGRkVlZ1djMyMnl2dnUvUE9PelYzN3R6RHl2YlpaNTlWZVVkcmRRenRLNXFSdm4zN1htQ3RuV0tNS1l0R281ZG1aMmZQOXpzVEFBRE5GYjhKQlFBQUFBQUFhQWFzdGZZbnJoL1dhbEhQOHpSanhneGRldW1sOWJyS2xGSVZ6UW1sS2dBQURRZmIvd0lBQUFBQUFPQ3dpMUhIY1RSczJMQTZTZ01BQUFBMExJN2ZBUUFBQUFBQUFBQUFBQUNnSVdPbEtnQUFBQUFBUURQQXRya0FBQUJBemJGU0ZRQUFBQUFBQUFBQUFBQ3FRYWtLQUFBQUFBQUFBQUFBQU5XZ1ZBVUFBQUFBQUFBQUFBQ0FhbENxQWdBQUFBQUFBQUFBQUVBMUtGVUJBQUFBQUFBQUFBQUFvQnFVcWdBQUFBQUFBQUFBQUFCUURVcFZBQUFBQUFBQUFBQUFBS2dHcFNvQUFBQUFBQUFBQUFBQVZJTlNGUUFBQUFBQUFBQUFBQUNxUWFrS0FBQUFBQUFBQUFBQUFOV2dWQVVBQUFBQUFBQUFBQUNBYWxDcUFnQUFBQUFBQUFBQUFFQTFLRlVCQUFBQUFBQUFBQUFBb0JxVXFnQUFBQUFBQUFBQUFBQlFEVXBWQUFBQUFBQUFBQUFBQUtnR3BTb0FBQUFBQUFBQUFBQUFWSU5TRlFBQUFBQUFBQUFBQUFDcVFha0tBQUFBQUFBQUFBQUFBTldnVkFVQUFBQUFBQUFBQUFDQWFsQ3FBZ0FBQUFBQUFBQUFBRUExS0ZVQkFBQUFBQUFBQUFBQW9CcVVxZ0FBQUFBQUFBQUFBQUJRRFVwVkFBQUFBQUFBQUFBQUFLZ0dwU29BQUFBQUFBQUFBQUFBVklOU0ZRQUFBQUFBQUFBQUFBQ3FRYWtLQUFBQUFBQUFBQUFBQU5XZ1ZBVUFBQUFBQUFBQUFBQ0FhbENxQWdBQUFBQUFBQUFBQUVBMUtGVUJBQUFBQUFBQUFBQUFvQnFVcWdBQUFBQUFBQUFBQUFCUURVcFZBQUFBQUFBQUFBQUFBS2dHcFNvQUFBQUFBQUFBQUFBQVZDUG9kd0FBQUFBQUFBQUFBQUJKYXQrK2ZYd29LYTJOS3k4cFlFeUNrY0pTd1BpZHE3bHdQYytWOFVvRDFoU1ZlYVU3dDZ4ZHUwT1M5VHNYMEJCUXFnSUFBQUFBQUFBQUFOOGNmWFNYOWs1QzdEQmo3RG1TMDFPeUNTRWJERmhqQTJMSHpYb1ZDQmdyRy9TTXNXNnNreEE1cG12dmI2MDBMeXJ2emZ4VnkrWklpdnFkRWZBTHBTb0FBQUFBQUFBQUFLaFhMWTQ5TmlVeGtKQVpDRGczU0dhd01VcVdqSXd4aW9tSlVUZ1VWakFZa09NRS9JN2FyRmhyNWJxdUl0R0l5c3ZLRlhYZG80eDBVa2pPTFJsZHM1WjcxbnMyR29sTzM3eCt4V1pSc0tLWm9WUUZBQUFBQUFBQUFBRDFKcU5MN3d1TU1iKzBSa09OVElJeFJoMk9hcTl1WFU3UU1SbWQxUEhvRGtwSlNWWkNmTHpDNGJDTVlmZmYrdUs2cmtwTFMxVlVWS3l0MjdkclEyNmUxbS9JMWNxYzFTb3VMdW5oeUhrc0hBNy9LcU5yNXF1MnRHSmlYdDdLYi8zT0ROUVhTbFVBQUFBQUFBQUFBRkRuVWpNeVVsTmlrLzlxNUl5d3NzbEd4Z3o2MmRuNjVaWEQxYTNMQ1VwSVNGQnNUSXdDQVZhbk5nVFdXbFZFSWlvckxkUDJuVHYxOFNlZjY4bG5uZ3NVRnU3SmxFeDN4WVd2eStpYWVVUHVxaVd6L2M0SzFBZitlZ2NBQUFBQUFBQUFORUI5Ky9hOXdGbzd4UmhURm8xR0w4M096cDd2ZHlhZ3BvNDVvVWVtRndpT00xYW5oOE5oSjdOWFQ5MTAvYlU2cS8vcGZrZkRZU2pjczBkUFBmT0Mzbno3SFczYnZrUFcya0xQZW4veWluZi9NejgvdjlUdmZFQmQ0cTk3QUFBQUFBQUFBRUFEMUs1ZHUrTWtYVzZNaVhxZTk5cldyVnZ6L2M0RTFNVFJYVFBQYzR6emdqR21UNHZVVkhQclRkZnI5akUzcVZ2WEUveU9oc01VR3hPajAvcWRyS3pldmJTN29FQjVlWnRpalRFL2M4SnhyWlBqVzg4dExOeFc1bmRHb0s1UXFnSUFBQUFBQUFCQUEwU3BpcWFnMDNHOVRuTWM1MFZqVE9jMnJWdnJxU2YrcGd2T0hhVEV4QVMvbzZHR0hNZlJVZTNiNmF6K3A2dTh2RUxaeTVZN2tySk1XUEdwaVhHZkZCUVVSUDNPQ05RRngrOEFBQUFBQUFBQUFBQ2c2V25UcGZjeENqb1BTYlpUbTlicCt2T0RmMVRmUHBrS0JvTitSME10U0UxSjBTMDMvcmN1SHpwRWtvTEdtdDk2c1VuWCtKMExxQ3VVcWdBQUFBQUFBQUFBb0phZEdJbzE1bEVqRFVoTVRERDMzWHVYemp6ak5CbGovQTZHV3BTU25LeTc3N2hWRncrK1FESW1NYURBbnpvZDMvTkN2M01CZFlGU0ZRQUFBQUFBQUFBQTFLcU1ydEhmRzVtaDRYRFllZVIvLzZqenp2bVpISWRLb2lsS1RVblJmYis3Uy8xUE8xVXlTak9Cd0tTT3gvYzYxdTljUUcxakJnTUFBQUFBQUFBQUFMV200d205QjhtWS93a0VuTUNWSTRicG5JRm5VNmcyY1MxYnBPcW1HNjVWdTdadFpJeHA2UVNkUDdkcDA1c1g1NkpKWVJZREFBQUFBQUFBQUFDMW92VXhQZHM0anZtZHJJMDc0YmpPK3VXVlZ5ZzJOdGJ2V0tnSGZUSjc2K3BmREpja0dXdk9qMG0xZzMyT0JOUXFTbFVBQUFBQUFBQUFBRkFyWW1PY1U0d3gvWTB4NW9icmZxdGpNekw4am9SNlh4eWF0UUFBRTdSSlJFRlVFZ3FGOU91UlY2dG45MjZTVWJKanpJMStad0pxRTZVcUFBQUFBQUFBQUFDb0RTSEhtRHNraFU0NTZVUmRlTUc1Y2h6amR5YlVvN2pZV0QzNnlBT0tpNHVWTWM3Wm5icGxYdXAzSnFDMlVLb0NBQUFBQUFBQUFJQWoxckZMejB0bGRVWmNiS3p1L3A4eHZFZTFtZXB5L0hFNjc1eUJraVFqODJocVJsYXF6NUdBV3NHTUJnQUFBQUFBQUFBQWpraGFseTVKamduODJSampEQnA0dHJwMTZlSjNKUGhvMkpDTGxKU1VLQ04xVGdtN1YvdWRCNmdObEtvQUFBQUFBQUFBQU9DSUpDcm1sOGJvcUtURVJBMjllTERDNFpEZmtlQ2ozajE3cUUvdlh2c09qSE5scDA3ZDJ2bWJDRGh5bEtvQUFBQUFBQUFBQUtERzBycDBTYkxHRExKV29XNWRUMURmckV3Wnc3dFVtN09VbEdRTkhYS2hKTWt4cG91SkRXWDZIQWs0WXBTcUFBQUFBQUFBQUFDZ3hwSnM4RmdqOVRUR21Fc3VHcXlVNUdTL0k2RUJ1SGp3QlVwcjFVcFd0cFdNK2trSytKMEpPQktVcWdBQUFBQUFBQUFBb01haUNuUXpSc2NFZzBFTk9Pc01WcWxDa2hRSUJIVEY1VU5sOWptbmZmdjJNWDVuQW80RXBTb0FBQUFBQUFBQUFLaXhRTUNjSzVud3lTZjJVYnUyYmYyT2d3YmtzcUZERkFnRVpLMDVNWnpZcXFQZmVZQWpRYWtLQUFBQUFBQUFBQUJxekZvTmthUXJSMXptZHhRME1KMDZIcTJlM2J2SkdNWEpNU1A5emdNY0NVcFZBQUFBQUFBQUFBQlFJeDJQejd6SU1TWXRPVGxaWjU1K210OXgwTUFZWTNUbUdmdit2YkF5MTBnSytwc0lxRGxLVlFBQUFBQUFBQUFBVUNNQngveGNrazdzazZtWUdGNlppUU5sOXU2cDJOaFlPY1owNk5DNVI0YmZlWUNhb2xRRkFBQUFBQUFBQUFBMTRoazdRSkpPT0s2emdzR0EzM0hRQUxWT1MxTjZXaXRKa2hNTVpQa2NCNmd4U2xVQUFBQUFBQUFBQUhEWTJyZHZIMitrcnNZWUhaUFJTWUVBcFNvT2xKcWFvbFl0VzBxU0hPUDA5RGtPVUdPVXFnQUFBQUFBQUFBQTRMQTVpZWs5alRGT2NsS1MwdE5heVJqamR5UTBRQzFTVXl0WHFzclkzdjZtQVdxT1VoVUFBQUFBQUFBQUFCeTJvR082UzkrdFJHelYwdTg0YUtBU0V1TFZ1blg2L3NQMkxZODdMdG5QUEVCTlVhb0NBQUFBQUFBQUFJRERabzFYV2FxbXRXcmxkNXc2VjFoWXFJS0NnbG9icjZpb1NHdldyS20xOFJvcVk0d3lPblZVTUJDUXJGTGliVXhydnpNQk5VR3BDZ0FBQUFBQUFBQUFEcGR4ckRsVzJyZTlhMW9UWDZtNlk4Y09YWFRSUlJvN2RteXRqWG5ycmJkcXpKZ3hLaXNycTdVeEc2ck94MlFvRUF4SU1zbkJjQ0RON3p4QVRRVDlEZ0FBQUFBQUFBQUFBT3BIUmtaR2JHNXViaTIwZU4xRDFwZzRJeWs5clpWQ29kQ1JEK21qYURTcS9QejhhdS9Kek16VXpKa3pkZjc1NTZ0dDI3WS9lbDlTVXBKYWZiZHl0N1MwVk5iYWc5NzM2MS8vV3JmY2NvdWVmdnBwWFh2dHRUODZYbHhjWEtOL1gyM2JOcTNsT0FFWktleDVKczd2UEVCTlVLb0NBQUFBQUFBQUFOQk10R3paY255TEZpMk85anp2YVdQTW9rQWdzRzNCZ2dXRmh6dE9temJCa0xFS3kwZ0o4ZkdOdnZUYnVYT25McnZzc2tPNjk4WWJiNnoyK29nUkkzVFhYWGRKa2k2ODhFSVZGbGIvNDUwNGNhSW1UcHo0bzlkbnpweXA5dTNiSDFLMmhtcC9NV3lORFJwclkvek9BOVFFcFNvQUFBQUFBQUFBQU0yRXRUYldHRE1vRUFnTWtyVEpXdnRGVmxiV1BHUE1zdkx5OGk5WHJGaFJkQ2pqeE1UWXNKVkNSbEpjZk9OZmVOaXFWU3U5OHNvclZjN3QyclZMenovL3ZFYVBIcTM0K1BncTF6elAwL1BQUDY5aHc0YXBaY3VxV3grM2FOR2l5bkd2WHIwMFlzU0lHbWY3NFhpTjBiNVNWVEpTTUNxRi9jNEQxQVNsS2dBQUFBQUFBQUFBemRQUmtvNDJ4Z3lWdERzbUptWmpuejU5M25WZDkvWHM3T3hsMVQxWUhqS2hPQ2trU2ZGeGpiOVVEUWFENnRLbFM1VnpLMWV1MU5LbFN6VnAwaVE5L3ZqalZWYmpUcG8wU1I5OTlKRzZkdTJxMy83MnQ5V08zYTVkT3cwZVBQaUE4MlZsWlJvNmRLaXV1dW9xalJ3NXNuYStTQU1WRnh1N2I2V3FWY2lJbGFwb25DaFZBUUFBQUFBQUFBQm9ocjczcnMrd3BEYVMyaGhqVGc0RUF2ZjA2ZFBuSzJ2dDY1N252UnNJQkhZdFdyUm9weVJ2L3dOQm83RDVic1hoRDFkeE5tWkZSVVdLUnFPUzlwV2gxMTU3clQ3NDRBUGw1ZVVwTlRWVmt2VHR0OTlxL1BqeDZ0Ky92NFlORzZhQ2dvTEs1L2ZmY3lnOHo5UDI3ZHUxZCsvZTJ2MFNEVkJjWE94M3BiUUpTZzZsS2hvbFNsVUFBQUFBQUFBQUFKcWgvU3N2djFldTd2OTF5Qmh6K25mLzNHMk1XWktWbGZXVjR6aHppb3FLdmw2OWV2V09ZRUFoSzRXTm1zWksxZjN1dnZ0dWZmSEZGd2VjUDlqN1Z1Zk1tYU56emptbnlybDU4K1lwSnVid09zT1hYbnBKVTZkT1BlaTFnUU1INnI3NzdqdXM4UnFpWURDbzJKZ1k3VFZGQVdOc3JOOTVnSnFnVkFVQUFBQUFBQUNBaGkza09FN1huajE3UnYwT2dzYlBHTlB5SU9ja0hiUmNsVEdtamFUempESG5XbXQzSkNZbTdzakt5bnFuTE9KOVdlWTFuZTEvdjY5Mzc5NjY1WlpiS285WHIxNnQ5dTNiS3pFeFVkSytkNjNtNWVXcFQ1OCtsZmQ4L3Zubm1qaHhZbzArcjIvZnZ1cmZ2LzlCcjNYcTFLbEdZelpFeWNsSjJyNWpwNHluZUVsR2t2MnBaNENHaEZJVkFBQUFBQUFBQUJvZ3ovTmNZNHlWMU1weG5CZkM0YkRma2RERUhheGMvZDQxSXluZFdodHZqQmtSRGdYNmxaZDVJUm1qMHZLeWVrNWF0NUtUa3lzTDA3bHo1K3FKSjU3UWVlZWRWN2xpZE55NGNYcmhoUmQwNVpWWDZ1YWJiMVpNVEl4eWMzTnIvSGs5ZXZUUVZWZGRWU3ZaRzdLeXNuSkprclhpTDRpZ1VhSlVCUUFBQUFBQUFJQUd5SEdjRGRiYWJHdHQwMW1xaG9ZZzNSaVQ4TU9UUDFLa2Z2OTZzYVRkMXRwblhkZWR2bTFQUlZGY1hPd2JSbEpKY1VsZDV2WE4xS2xUOWRoamorbjAwMC9YblhmZVdYbCs5T2pSU2twSzBwTlBQcW41OCtmcmtVY2UrZEV4UE0rVDR6ajFFYmRCczlhcXFMaFkxbHBySEtkRXJGSkZJMFNwQ2dBQUFBQUFBQUFOME1LRkM5ZG5abVplSFkxR205YmVxdkJWVEV6TVB5UmR1UC9ZV2x1bFBKV3FsS2w3UGM5N3cxbzcwMXE3eG5HYzhtM2J0bjJ6ZWZQbWtveU03bTBsVlVoU2NVbHBQYVd2SHhVVkZicjMzbnMxZS9ac25YNzY2YnJpaWl1VW5aMWQ1WjZ1WGJ2cXV1dXUwOVNwVXpWcTFDaU5Halhxb0dPVmxKUW9KU1ZGa3BTZG5hMlZLMWRXWG90RUlwS2tsU3RYNnJYWFhqdmcyYUZEaHg3Misxa2JxcExTVXJtdUsyTk0xTHBlMDFyYWpHYURVaFVBQUFBQUFBQUFHaVp2eVpJbDMvZ2RBazFMbno1OTlocGpEcll5MVJwajlscHJkMHBhN0huZWxNV0xGNy8rWStORW82WWlhRXlGdEs4NGJFcENvWkNDd2FBZWZQQkJmZjMxMTVWYi9INmY2N3FLUkNLYU9YT212dnJxSzNtZWQ4QTRaV1ZsY2wxWExWdnVlNDN0SjU5OG9va1RKMWErbTFXU0VoTVR0WFRwVWkxZHVyVHlYRVZGaFNvcUtuVCsrZWMzbVZLMXRLUlUxa3BXaWxpWmNyL3pBRFZCcVFvQUFBQUFBQUFBUURQenZmZW5sa2pLbHJSRTBweG9OUHIxMHFWTFYvM1U4MlVKMFVpU2doSEpOTGxTMVJpakJ4NTRRSkwwOWRkZnEzZnYzbnIrK2VlcjNETjc5bXpkZSsrOWF0V3FsUzY1NUJLOStlYWJCNHl6YWRNbVNWTDc5dTJyblAvMDAwK3IvZnhKa3lacDdOaXhSL0lWR3B6aWtwSjlxNkt0b2xZZXBTb2FKVXBWQUFBQUFBQUFBQUNhR1d2dFprbFRyTFhUUGMvTDI3NTkrKzdObXpjZmNqdTZJOGV0U094bUtveWtvaWI2VHRVanRXYk5Ha2xTejU0OWZVN2l2OUxTVWxscldhbUtSbzFTRlFBQUFBQUFBQUNBWnNMenZQY2R4NW0wYU5HaWQ0OXNwTFVSMmN4U21YMHJWVDNQaytNNHRST3lnZG05ZTdkbXpacFY1ZHozdCt2OU1mUG56MWVMRmkzVXNXUEh1b3JXYU93dEt0cS81WFNGY2J5bTlSSmVOQnVVcWdBQUFBQUFBQUFBTkJOTGxpeDVvWmFHOG95VUswbTdDd3EwWis5ZXBhYWsxTkxRRGN1V0xWczBZY0tFQTg1MzZOQ2hza2pldndYeS91T3lzako5L1BISEdqWnMyQUhQN2QyN3Q5clBxNmlvT05MSURVNytONXZsdXE2TXNYdmxtbDErNXdGcWdsSVZBQUFBQUFBQUFBQWNOaXZsR0VrRkJZWGFzWE5Ya3l4Vlc3WnNxUUVEQnVpUlJ4NnBjajRhaldyKy9QbWFNV09HZHUvZXJXblRwaWs5UFYyaFVFaVM5T0tMTDZxOHZQeWdwZXFBQVFQcUpYdERzaUZ2azF6WGxhelpFdzE1Mi96T0E5UUVwU29BQUFBQUFBQUFBRGhzcnV1dENnWUQybDFZcUowN2QrbTRZNC94TzFLdHUrbW1tdzU2UGhBSTZMNzc3bE5CUVlFa3FVMmJOcnJqampzcXI2OWZ2MTZqUm8xU3AwNmREbmoyeVNlZnJQWXpQL2pnQTAyZlB2MElVamNza1doVStmbjU4anhQMW5yYjg1Y3YzKzEzSnFBbWpOOEJBQUFBQUFBQUFBQkE0NVBjb1VmTFZrbWhuZUZ3V0k4OThvQXUrdm41ZmtjNll1dldyWk14UnNjZWUrd1JqV090bGV1NkNnWloyN1pqeDA3ZGR0ZnZOUGVMTCtXNTN0L3lWbWYvajkrWmdKcG9tbStOQmdBQUFBQUFBQUFBZFdwUC92SmQxbXB6UlVXRnZ2MTJxenpQOHp2U0VldmN1Zk1SRjZxU1pJeWhVUDFPd1hjcm1TWEpPTTR5bitNQU5VYXBDZ0FBQUFBQUFBQUFhc2JhenlWcDlkcTFpa2FqZnFkQkE3Umo1MDV0M2Jidk5hcGV4RjNxY3h5Z3hpaFZBUUFBQUFBQUFBQkFEWG16SmVucmhZc1ZpVVQ4RG9NR2FGWE9HaFVVN3BGa2k3enkzU3Y4emdQVUZLVXFBQUFBQUFBQUFBQ29rZHljOEdScmJYbmV4azNLV2JQTzd6aG9nRDZmTjMvZk8yYXQzc2pQenkvMU93OVFVNVNxQUFBQUFBQUFBQUNnaGhaRVpNeDdrdlRLYTIvNEhRWU56TzZDUW4zeDVWZVNGRFZSNzJtLzh3QkhnbElWQUFBQUFBQUFBQURVbUdmdHU5WmE3OThmZnF5aW9pSy80NkFCK2RkNzc2dXNyRXpXMnRVbGhieFBGWTBicFNvQUFBQUFBQUFBQUtneEl5OWIwcmQ3aTRyMnIwb0VKRW12dlBxNkpNbEtIMjNmdnFMYzV6akFFYUZVQlFBQUFBQUFBQUFBTlZZZURhNlZ0TnhhYTkvOTk0ZUtSQ0orUjBJRHNIekZLcTFhdlVaV3R0aGE5M05KL0l1QlJvMVNGUUFBQUFBQUFBQUExTmlXdFl0MldLczV4aGozNndXTHRHYmRlcjhqd1dmUmFGUlRYcC8yM1pGWkU1V3p4TmRBUUMyZ1ZBVUFBQUFBQUFBQUFFZkNscFJIbnZHc1Y1ai96V2I5KzRPUDVicXUzNW5nbzV3MWEvWHBuSG43RGp3N2UzTk9kbzYvaVlBalI2a0tBQUFBQUFBQUFBQ095UGJjRlZ1TXpHT1M5TWFNdDdWbDZ6YS9JOEZILy83d1kzM3p6V1pacWNES1R2QTdEMUFiS0ZVQkFBQUFBQUFBQU1BUjJ4TXRmdEphbS9QTjVtLzE5UE1UL1k0RG4remF0VnV2dlBhR0pNbGE3OUc4bk93TlBrY0Nha1hBN3dBQUFBQUFBQUFBQUtEeEs5MjFxenlsVlp0U1NSZGxMMXR1QnB6WlgyMWFwOHNZNDNjMDFCUFhkWFhQZlE5cWNmWlNTWFp0N3Fyc0VYNW5BbW9MSzFVQkFBQUFBQUFBQUVCdCtVZ3l5eVRwMGIvL1U5dDM3UFE3RCtxSjUzbWFOZnZmZW1mV2U1SzE1ZGF6Ly9RN0UxQ2JLRlVCQUFBQUFBQUFBRUN0eU12SnpyT2VucFpzeGRlTEZtdjZXek1WaVViOWpvVjZzSGJkZWsxNDdrVkprcFZaYU1zaXIvc2NDYWhWbEtvQUFBQUFBQUFBQUtDMmVIbXJGNC8zcFArVWw1ZmJwNTU5UVN0V3JwSzExdTljcUVObFplVjY4YVZYdEdKbGpxeVY2MXIzTDNsNUs3LzFPeGRRbXloVkFRQUFBQUFBQUFCQWJmSXF5aXArS1duMW5qMTdkZE50ZHlwNzJYSy9NNkdPVkZSVTZKa1hKbXJxdEJtU2JNVEtqdDJVcy9RdHYzTUJ0UzNnZHdBQUFBQUFBQUFBQU5DMEZCWHNLR3lSMW5hMXBKL3RMU3BLWHJSa3FUSjc5VlRyOURRWlkveU9oMXBTVmxhdXA1K2ZwSCtPZjBaUjE3VXllaVlVTGI1ajE2NWRydC9aZ05wR3FRb0FBQUFBQUFBQUFHcGR3WTZ0NjVQVDJrYU0wVm03ZHUwT0wxNnlWUDFQUDFYSnlVa1VxMDFBV1ZtNUprNmVvaWVlbktDS1NNUWFtUThqVVh0NzN0cVZ1LzNPQnRRRlNsVUFBQUFBQUFBQUFGQW5DbmQwV0pUUzBpdVYwVWs3ZCsyS20vM2hSMHBOVGxIN2R1MFVHeHZyZHp6VWdPdDVXckZpbGY0KzdrbTkrTklycW9oRXJLUlB2S2pHNUsvTlh1ZDNQcUN1OEZkQkFBQUFBQUFBQUFCQVhYSTZkZTE5cVNObnZJelNZMk5qZFhxL2szWGJMYVBWbzF0WHY3UGhNSlNWbFduU0s2L3BsZGZlME1aTitiTFdXbG05cnZMSW1OemNGVnY4emdmVUpWYXFBZ0FBQUFBQUFBQ0F1bVFMZDJ4ZG1aVFdab2tqL1N3U2pTYm01bTAwVTZaT1UwdzRyRTZkamxZd0VKRGpPR3dMM0FCRm8xR1ZsWlZweGNvY1hYL0wvOU9iYi85TGhYdjJ5RnBiWnEyZDZCYTd0MjdjdUdLNzN6bUJ1c2JzQkFBQUFBQUFBQUFBNmtXSEUwNDRLdURFM1c1a2hrbTJvekhHcEtRa0s2dDNML1hxMFYzSEh0TkpSN1Z2cDZURUpNWEZ4U29jRG9rcW8vNTRucWV5c2pJVmw1Um81ODVkMnZUTlp1V3NYcU92Rnk3UytnMTVjbDFYMXFyVUdEdlBXdnRjN3FyUUc5S0NpTis1Z2ZyQVRBUUFBQUFBQUFBQUFPclBjY2ZGZEhBU01vT09icEIwdFRFbXRQOVNYRnljVWxPU0ZSTVRvM0FvcEVBZ1FKTlJqNnhuRllsR1ZWRlJvZUxpRWhVVUZzcnp2UCs3YnUxcWEvVVhPUlh2NXExYytlMy8zNTRkb3lZVVJWRVV2VmZ6aGRoWkJNS3ZCQ0dCZ0dQS0FKeU5ZM0VXcVFKV0VReWswOXJHcU85bENsWjVnbXVOWUZlbk9RMVQ0ZCtaSWdBQUFBQUFvSW1uNmR2eitMRmJaSW4zSE1Ra2FqeEU1akQ4RnplZ2xocDVqb2pmcVBXalhHTDVzL2xjdGE2Q1Zvd1NBQUFBQUFEUVd0ZS96R2Vqak5lSTdHdk5ZZXVnKzVZMUIrVndLYkU5bnNyWC9udTlhMTBFQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFBQUFEQTFmNEFQcXpXTUdqVFd6OEFBQUFBU1VWT1JLNUNZSUk9IiwKCSJUaGVtZSIgOiAiIiwKCSJUeXBlIiA6ICJmbG93IiwKCSJWZXJzaW9uIiA6ICIiCn0K"/>
+    </extobj>
+  </extobjs>
+</s:customData>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/design_data/fish_data.xlsx
+++ b/design_data/fish_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25968" windowHeight="13380"/>
+    <workbookView windowWidth="18288" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="策划表" sheetId="3" r:id="rId1"/>
-    <sheet name="fish_data" sheetId="1" r:id="rId2"/>
+    <sheet name="fish_species_prop_info" sheetId="1" r:id="rId2"/>
     <sheet name="supplement" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,49 +29,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>游戏循环</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>dps</t>
+  </si>
+  <si>
+    <t>x T =</t>
+  </si>
+  <si>
+    <t>赚钱</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>新人</t>
+  </si>
+  <si>
     <t>主界面-鱼缸</t>
   </si>
   <si>
-    <t>说明：此表记录鱼的初始化时（从钓场的概率池里抽出鱼种时/在渔场某鱼种繁衍时）的固定属性。</t>
+    <t>说明：此表记录鱼的初始化时（从钓场的概率池里抽出鱼种时/在渔场某鱼种繁衍时）的固定种族属性。</t>
   </si>
   <si>
     <t>鱼的种类名</t>
   </si>
   <si>
+    <t>模板（可能当物种差异大时，如鱼和蜗牛，不能用一样的模板/运动模式）</t>
+  </si>
+  <si>
     <t>稀有度：1最低，数字越大越稀有。</t>
   </si>
   <si>
-    <t>幼体图片路径</t>
-  </si>
-  <si>
-    <t>成体图片路径</t>
-  </si>
-  <si>
-    <t>此鱼种初始成年体重。（sheet2有图）
-鱼在出生时除了拥有此表的模板，还拥有一个隐藏的“成体体重”属性，此属性不会变动，在幼体时隐藏，成体时显示。
-当鱼是被钓场钓上时，其“成体体重”等于此列值。
-当鱼是被繁衍来时，其成体体重=（母体（即触发此次繁衍的鱼）成体体重+鱼塘内其他成熟同种鱼的成体体重平均值）/2，再乘一个随机的波动倍率。
-游戏的目标就是一代代地扩大“成体体重”</t>
-  </si>
-  <si>
-    <t>繁衍时下一代体重波动倍率最小值</t>
-  </si>
-  <si>
-    <t>繁衍时下一代体重波动倍率最大值。</t>
+    <t>外观相关路径</t>
+  </si>
+  <si>
+    <t>幼体长度</t>
+  </si>
+  <si>
+    <t>初始成体长度（第一次钓起时使用）</t>
+  </si>
+  <si>
+    <t>标准长度（只用来计算fish body 的scale）</t>
+  </si>
+  <si>
+    <t>成长所需时间
+另</t>
+  </si>
+  <si>
+    <t>成长倍率（繁衍后下一代的成体长度/亲代成体长度）（后面可能得做成某种分布？）</t>
+  </si>
+  <si>
+    <t>重量/长度换算比例</t>
   </si>
   <si>
     <t>单价</t>
   </si>
   <si>
-    <t>成长所需时间
-另，考虑随成长过程增大鱼的贴图在鱼缸内的scale好不好做</t>
-  </si>
-  <si>
     <t>繁殖所需时间周期</t>
   </si>
   <si>
@@ -84,49 +113,58 @@
     <t>id</t>
   </si>
   <si>
+    <t>species_name</t>
+  </si>
+  <si>
+    <t>template_scene</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
+    <t>larvae_length</t>
+  </si>
+  <si>
+    <t>init_adult_length</t>
+  </si>
+  <si>
+    <t>basic_length</t>
+  </si>
+  <si>
+    <t>time_to_grow_up</t>
+  </si>
+  <si>
+    <t>growth_rate</t>
+  </si>
+  <si>
+    <t>wlr</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>time_of_reproduction_cycle</t>
+  </si>
+  <si>
+    <t>Red Fish</t>
+  </si>
+  <si>
+    <t>res://scenes/fish/fish_temp.tscn</t>
+  </si>
+  <si>
+    <t>Ryukin</t>
+  </si>
+  <si>
+    <t>钓场id</t>
+  </si>
+  <si>
+    <t>钓场名称</t>
+  </si>
+  <si>
+    <t>钓场图片路径</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>larvae_img_path</t>
-  </si>
-  <si>
-    <t>adult_img_path</t>
-  </si>
-  <si>
-    <t>init_adult_weight</t>
-  </si>
-  <si>
-    <t>value_per_kg</t>
-  </si>
-  <si>
-    <t>time_to_grow_up</t>
-  </si>
-  <si>
-    <t>time_of_reproduction_cycle</t>
-  </si>
-  <si>
-    <t>Red Fish</t>
-  </si>
-  <si>
-    <t>res://assets/graphics/SpearFishingAssetsPack/Sprites/Fish1-16x16/Red.png</t>
-  </si>
-  <si>
-    <t>Ryukin</t>
-  </si>
-  <si>
-    <t>res://assets/graphics/SpearFishingAssetsPack/Sprites/Fish2-32x16/Orange.png</t>
-  </si>
-  <si>
-    <t>钓场id</t>
-  </si>
-  <si>
-    <t>钓场名称</t>
-  </si>
-  <si>
-    <t>钓场图片路径</t>
   </si>
   <si>
     <t>path</t>
@@ -295,18 +333,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -627,7 +659,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,16 +683,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -669,89 +701,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,9 +791,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1088,6 +1117,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>金币</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2600,7 +2633,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>348615</xdr:colOff>
+      <xdr:colOff>226695</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
@@ -2617,8 +2650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5225415" y="5224780"/>
-          <a:ext cx="1188720" cy="243840"/>
+          <a:off x="5103495" y="5224780"/>
+          <a:ext cx="1310640" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2750,7 +2783,145 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>钓竿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>钓场切换</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160655</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11133455" y="8275320"/>
+          <a:ext cx="1416685" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>售卖</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放生</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>作饵</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>502285</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="横卷形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10835640" y="4290060"/>
+          <a:ext cx="639445" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="horizontalScroll">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>图鉴</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3066,10 +3237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3079,9 +3250,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3094,162 +3298,176 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.4444444444444" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="5" width="17.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
-    <col min="7" max="16384" width="17.4444444444444" customWidth="1"/>
+    <col min="1" max="6" width="17.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="23.7962962962963" customWidth="1"/>
+    <col min="8" max="12" width="17.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="27.2962962962963" customWidth="1"/>
+    <col min="14" max="16382" width="17.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="195" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="195" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>1.5</v>
+      </c>
+      <c r="K3">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>0.9</v>
-      </c>
-      <c r="H3">
-        <v>1.2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4"/>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>0.9</v>
-      </c>
-      <c r="H4">
-        <v>1.2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>15</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="O4">
         <v>1</v>
       </c>
     </row>
@@ -3272,24 +3490,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
